--- a/doc/需求讨论_表定义.xlsx
+++ b/doc/需求讨论_表定义.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="606">
   <si>
     <t>1 我的想法是抛开你这个表的情况，先以你为维度登记处理下整个的贷款周期内的各种事情，比如合同登记、放款、还款、逾期、提前还款等等</t>
   </si>
@@ -2478,8 +2478,48 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>身份证:</t>
+    <t>out_acct_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctd_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctd_serv_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctd_pen</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期罚息累计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收服务费累计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_paid_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_paid_serv_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_paid_pen</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_wav_amt</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>待还:</t>
     </r>
     <r>
       <rPr>
@@ -2500,7 +2540,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,电子合同</t>
+      <t>,已还</t>
     </r>
     <r>
       <rPr>
@@ -2521,7 +2561,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,房本</t>
+      <t>,已逾期</t>
     </r>
     <r>
       <rPr>
@@ -2542,8 +2582,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,解押手
-续</t>
+      <t>,
+已代偿</t>
     </r>
     <r>
       <rPr>
@@ -2556,51 +2596,15 @@
       </rPr>
       <t>:4</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_acct_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctd_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctd_serv_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctd_pen</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期罚息累计</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>已收服务费累计</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_paid_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_paid_serv_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_paid_pen</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_wav_amt</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>待还:</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,已终止</t>
     </r>
     <r>
       <rPr>
@@ -2611,17 +2615,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,已还</t>
+      <t>:5</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
     </r>
     <r>
       <rPr>
@@ -2632,7 +2632,30 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
+      <t>mt_type</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借据编号,融资编号,收支编号，入账编号，
+出账编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucher_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>amt</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>bal_dir</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar(1</t>
     </r>
     <r>
       <rPr>
@@ -2642,7 +2665,37 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,已逾期</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>available_b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alance</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>acct</t>
     </r>
     <r>
       <rPr>
@@ -2653,18 +2706,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
-已代偿</t>
+      <t>_type</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>公司卡账户:</t>
     </r>
     <r>
       <rPr>
@@ -2675,7 +2723,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:4</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2685,7 +2733,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,已终止</t>
+      <t>,融资账户</t>
     </r>
     <r>
       <rPr>
@@ -2696,13 +2744,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:5</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
+      <t>:2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,借款人账
+户</t>
     </r>
     <r>
       <rPr>
@@ -2713,30 +2766,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mt_type</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>借据编号,融资编号,收支编号，入账编号，
-出账编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucher_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>amt</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>bal_dir</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>varchar(1</t>
+      <t>:3</t>
     </r>
     <r>
       <rPr>
@@ -2746,41 +2776,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功:1,失败:2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>available_b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alance</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>acct</t>
+      <t>,代偿账户</t>
     </r>
     <r>
       <rPr>
@@ -2791,13 +2787,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_type</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>公司卡账户:</t>
+      <t>:4,往来户:5</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果是融资账户指的是用户编号
+如果是公司卡账户，为1
+如果是借款人账户，指的是客户编号
+如果是代偿账户，为</t>
     </r>
     <r>
       <rPr>
@@ -2808,7 +2807,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -2818,7 +2817,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,融资账户</t>
+      <t xml:space="preserve">
+如果是暂收暂付账户，为</t>
     </r>
     <r>
       <rPr>
@@ -2829,18 +2829,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,借款人账
-户</t>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze_balance</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可透支:</t>
     </r>
     <r>
       <rPr>
@@ -2851,7 +2854,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:3</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2861,7 +2864,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,代偿账户</t>
+      <t>,不可透支</t>
     </r>
     <r>
       <rPr>
@@ -2872,16 +2875,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:4,往来户:5</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>如果是融资账户指的是用户编号
-如果是公司卡账户，为1
-如果是借款人账户，指的是客户编号
-如果是代偿账户，为</t>
+      <t>:2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_acct_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>登记:</t>
     </r>
     <r>
       <rPr>
@@ -2892,7 +2896,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2902,8 +2906,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-如果是暂收暂付账户，为</t>
+      <t>,计息中</t>
     </r>
     <r>
       <rPr>
@@ -2914,21 +2917,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze_balance</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance_type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可透支:</t>
+      <t>:2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,已延期</t>
     </r>
     <r>
       <rPr>
@@ -2939,7 +2938,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>:3</t>
     </r>
     <r>
       <rPr>
@@ -2949,7 +2948,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,不可透支</t>
+      <t>,已撤资</t>
     </r>
     <r>
       <rPr>
@@ -2960,17 +2959,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>in_acct_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>登记:</t>
+      <t>:4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+已结转</t>
     </r>
     <r>
       <rPr>
@@ -2981,17 +2981,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,计息中</t>
+      <t>:5</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个月的第几天</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资信息表（描述融资的融资信息）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dd_</t>
     </r>
     <r>
       <rPr>
@@ -3002,17 +3006,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,已延期</t>
+      <t>num</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
     </r>
     <r>
       <rPr>
@@ -3023,7 +3027,58 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:3</t>
+      <t>mt</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>出账账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户调整:1,服务费补偿:2,融资人贴息:3,其他:4</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_bigint</t>
+  </si>
+  <si>
+    <t>schd_bigint</t>
+  </si>
+  <si>
+    <t>tot_paid_bigint</t>
+  </si>
+  <si>
+    <t>ctd_bigint</t>
+  </si>
+  <si>
+    <t>paid_bigint</t>
+  </si>
+  <si>
+    <t>tot_schd_bigint</t>
+  </si>
+  <si>
+    <t>chd_bigint</t>
+  </si>
+  <si>
+    <t>用户信息表（描述使用系统的用户信息，可以是操作人,也可以是融资用户）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户信息表</t>
     </r>
     <r>
       <rPr>
@@ -3033,7 +3088,214 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,已撤资</t>
+      <t>（描述的是借款人信息）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>借据表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（借款具体信息，描述具体的借款情况，整个借款的生命周期中，主要变更这个表）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>借据凭证信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（描述的是贷款的原始凭证信息）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>还款计划表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（客户的还款计划信息，根据借据的期数，生成多条记录）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表（借款人,融资,公司卡账户）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_acct</t>
+  </si>
+  <si>
+    <t>回款计划表（描述融资的回款计划信息）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期开始日期</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期结束日期</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>期数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>展期期数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期期数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle_interval</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期间隔</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>一期的天数，默认是30天</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资人出款账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>指的是从外部那个银行卡出入的,标记</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>指的是从哪个公司卡账户出入钱</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>invest_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借据编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>external_acct</t>
+  </si>
+  <si>
+    <t>external_acct</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个用户可以指定多个公司</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自增</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_sys_user</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_product_info</t>
+  </si>
+  <si>
+    <t>t_biz_customer_info</t>
+  </si>
+  <si>
+    <t>t_biz_loan_info</t>
+  </si>
+  <si>
+    <t>t_biz_loan_voucher_info</t>
+  </si>
+  <si>
+    <t>t_biz_repay_plan</t>
+  </si>
+  <si>
+    <t>t_biz_acct_record</t>
+  </si>
+  <si>
+    <t>t_biz_acct</t>
+  </si>
+  <si>
+    <t>t_biz_invest_info</t>
+  </si>
+  <si>
+    <t>t_biz_invest_plan</t>
+  </si>
+  <si>
+    <t>t_biz_in_out_voucher_info</t>
+  </si>
+  <si>
+    <t>t_biz_transfer_voucher_info</t>
+  </si>
+  <si>
+    <r>
+      <t>首期:1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按期</t>
     </r>
     <r>
       <rPr>
@@ -3044,7 +3306,78 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:4</t>
+      <t>:2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:是,0:否</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作员,超级管理员,
+一个用户可以指定多个角色</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户状态</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效:1,冻结:2,止用:3</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>cert_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>正常:1,</t>
     </r>
     <r>
       <rPr>
@@ -3054,8 +3387,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,
-已结转</t>
+      <t>黑名单</t>
     </r>
     <r>
       <rPr>
@@ -3066,21 +3398,252 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:5</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个月的第几天</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资信息表（描述融资的融资信息）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>dd_</t>
+      <t>:2,删除:3</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_by</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改操作员</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>modified_by</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>createAt</t>
+  </si>
+  <si>
+    <t>updateAt</t>
+  </si>
+  <si>
+    <t>lendingAmt</t>
+  </si>
+  <si>
+    <t>lendingAcct</t>
+  </si>
+  <si>
+    <t>externalAcct</t>
+  </si>
+  <si>
+    <t>wavAmt</t>
+  </si>
+  <si>
+    <t>createBy</t>
+  </si>
+  <si>
+    <t>modifiedBy</t>
+  </si>
+  <si>
+    <t>receiveBigint</t>
+  </si>
+  <si>
+    <t>schdBigint</t>
+  </si>
+  <si>
+    <t>ctdBigint</t>
+  </si>
+  <si>
+    <t>paidBigint</t>
+  </si>
+  <si>
+    <t>chdBigint</t>
+  </si>
+  <si>
+    <t>acctDate</t>
+  </si>
+  <si>
+    <t>beginDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>lendingDate</t>
+  </si>
+  <si>
+    <t>ddDate</t>
+  </si>
+  <si>
+    <t>balDir</t>
+  </si>
+  <si>
+    <t>serviceFee</t>
+  </si>
+  <si>
+    <t>cycleInterval</t>
+  </si>
+  <si>
+    <t>orgNo</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>penNumber</t>
+  </si>
+  <si>
+    <t>productNo</t>
+  </si>
+  <si>
+    <t>custNo</t>
+  </si>
+  <si>
+    <t>contrNo</t>
+  </si>
+  <si>
+    <t>termNo</t>
+  </si>
+  <si>
+    <t>extensionNo</t>
+  </si>
+  <si>
+    <t>loanNo</t>
+  </si>
+  <si>
+    <t>ddNum</t>
+  </si>
+  <si>
+    <t>inAcctNo</t>
+  </si>
+  <si>
+    <t>groupNo</t>
+  </si>
+  <si>
+    <t>voucherNo</t>
+  </si>
+  <si>
+    <t>acctNo</t>
+  </si>
+  <si>
+    <t>userNo</t>
+  </si>
+  <si>
+    <t>investNo</t>
+  </si>
+  <si>
+    <t>outAcctNo</t>
+  </si>
+  <si>
+    <t>isPen</t>
+  </si>
+  <si>
+    <t>schdPrin</t>
+  </si>
+  <si>
+    <t>schdPen</t>
+  </si>
+  <si>
+    <t>totPaidPrin</t>
+  </si>
+  <si>
+    <t>totPaidBigint</t>
+  </si>
+  <si>
+    <t>totPaidPen</t>
+  </si>
+  <si>
+    <t>ctdPrin</t>
+  </si>
+  <si>
+    <t>ctdPen</t>
+  </si>
+  <si>
+    <t>paidPrin</t>
+  </si>
+  <si>
+    <t>paidPen</t>
+  </si>
+  <si>
+    <t>ddPrin</t>
+  </si>
+  <si>
+    <t>penRate</t>
+  </si>
+  <si>
+    <t>extensionRate</t>
+  </si>
+  <si>
+    <t>serviceFeeScale</t>
+  </si>
+  <si>
+    <t>schdServFee</t>
+  </si>
+  <si>
+    <t>totPaidServFee</t>
+  </si>
+  <si>
+    <t>ctdServFee</t>
+  </si>
+  <si>
+    <t>paidServFee</t>
+  </si>
+  <si>
+    <t>totSchdBigint</t>
+  </si>
+  <si>
+    <t>serviceFeeType</t>
+  </si>
+  <si>
+    <t>repayType</t>
+  </si>
+  <si>
+    <t>loanType</t>
+  </si>
+  <si>
+    <t>amtType</t>
+  </si>
+  <si>
+    <t>totWavAmt</t>
+  </si>
+  <si>
+    <t>TBizProductInfo</t>
+  </si>
+  <si>
+    <t>TBizCustomerInfo</t>
+  </si>
+  <si>
+    <t>TBizLoanInfo</t>
+  </si>
+  <si>
+    <t>TBizLoanVoucherInfo</t>
+  </si>
+  <si>
+    <t>TBizRepayPlan</t>
+  </si>
+  <si>
+    <t>TBizAcctRecord</t>
+  </si>
+  <si>
+    <t>TBizAcct</t>
+  </si>
+  <si>
+    <t>TBizInvestInfo</t>
+  </si>
+  <si>
+    <t>TBizInvestPlan</t>
+  </si>
+  <si>
+    <t>TBizInOutVoucherInfo</t>
+  </si>
+  <si>
+    <t>TBizTransferVoucherInfo</t>
+  </si>
+  <si>
+    <t>cert_type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>certType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -3091,17 +3654,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>num</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>未计息:</t>
+      <t>tatus</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>certNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>balanceType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>acct</t>
     </r>
     <r>
       <rPr>
@@ -3112,17 +3715,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,已计息</t>
+      <t>_type</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可透支:</t>
     </r>
     <r>
       <rPr>
@@ -3133,7 +3736,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -3143,7 +3746,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,已结息</t>
+      <t>,不可透支</t>
     </r>
     <r>
       <rPr>
@@ -3154,17 +3757,67 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,已终止</t>
+      <t>:2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资151开头,借款251开头</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资账户171开头,借款账户271开头,公司卡账户471开头,
+暂收371，暂付372，代偿370</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名称</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>availableBalance</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>freezeBalance</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:公司卡账户,2:融资账户,3:借款人账户,4:代偿账户,5:暂收,6:暂付</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:借款人账户,2:融资人账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资账户、借款人账户指的是客户编号
+如果是公司卡账户、代偿账户、暂收暂付账户，为15000000001</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借据状态</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>身份证:</t>
     </r>
     <r>
       <rPr>
@@ -3175,13 +3828,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:4</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,电子合同</t>
     </r>
     <r>
       <rPr>
@@ -3192,71 +3849,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mt</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般预算支出:1,办公支出:2,其他支出:3,股东分润:5,对公支出:6,对公收入:7,利息收入:8</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>出账账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户调整:1,服务费补偿:2,融资人贴息:3,其他:4</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>放款:1,还款:2,服务费收取:3,
-服务费补偿:4,支出:5,融资:6,撤资:7,收入:8,资金登记:9,转账:10,提现:11,结转:12</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>本金:1,利息:2,罚息:3,服务费:4,代偿:5,活期利息:6,资金:7</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>acct_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive_bigint</t>
-  </si>
-  <si>
-    <t>schd_bigint</t>
-  </si>
-  <si>
-    <t>tot_paid_bigint</t>
-  </si>
-  <si>
-    <t>ctd_bigint</t>
-  </si>
-  <si>
-    <t>paid_bigint</t>
-  </si>
-  <si>
-    <t>tot_schd_bigint</t>
-  </si>
-  <si>
-    <t>chd_bigint</t>
-  </si>
-  <si>
-    <t>用户信息表（描述使用系统的用户信息，可以是操作人,也可以是融资用户）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>客户信息表</t>
+      <t>:2</t>
     </r>
     <r>
       <rPr>
@@ -3266,214 +3859,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（描述的是借款人信息）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>借据表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（借款具体信息，描述具体的借款情况，整个借款的生命周期中，主要变更这个表）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>借据凭证信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（描述的是贷款的原始凭证信息）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>还款计划表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（客户的还款计划信息，根据借据的期数，生成多条记录）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表（借款人,融资,公司卡账户）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_acct</t>
-  </si>
-  <si>
-    <t>回款计划表（描述融资的回款计划信息）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>本期开始日期</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>本期结束日期</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>期数</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>展期期数</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>延期期数</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>cycle_interval</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期间隔</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>一期的天数，默认是30天</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资人出款账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>指的是从外部那个银行卡出入的,标记</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>指的是从哪个公司卡账户出入钱</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>invest_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>借据编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>cust_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>external_acct</t>
-  </si>
-  <si>
-    <t>external_acct</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个用户可以指定多个公司</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否自增</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_sys_user</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_biz_product_info</t>
-  </si>
-  <si>
-    <t>t_biz_customer_info</t>
-  </si>
-  <si>
-    <t>t_biz_loan_info</t>
-  </si>
-  <si>
-    <t>t_biz_loan_voucher_info</t>
-  </si>
-  <si>
-    <t>t_biz_repay_plan</t>
-  </si>
-  <si>
-    <t>t_biz_acct_record</t>
-  </si>
-  <si>
-    <t>t_biz_acct</t>
-  </si>
-  <si>
-    <t>t_biz_invest_info</t>
-  </si>
-  <si>
-    <t>t_biz_invest_plan</t>
-  </si>
-  <si>
-    <t>t_biz_in_out_voucher_info</t>
-  </si>
-  <si>
-    <t>t_biz_transfer_voucher_info</t>
-  </si>
-  <si>
-    <r>
-      <t>首期:1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>按期</t>
+      <t>,房本</t>
     </r>
     <r>
       <rPr>
@@ -3484,78 +3870,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:是,0:否</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作员,超级管理员,
-一个用户可以指定多个角色</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效:1,冻结:2,止用:3</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件号码</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>cert_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户姓名</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>正常:1,</t>
+      <t>:3</t>
     </r>
     <r>
       <rPr>
@@ -3565,7 +3880,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>黑名单</t>
+      <t>,解押手
+续</t>
     </r>
     <r>
       <rPr>
@@ -3576,252 +3892,37 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2,删除:3</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_by</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改操作员</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>modified_by</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>createAt</t>
-  </si>
-  <si>
-    <t>updateAt</t>
-  </si>
-  <si>
-    <t>lendingAmt</t>
-  </si>
-  <si>
-    <t>lendingAcct</t>
-  </si>
-  <si>
-    <t>externalAcct</t>
-  </si>
-  <si>
-    <t>wavAmt</t>
-  </si>
-  <si>
-    <t>createBy</t>
-  </si>
-  <si>
-    <t>modifiedBy</t>
-  </si>
-  <si>
-    <t>receiveBigint</t>
-  </si>
-  <si>
-    <t>schdBigint</t>
-  </si>
-  <si>
-    <t>ctdBigint</t>
-  </si>
-  <si>
-    <t>paidBigint</t>
-  </si>
-  <si>
-    <t>chdBigint</t>
-  </si>
-  <si>
-    <t>acctDate</t>
-  </si>
-  <si>
-    <t>beginDate</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-  <si>
-    <t>lendingDate</t>
-  </si>
-  <si>
-    <t>ddDate</t>
-  </si>
-  <si>
-    <t>balDir</t>
-  </si>
-  <si>
-    <t>serviceFee</t>
-  </si>
-  <si>
-    <t>cycleInterval</t>
-  </si>
-  <si>
-    <t>orgNo</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>penNumber</t>
-  </si>
-  <si>
-    <t>productNo</t>
-  </si>
-  <si>
-    <t>custNo</t>
-  </si>
-  <si>
-    <t>contrNo</t>
-  </si>
-  <si>
-    <t>termNo</t>
-  </si>
-  <si>
-    <t>extensionNo</t>
-  </si>
-  <si>
-    <t>loanNo</t>
-  </si>
-  <si>
-    <t>ddNum</t>
-  </si>
-  <si>
-    <t>inAcctNo</t>
-  </si>
-  <si>
-    <t>groupNo</t>
-  </si>
-  <si>
-    <t>voucherNo</t>
-  </si>
-  <si>
-    <t>acctNo</t>
-  </si>
-  <si>
-    <t>userNo</t>
-  </si>
-  <si>
-    <t>investNo</t>
-  </si>
-  <si>
-    <t>outAcctNo</t>
-  </si>
-  <si>
-    <t>isPen</t>
-  </si>
-  <si>
-    <t>schdPrin</t>
-  </si>
-  <si>
-    <t>schdPen</t>
-  </si>
-  <si>
-    <t>totPaidPrin</t>
-  </si>
-  <si>
-    <t>totPaidBigint</t>
-  </si>
-  <si>
-    <t>totPaidPen</t>
-  </si>
-  <si>
-    <t>ctdPrin</t>
-  </si>
-  <si>
-    <t>ctdPen</t>
-  </si>
-  <si>
-    <t>paidPrin</t>
-  </si>
-  <si>
-    <t>paidPen</t>
-  </si>
-  <si>
-    <t>ddPrin</t>
-  </si>
-  <si>
-    <t>penRate</t>
-  </si>
-  <si>
-    <t>extensionRate</t>
-  </si>
-  <si>
-    <t>serviceFeeScale</t>
-  </si>
-  <si>
-    <t>schdServFee</t>
-  </si>
-  <si>
-    <t>totPaidServFee</t>
-  </si>
-  <si>
-    <t>ctdServFee</t>
-  </si>
-  <si>
-    <t>paidServFee</t>
-  </si>
-  <si>
-    <t>totSchdBigint</t>
-  </si>
-  <si>
-    <t>serviceFeeType</t>
-  </si>
-  <si>
-    <t>repayType</t>
-  </si>
-  <si>
-    <t>loanType</t>
-  </si>
-  <si>
-    <t>amtType</t>
-  </si>
-  <si>
-    <t>totWavAmt</t>
-  </si>
-  <si>
-    <t>TBizProductInfo</t>
-  </si>
-  <si>
-    <t>TBizCustomerInfo</t>
-  </si>
-  <si>
-    <t>TBizLoanInfo</t>
-  </si>
-  <si>
-    <t>TBizLoanVoucherInfo</t>
-  </si>
-  <si>
-    <t>TBizRepayPlan</t>
-  </si>
-  <si>
-    <t>TBizAcctRecord</t>
-  </si>
-  <si>
-    <t>TBizAcct</t>
-  </si>
-  <si>
-    <t>TBizInvestInfo</t>
-  </si>
-  <si>
-    <t>TBizInvestPlan</t>
-  </si>
-  <si>
-    <t>TBizInOutVoucherInfo</t>
-  </si>
-  <si>
-    <t>TBizTransferVoucherInfo</t>
-  </si>
-  <si>
-    <t>cert_type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>certType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
+      <t>:4</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款状态</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金:1,利息:2,罚息:3,服务费:4,活期利息:5,资金:6</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:放款,2:还款,3:服务费收取,4:服务费补偿,5:支出,6:融资,7:撤资,8:收入,9:资金登记,10:转账,11:提现,12:结转,13:代偿,14:提前还款</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中:0,成功:1,失败:2</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>未计息:</t>
     </r>
     <r>
       <rPr>
@@ -3832,57 +3933,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>tatus</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>certNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>acctType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>balanceType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>acct</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,已计息</t>
     </r>
     <r>
       <rPr>
@@ -3893,17 +3954,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_type</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可透支:</t>
+      <t>:2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,已结息</t>
     </r>
     <r>
       <rPr>
@@ -3914,7 +3975,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>:3</t>
     </r>
     <r>
       <rPr>
@@ -3924,7 +3985,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,不可透支</t>
+      <t>,已终止</t>
     </r>
     <r>
       <rPr>
@@ -3935,58 +3996,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资151开头,借款251开头</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资账户171开头,借款账户271开头,公司卡账户471开头,
-暂收371，暂付372，代偿370</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名称</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>userNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>availableBalance</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>freezeBalance</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:公司卡账户,2:融资账户,3:借款人账户,4:代偿账户,5:暂收,6:暂付</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:借款人账户,2:融资人账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资账户、借款人账户指的是客户编号
-如果是公司卡账户、代偿账户、暂收暂付账户，为15000000001</t>
+      <t>:4</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中:0,成功:1,失败:2</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般预算支出:1,办公支出:2,其他支出:3,股东分润:4,对公支出:5,对公收入:6,利息收入:7</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -4585,8 +4604,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4689,72 +4774,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7020,29 +7039,29 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="M1" s="120" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="M1" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="121"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="19" t="s">
         <v>97</v>
       </c>
@@ -7051,18 +7070,18 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="L2" s="66" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="L2" s="75" t="s">
         <v>98</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -7103,18 +7122,18 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="L3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="6">
         <v>1</v>
       </c>
@@ -7151,21 +7170,21 @@
       <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="L4" s="66"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="6">
         <v>2</v>
       </c>
@@ -7202,17 +7221,17 @@
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="103"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
-      <c r="L5" s="66"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
+      <c r="L5" s="75"/>
       <c r="M5" s="6">
         <v>3</v>
       </c>
@@ -7248,17 +7267,17 @@
       <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="104"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="L6" s="66"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
+      <c r="L6" s="75"/>
       <c r="M6" s="6">
         <v>4</v>
       </c>
@@ -7292,21 +7311,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="79"/>
-      <c r="L7" s="66"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101"/>
+      <c r="L7" s="75"/>
       <c r="M7" s="6">
         <v>5</v>
       </c>
@@ -7340,17 +7359,17 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="103"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
-      <c r="L8" s="66"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="6">
         <v>6</v>
       </c>
@@ -7386,17 +7405,17 @@
       <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="103"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
-      <c r="L9" s="66"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+      <c r="L9" s="75"/>
       <c r="M9" s="6">
         <v>7</v>
       </c>
@@ -7432,17 +7451,17 @@
       <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="103"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
-      <c r="L10" s="66"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+      <c r="L10" s="75"/>
       <c r="M10" s="6">
         <v>8</v>
       </c>
@@ -7478,17 +7497,17 @@
       <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="104"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
-      <c r="L11" s="66"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="6">
         <v>9</v>
       </c>
@@ -7522,21 +7541,21 @@
       <c r="W11" s="11"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="88"/>
-      <c r="L12" s="66"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="6">
         <v>10</v>
       </c>
@@ -7572,17 +7591,17 @@
       <c r="W12" s="11"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="103"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
-      <c r="L13" s="66"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
+      <c r="L13" s="75"/>
       <c r="M13" s="6">
         <v>11</v>
       </c>
@@ -7618,17 +7637,17 @@
       <c r="W13" s="11"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="103"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
-      <c r="L14" s="66"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
+      <c r="L14" s="75"/>
       <c r="M14" s="6">
         <v>12</v>
       </c>
@@ -7664,17 +7683,17 @@
       <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="103"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="L15" s="66"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="113"/>
+      <c r="L15" s="75"/>
       <c r="M15" s="6">
         <v>13</v>
       </c>
@@ -7708,17 +7727,17 @@
       <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="103"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
-      <c r="L16" s="66"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="113"/>
+      <c r="L16" s="75"/>
       <c r="M16" s="6">
         <v>14</v>
       </c>
@@ -7752,17 +7771,17 @@
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="104"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="L17" s="66"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
+      <c r="L17" s="75"/>
       <c r="M17" s="6">
         <v>15</v>
       </c>
@@ -7788,21 +7807,21 @@
       <c r="W17" s="11"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="97"/>
-      <c r="L18" s="66"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
+      <c r="L18" s="75"/>
       <c r="M18" s="6">
         <v>16</v>
       </c>
@@ -7828,17 +7847,17 @@
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="106"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
-      <c r="L19" s="66"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122"/>
+      <c r="L19" s="75"/>
       <c r="M19" s="6">
         <v>17</v>
       </c>
@@ -7865,16 +7884,16 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="L20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="L20" s="75"/>
       <c r="M20" s="6"/>
       <c r="N20" s="11"/>
       <c r="O20" s="12"/>
@@ -7897,16 +7916,16 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="1"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="L21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="L21" s="75"/>
       <c r="M21" s="6"/>
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
@@ -7929,16 +7948,16 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="L22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="L22" s="75"/>
       <c r="M22" s="6"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
@@ -7961,16 +7980,16 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="1"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="L23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="L23" s="75"/>
       <c r="M23" s="6"/>
       <c r="N23" s="11"/>
       <c r="O23" s="12"/>
@@ -7993,16 +8012,16 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="1"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="L24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="L24" s="75"/>
       <c r="M24" s="6"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
@@ -8025,16 +8044,16 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="L25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="L25" s="75"/>
       <c r="M25" s="6"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
@@ -8057,16 +8076,16 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="1"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="L26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="L26" s="75"/>
       <c r="M26" s="6" t="s">
         <v>143</v>
       </c>
@@ -8101,115 +8120,115 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="1"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="1"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="1"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="1"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="1"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="N33" s="117" t="s">
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="N33" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="O33" s="117"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="117"/>
-      <c r="R33" s="117"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
       <c r="X33" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="1"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="M34" s="66" t="s">
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="M34" s="75" t="s">
         <v>119</v>
       </c>
       <c r="N34" s="6" t="s">
@@ -8218,10 +8237,10 @@
       <c r="O34" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="P34" s="118" t="s">
+      <c r="P34" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="Q34" s="119"/>
+      <c r="Q34" s="72"/>
       <c r="R34" s="27" t="s">
         <v>147</v>
       </c>
@@ -8231,10 +8250,10 @@
       <c r="T34" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="U34" s="115" t="s">
+      <c r="U34" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="V34" s="116"/>
+      <c r="V34" s="74"/>
       <c r="W34" s="12" t="s">
         <v>151</v>
       </c>
@@ -8244,16 +8263,16 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="1"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="M35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="M35" s="75"/>
       <c r="N35" s="6">
         <v>1</v>
       </c>
@@ -8276,11 +8295,11 @@
       <c r="T35" s="27">
         <v>0</v>
       </c>
-      <c r="U35" s="115">
+      <c r="U35" s="73">
         <f>SUM(U36:U44)</f>
         <v>-162944</v>
       </c>
-      <c r="V35" s="116"/>
+      <c r="V35" s="74"/>
       <c r="W35" s="12">
         <f>O35+Q35+R35+S35-T35+U35</f>
         <v>-662731.32999999996</v>
@@ -8289,16 +8308,16 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="1"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="M36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="M36" s="75"/>
       <c r="N36" s="6">
         <v>2</v>
       </c>
@@ -8323,16 +8342,16 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="1"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="M37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="M37" s="75"/>
       <c r="N37" s="6">
         <v>3</v>
       </c>
@@ -8357,16 +8376,16 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="1"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="M38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="M38" s="75"/>
       <c r="N38" s="6">
         <v>4</v>
       </c>
@@ -8386,7 +8405,7 @@
       <c r="X38" s="12"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="M39" s="66"/>
+      <c r="M39" s="75"/>
       <c r="N39" s="6">
         <v>5</v>
       </c>
@@ -8416,7 +8435,7 @@
       <c r="G40" s="49"/>
       <c r="H40" s="49"/>
       <c r="I40" s="49"/>
-      <c r="M40" s="66"/>
+      <c r="M40" s="75"/>
       <c r="N40" s="6">
         <v>6</v>
       </c>
@@ -8437,7 +8456,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="B41" s="48"/>
-      <c r="M41" s="66"/>
+      <c r="M41" s="75"/>
       <c r="N41" s="6">
         <v>7</v>
       </c>
@@ -8457,7 +8476,7 @@
       <c r="X41" s="12"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="M42" s="66"/>
+      <c r="M42" s="75"/>
       <c r="N42" s="6">
         <v>8</v>
       </c>
@@ -8490,7 +8509,7 @@
       <c r="J43" s="49"/>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
-      <c r="M43" s="66"/>
+      <c r="M43" s="75"/>
       <c r="N43" s="6">
         <v>9</v>
       </c>
@@ -8528,7 +8547,7 @@
       <c r="J44" s="49"/>
       <c r="K44" s="49"/>
       <c r="L44" s="49"/>
-      <c r="M44" s="66"/>
+      <c r="M44" s="75"/>
       <c r="N44" s="6">
         <v>10</v>
       </c>
@@ -8549,22 +8568,22 @@
       </c>
     </row>
     <row r="49" spans="13:24">
-      <c r="N49" s="113" t="s">
+      <c r="N49" s="76" t="s">
         <v>299</v>
       </c>
-      <c r="O49" s="114"/>
-      <c r="P49" s="114"/>
-      <c r="Q49" s="114"/>
-      <c r="R49" s="114"/>
-      <c r="S49" s="114"/>
-      <c r="T49" s="114"/>
-      <c r="U49" s="114"/>
-      <c r="V49" s="114"/>
-      <c r="W49" s="114"/>
-      <c r="X49" s="114"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="77"/>
     </row>
     <row r="50" spans="13:24">
-      <c r="M50" s="66" t="s">
+      <c r="M50" s="75" t="s">
         <v>298</v>
       </c>
       <c r="N50" s="15"/>
@@ -8582,13 +8601,13 @@
         <v>167</v>
       </c>
       <c r="V50" s="17"/>
-      <c r="W50" s="111" t="s">
+      <c r="W50" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="X50" s="112"/>
+      <c r="X50" s="79"/>
     </row>
     <row r="51" spans="13:24">
-      <c r="M51" s="67"/>
+      <c r="M51" s="89"/>
       <c r="N51" s="17">
         <v>7</v>
       </c>
@@ -8606,13 +8625,13 @@
       <c r="V51" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="W51" s="111">
+      <c r="W51" s="78">
         <v>22000</v>
       </c>
-      <c r="X51" s="112"/>
+      <c r="X51" s="79"/>
     </row>
     <row r="52" spans="13:24">
-      <c r="M52" s="67"/>
+      <c r="M52" s="89"/>
       <c r="N52" s="17">
         <v>8</v>
       </c>
@@ -8630,13 +8649,13 @@
       <c r="V52" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="W52" s="111">
+      <c r="W52" s="78">
         <v>18000</v>
       </c>
-      <c r="X52" s="112"/>
+      <c r="X52" s="79"/>
     </row>
     <row r="53" spans="13:24">
-      <c r="M53" s="67"/>
+      <c r="M53" s="89"/>
       <c r="N53" s="17">
         <v>9</v>
       </c>
@@ -8654,13 +8673,13 @@
       <c r="V53" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="W53" s="111">
+      <c r="W53" s="78">
         <v>18000</v>
       </c>
-      <c r="X53" s="112"/>
+      <c r="X53" s="79"/>
     </row>
     <row r="54" spans="13:24">
-      <c r="M54" s="67"/>
+      <c r="M54" s="89"/>
       <c r="N54" s="17">
         <v>10</v>
       </c>
@@ -8678,13 +8697,13 @@
       <c r="V54" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="W54" s="111">
+      <c r="W54" s="78">
         <v>18000</v>
       </c>
-      <c r="X54" s="112"/>
+      <c r="X54" s="79"/>
     </row>
     <row r="55" spans="13:24">
-      <c r="M55" s="67"/>
+      <c r="M55" s="89"/>
       <c r="N55" s="17">
         <v>11</v>
       </c>
@@ -8702,13 +8721,13 @@
       <c r="V55" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="W55" s="111">
+      <c r="W55" s="78">
         <v>18000</v>
       </c>
-      <c r="X55" s="112"/>
+      <c r="X55" s="79"/>
     </row>
     <row r="56" spans="13:24">
-      <c r="M56" s="67"/>
+      <c r="M56" s="89"/>
       <c r="N56" s="17">
         <v>12</v>
       </c>
@@ -8726,13 +8745,13 @@
       <c r="V56" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="W56" s="111">
+      <c r="W56" s="78">
         <v>162944</v>
       </c>
-      <c r="X56" s="112"/>
+      <c r="X56" s="79"/>
     </row>
     <row r="57" spans="13:24">
-      <c r="M57" s="67"/>
+      <c r="M57" s="89"/>
       <c r="N57" s="17">
         <v>13</v>
       </c>
@@ -8748,11 +8767,11 @@
       <c r="V57" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="W57" s="111"/>
-      <c r="X57" s="112"/>
+      <c r="W57" s="78"/>
+      <c r="X57" s="79"/>
     </row>
     <row r="58" spans="13:24">
-      <c r="M58" s="67"/>
+      <c r="M58" s="89"/>
       <c r="N58" s="17">
         <v>14</v>
       </c>
@@ -8773,59 +8792,59 @@
       <c r="V58" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="W58" s="111"/>
-      <c r="X58" s="112"/>
+      <c r="W58" s="78"/>
+      <c r="X58" s="79"/>
     </row>
     <row r="59" spans="13:24">
-      <c r="M59" s="67"/>
+      <c r="M59" s="89"/>
       <c r="N59" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="O59" s="107"/>
-      <c r="P59" s="108"/>
-      <c r="Q59" s="109"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="82"/>
       <c r="R59" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="S59" s="107">
+      <c r="S59" s="80">
         <f>S58+T58</f>
         <v>8533000</v>
       </c>
-      <c r="T59" s="109"/>
+      <c r="T59" s="82"/>
       <c r="U59" s="18">
         <f>U51+U52+U53+U54+U55+U56+U57+U58+W58</f>
         <v>582156</v>
       </c>
       <c r="V59" s="18"/>
-      <c r="W59" s="107">
+      <c r="W59" s="80">
         <f>SUM(W51:W58)</f>
         <v>256944</v>
       </c>
-      <c r="X59" s="109"/>
+      <c r="X59" s="82"/>
     </row>
     <row r="60" spans="13:24">
-      <c r="M60" s="67"/>
+      <c r="M60" s="89"/>
       <c r="N60" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="O60" s="110" t="s">
+      <c r="O60" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="P60" s="108"/>
-      <c r="Q60" s="108"/>
-      <c r="R60" s="109"/>
-      <c r="S60" s="107">
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="82"/>
+      <c r="S60" s="80">
         <f>S59-U59</f>
         <v>7950844</v>
       </c>
-      <c r="T60" s="108"/>
-      <c r="U60" s="109"/>
+      <c r="T60" s="81"/>
+      <c r="U60" s="82"/>
       <c r="V60" s="18"/>
       <c r="W60" s="18"/>
       <c r="X60" s="18"/>
     </row>
     <row r="61" spans="13:24">
-      <c r="M61" s="67"/>
+      <c r="M61" s="89"/>
       <c r="N61" s="17">
         <v>17</v>
       </c>
@@ -8841,7 +8860,7 @@
       <c r="X61" s="18"/>
     </row>
     <row r="62" spans="13:24">
-      <c r="M62" s="67"/>
+      <c r="M62" s="89"/>
       <c r="N62" s="17">
         <v>18</v>
       </c>
@@ -8857,7 +8876,7 @@
       <c r="X62" s="18"/>
     </row>
     <row r="63" spans="13:24">
-      <c r="M63" s="67"/>
+      <c r="M63" s="89"/>
       <c r="N63" s="17">
         <v>19</v>
       </c>
@@ -8873,7 +8892,7 @@
       <c r="X63" s="18"/>
     </row>
     <row r="64" spans="13:24">
-      <c r="M64" s="67"/>
+      <c r="M64" s="89"/>
       <c r="N64" s="17">
         <v>20</v>
       </c>
@@ -8890,40 +8909,15 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="N33:W33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="M34:M44"/>
-    <mergeCell ref="N49:X49"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="M50:M64"/>
+    <mergeCell ref="B4:J6"/>
+    <mergeCell ref="B7:J11"/>
+    <mergeCell ref="B12:J17"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -8934,15 +8928,40 @@
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B24:J24"/>
     <mergeCell ref="B25:J25"/>
-    <mergeCell ref="M50:M64"/>
-    <mergeCell ref="B4:J6"/>
-    <mergeCell ref="B7:J11"/>
-    <mergeCell ref="B12:J17"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="N49:X49"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="M34:M44"/>
+    <mergeCell ref="N33:W33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B20:J20"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8955,8 +8974,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:V291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H184" sqref="H184"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H266" sqref="H266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8971,12 +8990,12 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="48" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="48" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -8996,7 +9015,7 @@
         <v>329</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>13</v>
@@ -9041,7 +9060,7 @@
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -9077,7 +9096,7 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="56" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -9211,10 +9230,10 @@
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="48" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -9234,7 +9253,7 @@
         <v>329</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>13</v>
@@ -9286,7 +9305,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="38"/>
       <c r="J23" s="38" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="2:22">
@@ -9306,7 +9325,7 @@
       <c r="G24" s="55"/>
       <c r="H24" s="38"/>
       <c r="J24" s="55" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K24" s="64"/>
       <c r="L24" s="64"/>
@@ -9370,7 +9389,7 @@
         <v>310</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
@@ -9399,10 +9418,10 @@
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
       <c r="H27" s="55" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -9434,7 +9453,7 @@
         <v>315</v>
       </c>
       <c r="J28" s="51" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -9463,10 +9482,10 @@
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J29" s="51" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
@@ -9498,7 +9517,7 @@
         <v>320</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
@@ -9530,7 +9549,7 @@
         <v>322</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
@@ -9564,7 +9583,7 @@
         <v>352</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
@@ -9581,10 +9600,10 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="51" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>303</v>
@@ -9595,10 +9614,10 @@
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
       <c r="H33" s="56" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="J33" s="51" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
@@ -9615,7 +9634,7 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>268</v>
@@ -9630,15 +9649,15 @@
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="J34" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D35" s="55" t="s">
         <v>303</v>
@@ -9650,7 +9669,7 @@
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="J35" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -9670,7 +9689,7 @@
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
       <c r="J36" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -9692,7 +9711,7 @@
         <v>327</v>
       </c>
       <c r="J37" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -9747,18 +9766,18 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="48" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="J41" s="48" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="48" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -9778,7 +9797,7 @@
         <v>329</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>13</v>
@@ -9792,7 +9811,7 @@
         <v>349</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D44" s="60" t="s">
         <v>303</v>
@@ -9804,10 +9823,10 @@
         <v>314</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="J44" s="55" t="s">
         <v>349</v>
@@ -9815,10 +9834,10 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="55" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D45" s="55" t="s">
         <v>337</v>
@@ -9830,7 +9849,7 @@
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
       <c r="J45" s="55" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
@@ -9845,10 +9864,10 @@
     </row>
     <row r="46" spans="2:22" ht="28.8">
       <c r="B46" s="51" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D46" s="55" t="s">
         <v>303</v>
@@ -9862,7 +9881,7 @@
         <v>338</v>
       </c>
       <c r="J46" s="51" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="15.6">
@@ -9870,7 +9889,7 @@
         <v>348</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D47" s="55" t="s">
         <v>339</v>
@@ -9898,10 +9917,10 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D48" s="55" t="s">
         <v>303</v>
@@ -9915,7 +9934,7 @@
         <v>343</v>
       </c>
       <c r="J48" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
@@ -9931,16 +9950,16 @@
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="51" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D49" s="55" t="s">
         <v>344</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -9954,7 +9973,7 @@
         <v>341</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D50" s="55" t="s">
         <v>345</v>
@@ -9973,7 +9992,7 @@
         <v>342</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D51" s="55" t="s">
         <v>346</v>
@@ -9988,10 +10007,10 @@
     </row>
     <row r="52" spans="2:18" ht="15.6">
       <c r="B52" s="51" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D52" s="55" t="s">
         <v>303</v>
@@ -10002,15 +10021,15 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="J52" s="51" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="15.6">
       <c r="B53" s="51" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>212</v>
@@ -10019,20 +10038,20 @@
         <v>303</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="55" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="J53" s="51" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="54" spans="2:18">
       <c r="B54" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>268</v>
@@ -10047,15 +10066,15 @@
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
       <c r="J54" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="2:18">
       <c r="B55" s="51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D55" s="55" t="s">
         <v>303</v>
@@ -10067,7 +10086,7 @@
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
       <c r="J55" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="2:18">
@@ -10087,7 +10106,7 @@
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
       <c r="J56" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="2:18">
@@ -10109,15 +10128,15 @@
         <v>327</v>
       </c>
       <c r="J57" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="2:18">
       <c r="B58" s="55" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D58" s="55" t="s">
         <v>332</v>
@@ -10142,18 +10161,18 @@
     </row>
     <row r="60" spans="2:18">
       <c r="B60" s="48" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J60" s="48" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="2:18">
       <c r="B61" s="48" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J61" s="48" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="62" spans="2:18">
@@ -10173,7 +10192,7 @@
         <v>329</v>
       </c>
       <c r="G62" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>13</v>
@@ -10225,12 +10244,12 @@
       <c r="G64" s="55"/>
       <c r="H64" s="38"/>
       <c r="J64" s="55" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="15">
       <c r="B65" s="55" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C65" s="38" t="s">
         <v>221</v>
@@ -10245,12 +10264,12 @@
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
       <c r="J65" s="55" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="15">
       <c r="B66" s="55" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C66" s="38" t="s">
         <v>28</v>
@@ -10265,7 +10284,7 @@
       <c r="G66" s="55"/>
       <c r="H66" s="55"/>
       <c r="J66" s="55" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="2:10">
@@ -10285,7 +10304,7 @@
       <c r="G67" s="38"/>
       <c r="H67" s="40"/>
       <c r="J67" s="51" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="2:10">
@@ -10307,7 +10326,7 @@
         <v>353</v>
       </c>
       <c r="J68" s="51" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="69" spans="2:10">
@@ -10327,7 +10346,7 @@
       <c r="G69" s="38"/>
       <c r="H69" s="40"/>
       <c r="J69" s="51" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70" spans="2:10">
@@ -10347,7 +10366,7 @@
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="J70" s="51" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -10367,7 +10386,7 @@
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
       <c r="J71" s="51" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="2:10">
@@ -10414,7 +10433,7 @@
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="51" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C74" s="39" t="s">
         <v>45</v>
@@ -10429,7 +10448,7 @@
       <c r="G74" s="55"/>
       <c r="H74" s="38"/>
       <c r="J74" s="51" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="43.2">
@@ -10451,7 +10470,7 @@
         <v>322</v>
       </c>
       <c r="J75" s="51" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -10471,7 +10490,7 @@
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
       <c r="J76" s="51" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77" spans="2:10">
@@ -10491,7 +10510,7 @@
       <c r="G77" s="38"/>
       <c r="H77" s="38"/>
       <c r="J77" s="55" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" spans="2:10">
@@ -10511,7 +10530,7 @@
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
       <c r="J78" s="55" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="15">
@@ -10533,15 +10552,15 @@
         <v>254</v>
       </c>
       <c r="J79" s="55" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="55" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D80" s="55" t="s">
         <v>339</v>
@@ -10555,7 +10574,7 @@
         <v>233</v>
       </c>
       <c r="J80" s="55" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="2:10">
@@ -10577,7 +10596,7 @@
         <v>366</v>
       </c>
       <c r="J81" s="55" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="15">
@@ -10599,7 +10618,7 @@
         <v>318</v>
       </c>
       <c r="J82" s="51" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="83" spans="2:10">
@@ -10618,10 +10637,10 @@
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
       <c r="H83" s="55" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J83" s="55" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -10643,7 +10662,7 @@
         <v>317</v>
       </c>
       <c r="J84" s="51" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -10665,7 +10684,7 @@
         <v>315</v>
       </c>
       <c r="J85" s="51" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="86" spans="2:10">
@@ -10687,7 +10706,7 @@
         <v>320</v>
       </c>
       <c r="J86" s="51" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -10695,7 +10714,7 @@
         <v>378</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D87" s="55" t="s">
         <v>303</v>
@@ -10706,10 +10725,10 @@
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
       <c r="H87" s="55" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="J87" s="55" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="2:10">
@@ -10729,7 +10748,7 @@
       <c r="G88" s="38"/>
       <c r="H88" s="38"/>
       <c r="J88" s="55" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="2:10">
@@ -10749,12 +10768,12 @@
       <c r="G89" s="38"/>
       <c r="H89" s="38"/>
       <c r="J89" s="55" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="55" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C90" s="51" t="s">
         <v>369</v>
@@ -10769,7 +10788,7 @@
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
       <c r="J90" s="55" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="2:10">
@@ -10789,7 +10808,7 @@
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
       <c r="J91" s="55" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -10797,7 +10816,7 @@
         <v>375</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D92" s="55" t="s">
         <v>308</v>
@@ -10809,12 +10828,12 @@
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
       <c r="J92" s="55" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C93" s="39" t="s">
         <v>53</v>
@@ -10829,12 +10848,12 @@
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
       <c r="J93" s="55" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="55" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C94" s="39" t="s">
         <v>54</v>
@@ -10849,15 +10868,15 @@
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
       <c r="J94" s="55" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C95" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D95" s="55" t="s">
         <v>308</v>
@@ -10869,12 +10888,12 @@
       <c r="G95" s="38"/>
       <c r="H95" s="38"/>
       <c r="J95" s="55" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C96" s="55" t="s">
         <v>226</v>
@@ -10889,12 +10908,12 @@
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
       <c r="J96" s="55" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="97" spans="2:18">
       <c r="B97" s="55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C97" s="38" t="s">
         <v>227</v>
@@ -10909,15 +10928,15 @@
       <c r="G97" s="38"/>
       <c r="H97" s="38"/>
       <c r="J97" s="55" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="98" spans="2:18" ht="43.2">
       <c r="B98" s="55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>56</v>
+        <v>595</v>
       </c>
       <c r="D98" s="55" t="s">
         <v>303</v>
@@ -10931,12 +10950,12 @@
         <v>381</v>
       </c>
       <c r="J98" s="55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="2:18">
       <c r="B99" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C99" s="39" t="s">
         <v>268</v>
@@ -10951,15 +10970,15 @@
       <c r="G99" s="38"/>
       <c r="H99" s="38"/>
       <c r="J99" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="2:18">
       <c r="B100" s="51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D100" s="55" t="s">
         <v>303</v>
@@ -10971,7 +10990,7 @@
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
       <c r="J100" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="2:18">
@@ -10991,7 +11010,7 @@
       <c r="G101" s="55"/>
       <c r="H101" s="55"/>
       <c r="J101" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="102" spans="2:18">
@@ -11013,7 +11032,7 @@
         <v>327</v>
       </c>
       <c r="J102" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="103" spans="2:18">
@@ -11086,7 +11105,7 @@
     </row>
     <row r="108" spans="2:18">
       <c r="B108" s="62" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
@@ -11094,12 +11113,12 @@
       <c r="G108" s="43"/>
       <c r="H108" s="44"/>
       <c r="J108" s="62" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="2:18">
       <c r="B109" s="62" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
@@ -11107,7 +11126,7 @@
       <c r="G109" s="43"/>
       <c r="H109" s="44"/>
       <c r="J109" s="62" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="110" spans="2:18">
@@ -11127,7 +11146,7 @@
         <v>329</v>
       </c>
       <c r="G110" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H110" s="38" t="s">
         <v>13</v>
@@ -11164,7 +11183,7 @@
     </row>
     <row r="112" spans="2:18" ht="15">
       <c r="B112" s="55" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C112" s="38" t="s">
         <v>39</v>
@@ -11179,7 +11198,7 @@
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
       <c r="J112" s="55" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="113" spans="2:18" ht="28.8">
@@ -11198,7 +11217,7 @@
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
       <c r="H113" s="56" t="s">
-        <v>383</v>
+        <v>596</v>
       </c>
       <c r="J113" s="55" t="s">
         <v>351</v>
@@ -11226,7 +11245,7 @@
     </row>
     <row r="115" spans="2:18">
       <c r="B115" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C115" s="39" t="s">
         <v>268</v>
@@ -11241,15 +11260,15 @@
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
       <c r="J115" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="2:18">
       <c r="B116" s="51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D116" s="55" t="s">
         <v>303</v>
@@ -11261,7 +11280,7 @@
       <c r="G116" s="38"/>
       <c r="H116" s="38"/>
       <c r="J116" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="2:18">
@@ -11281,7 +11300,7 @@
       <c r="G117" s="55"/>
       <c r="H117" s="55"/>
       <c r="J117" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118" spans="2:18">
@@ -11303,7 +11322,7 @@
         <v>327</v>
       </c>
       <c r="J118" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="119" spans="2:18">
@@ -11356,19 +11375,19 @@
     </row>
     <row r="124" spans="2:18">
       <c r="B124" s="48" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C124" s="48"/>
       <c r="J124" s="48" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="125" spans="2:18">
       <c r="B125" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="J125" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="126" spans="2:18">
@@ -11388,7 +11407,7 @@
         <v>329</v>
       </c>
       <c r="G126" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H126" s="38" t="s">
         <v>13</v>
@@ -11425,10 +11444,10 @@
     </row>
     <row r="128" spans="2:18" ht="15">
       <c r="B128" s="55" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C128" s="55" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D128" s="61" t="s">
         <v>303</v>
@@ -11440,7 +11459,7 @@
       <c r="G128" s="38"/>
       <c r="H128" s="38"/>
       <c r="J128" s="55" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="129" spans="2:21" ht="15">
@@ -11460,12 +11479,12 @@
       <c r="G129" s="38"/>
       <c r="H129" s="38"/>
       <c r="J129" s="55" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="130" spans="2:21" ht="15">
       <c r="B130" s="55" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C130" s="39" t="s">
         <v>21</v>
@@ -11480,7 +11499,7 @@
       <c r="G130" s="38"/>
       <c r="H130" s="40"/>
       <c r="J130" s="55" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K130" s="64"/>
       <c r="L130" s="64"/>
@@ -11494,7 +11513,7 @@
     </row>
     <row r="131" spans="2:21" ht="15">
       <c r="B131" s="55" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C131" s="39" t="s">
         <v>28</v>
@@ -11509,7 +11528,7 @@
       <c r="G131" s="38"/>
       <c r="H131" s="38"/>
       <c r="J131" s="55" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K131" s="64"/>
       <c r="L131" s="64"/>
@@ -11538,7 +11557,7 @@
       <c r="G132" s="38"/>
       <c r="H132" s="40"/>
       <c r="J132" s="51" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="133" spans="2:21" ht="15">
@@ -11560,7 +11579,7 @@
         <v>63</v>
       </c>
       <c r="J133" s="51" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="134" spans="2:21">
@@ -11599,7 +11618,7 @@
         <v>356</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D135" s="55" t="s">
         <v>355</v>
@@ -11611,7 +11630,7 @@
       <c r="G135" s="38"/>
       <c r="H135" s="38"/>
       <c r="J135" s="51" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="136" spans="2:21">
@@ -11619,7 +11638,7 @@
         <v>357</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D136" s="55" t="s">
         <v>355</v>
@@ -11631,12 +11650,12 @@
       <c r="G136" s="38"/>
       <c r="H136" s="38"/>
       <c r="J136" s="51" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" spans="2:21" ht="15">
       <c r="B137" s="51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C137" s="39" t="s">
         <v>278</v>
@@ -11651,7 +11670,7 @@
       <c r="G137" s="38"/>
       <c r="H137" s="38"/>
       <c r="J137" s="51" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="K137" s="49"/>
       <c r="L137" s="49"/>
@@ -11682,7 +11701,7 @@
       <c r="G138" s="38"/>
       <c r="H138" s="38"/>
       <c r="J138" s="55" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K138" s="49"/>
       <c r="L138" s="49"/>
@@ -11698,7 +11717,7 @@
     </row>
     <row r="139" spans="2:21">
       <c r="B139" s="55" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C139" s="39" t="s">
         <v>255</v>
@@ -11715,7 +11734,7 @@
         <v>236</v>
       </c>
       <c r="J139" s="55" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K139" s="49"/>
       <c r="L139" s="49"/>
@@ -11731,7 +11750,7 @@
     </row>
     <row r="140" spans="2:21" ht="15">
       <c r="B140" s="55" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C140" s="39" t="s">
         <v>242</v>
@@ -11748,7 +11767,7 @@
         <v>256</v>
       </c>
       <c r="J140" s="55" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="K140" s="49"/>
       <c r="L140" s="49"/>
@@ -11764,7 +11783,7 @@
     </row>
     <row r="141" spans="2:21">
       <c r="B141" s="55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C141" s="39" t="s">
         <v>66</v>
@@ -11779,12 +11798,12 @@
       <c r="G141" s="38"/>
       <c r="H141" s="38"/>
       <c r="J141" s="55" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="142" spans="2:21">
       <c r="B142" s="55" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C142" s="39" t="s">
         <v>67</v>
@@ -11799,12 +11818,12 @@
       <c r="G142" s="38"/>
       <c r="H142" s="38"/>
       <c r="J142" s="55" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="143" spans="2:21">
       <c r="B143" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C143" s="39" t="s">
         <v>68</v>
@@ -11819,12 +11838,12 @@
       <c r="G143" s="38"/>
       <c r="H143" s="38"/>
       <c r="J143" s="55" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="144" spans="2:21">
       <c r="B144" s="55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C144" s="39" t="s">
         <v>69</v>
@@ -11839,7 +11858,7 @@
       <c r="G144" s="38"/>
       <c r="H144" s="38"/>
       <c r="J144" s="55" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="145" spans="2:18">
@@ -11859,12 +11878,12 @@
       <c r="G145" s="38"/>
       <c r="H145" s="38"/>
       <c r="J145" s="55" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="146" spans="2:18">
       <c r="B146" s="55" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C146" s="39" t="s">
         <v>71</v>
@@ -11879,7 +11898,7 @@
       <c r="G146" s="38"/>
       <c r="H146" s="38"/>
       <c r="J146" s="55" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="147" spans="2:18">
@@ -11899,7 +11918,7 @@
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
       <c r="J147" s="55" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="148" spans="2:18">
@@ -11919,7 +11938,7 @@
       <c r="G148" s="38"/>
       <c r="H148" s="38"/>
       <c r="J148" s="55" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="2:18">
@@ -11939,7 +11958,7 @@
       <c r="G149" s="38"/>
       <c r="H149" s="38"/>
       <c r="J149" s="55" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="150" spans="2:18" ht="28.8">
@@ -11947,7 +11966,7 @@
         <v>347</v>
       </c>
       <c r="C150" s="39" t="s">
-        <v>74</v>
+        <v>597</v>
       </c>
       <c r="D150" s="55" t="s">
         <v>303</v>
@@ -11958,7 +11977,7 @@
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
       <c r="H150" s="56" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J150" s="55" t="s">
         <v>347</v>
@@ -11966,7 +11985,7 @@
     </row>
     <row r="151" spans="2:18">
       <c r="B151" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C151" s="39" t="s">
         <v>268</v>
@@ -11981,15 +12000,15 @@
       <c r="G151" s="38"/>
       <c r="H151" s="38"/>
       <c r="J151" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="152" spans="2:18">
       <c r="B152" s="51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D152" s="55" t="s">
         <v>303</v>
@@ -12001,7 +12020,7 @@
       <c r="G152" s="38"/>
       <c r="H152" s="38"/>
       <c r="J152" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="2:18">
@@ -12021,7 +12040,7 @@
       <c r="G153" s="55"/>
       <c r="H153" s="55"/>
       <c r="J153" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="2:18">
@@ -12043,7 +12062,7 @@
         <v>327</v>
       </c>
       <c r="J154" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="155" spans="2:18">
@@ -12084,10 +12103,10 @@
     </row>
     <row r="160" spans="2:18">
       <c r="B160" s="48" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J160" s="48" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="161" spans="2:18">
@@ -12107,7 +12126,7 @@
         <v>329</v>
       </c>
       <c r="G161" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H161" s="38" t="s">
         <v>13</v>
@@ -12144,7 +12163,7 @@
     </row>
     <row r="163" spans="2:18" ht="15">
       <c r="B163" s="55" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C163" s="38" t="s">
         <v>277</v>
@@ -12159,7 +12178,7 @@
       <c r="G163" s="38"/>
       <c r="H163" s="38"/>
       <c r="J163" s="55" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="164" spans="2:18" ht="15">
@@ -12179,12 +12198,12 @@
       <c r="G164" s="38"/>
       <c r="H164" s="38"/>
       <c r="J164" s="55" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="165" spans="2:18" ht="28.8">
       <c r="B165" s="51" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C165" s="39" t="s">
         <v>248</v>
@@ -12198,10 +12217,10 @@
       <c r="F165" s="38"/>
       <c r="G165" s="38"/>
       <c r="H165" s="56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J165" s="51" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K165" s="59"/>
       <c r="L165" s="59"/>
@@ -12214,7 +12233,7 @@
     </row>
     <row r="166" spans="2:18" ht="28.8">
       <c r="B166" s="52" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C166" s="54" t="s">
         <v>191</v>
@@ -12231,15 +12250,15 @@
         <v>380</v>
       </c>
       <c r="J166" s="52" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="167" spans="2:18" ht="43.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="167" spans="2:18" ht="69.599999999999994" customHeight="1">
       <c r="B167" s="55" t="s">
         <v>351</v>
       </c>
       <c r="C167" s="38" t="s">
-        <v>78</v>
+        <v>598</v>
       </c>
       <c r="D167" s="61" t="s">
         <v>303</v>
@@ -12250,7 +12269,7 @@
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
       <c r="H167" s="56" t="s">
-        <v>424</v>
+        <v>601</v>
       </c>
       <c r="J167" s="55" t="s">
         <v>351</v>
@@ -12258,10 +12277,10 @@
     </row>
     <row r="168" spans="2:18" ht="28.8">
       <c r="B168" s="55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="D168" s="61" t="s">
         <v>303</v>
@@ -12272,10 +12291,10 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
       <c r="H168" s="56" t="s">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="J168" s="55" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="2:18">
@@ -12295,7 +12314,7 @@
       <c r="G169" s="38"/>
       <c r="H169" s="40"/>
       <c r="J169" s="51" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="K169" s="59"/>
       <c r="L169" s="59"/>
@@ -12308,7 +12327,7 @@
     </row>
     <row r="170" spans="2:18">
       <c r="B170" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C170" s="39" t="s">
         <v>250</v>
@@ -12323,7 +12342,7 @@
       <c r="G170" s="38"/>
       <c r="H170" s="38"/>
       <c r="J170" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K170" s="49"/>
       <c r="L170" s="49"/>
@@ -12332,13 +12351,13 @@
     </row>
     <row r="171" spans="2:18" ht="28.8">
       <c r="B171" s="51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C171" s="51" t="s">
         <v>190</v>
       </c>
       <c r="D171" s="55" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E171" s="55" t="s">
         <v>305</v>
@@ -12349,13 +12368,13 @@
         <v>249</v>
       </c>
       <c r="J171" s="51" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K171" s="48"/>
     </row>
     <row r="172" spans="2:18" ht="15">
       <c r="B172" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C172" s="51" t="s">
         <v>259</v>
@@ -12369,16 +12388,16 @@
       <c r="F172" s="38"/>
       <c r="G172" s="38"/>
       <c r="H172" s="56" t="s">
-        <v>402</v>
+        <v>602</v>
       </c>
       <c r="J172" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K172" s="48"/>
     </row>
     <row r="173" spans="2:18">
       <c r="B173" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C173" s="39" t="s">
         <v>268</v>
@@ -12393,15 +12412,15 @@
       <c r="G173" s="38"/>
       <c r="H173" s="38"/>
       <c r="J173" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="174" spans="2:18">
       <c r="B174" s="51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D174" s="55" t="s">
         <v>303</v>
@@ -12413,7 +12432,7 @@
       <c r="G174" s="38"/>
       <c r="H174" s="38"/>
       <c r="J174" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="175" spans="2:18">
@@ -12433,7 +12452,7 @@
       <c r="G175" s="55"/>
       <c r="H175" s="55"/>
       <c r="J175" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="176" spans="2:18">
@@ -12455,7 +12474,7 @@
         <v>327</v>
       </c>
       <c r="J176" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="177" spans="2:18">
@@ -12488,18 +12507,18 @@
     </row>
     <row r="180" spans="2:18">
       <c r="B180" s="48" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J180" s="48" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="181" spans="2:18">
       <c r="B181" s="48" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J181" s="48" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="182" spans="2:18">
@@ -12519,7 +12538,7 @@
         <v>329</v>
       </c>
       <c r="G182" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H182" s="38" t="s">
         <v>13</v>
@@ -12534,7 +12553,7 @@
         <v>349</v>
       </c>
       <c r="C183" s="55" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D183" s="61" t="s">
         <v>303</v>
@@ -12546,10 +12565,10 @@
         <v>314</v>
       </c>
       <c r="G183" s="55" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H183" s="56" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="J183" s="55" t="s">
         <v>349</v>
@@ -12557,7 +12576,7 @@
     </row>
     <row r="184" spans="2:18" ht="43.2">
       <c r="B184" s="55" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C184" s="38" t="s">
         <v>239</v>
@@ -12571,19 +12590,19 @@
       <c r="F184" s="38"/>
       <c r="G184" s="38"/>
       <c r="H184" s="56" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="J184" s="55" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="K184" s="48"/>
     </row>
     <row r="185" spans="2:18">
       <c r="B185" s="55" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C185" s="38" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D185" s="55" t="s">
         <v>339</v>
@@ -12601,7 +12620,7 @@
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="55" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C186" s="51" t="s">
         <v>257</v>
@@ -12618,12 +12637,12 @@
         <v>310</v>
       </c>
       <c r="J186" s="55" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="187" spans="2:18">
       <c r="B187" s="55" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C187" s="51" t="s">
         <v>258</v>
@@ -12640,15 +12659,15 @@
         <v>310</v>
       </c>
       <c r="J187" s="55" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="188" spans="2:18" ht="28.8">
       <c r="B188" s="55" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C188" s="51" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D188" s="61" t="s">
         <v>303</v>
@@ -12659,15 +12678,15 @@
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
       <c r="H188" s="56" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="J188" s="55" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="15">
       <c r="B189" s="55" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C189" s="51" t="s">
         <v>260</v>
@@ -12681,18 +12700,18 @@
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
       <c r="H189" s="56" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="J189" s="55" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="190" spans="2:18" ht="15">
       <c r="B190" s="55" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C190" s="51" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D190" s="61" t="s">
         <v>303</v>
@@ -12703,15 +12722,15 @@
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
       <c r="H190" s="56" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J190" s="55" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="2:18">
       <c r="B191" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C191" s="39" t="s">
         <v>268</v>
@@ -12726,15 +12745,15 @@
       <c r="G191" s="38"/>
       <c r="H191" s="38"/>
       <c r="J191" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="192" spans="2:18">
       <c r="B192" s="51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D192" s="55" t="s">
         <v>303</v>
@@ -12746,7 +12765,7 @@
       <c r="G192" s="38"/>
       <c r="H192" s="38"/>
       <c r="J192" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="193" spans="2:18">
@@ -12766,7 +12785,7 @@
       <c r="G193" s="55"/>
       <c r="H193" s="55"/>
       <c r="J193" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="194" spans="2:18">
@@ -12788,7 +12807,7 @@
         <v>327</v>
       </c>
       <c r="J194" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="2:18">
@@ -12796,7 +12815,7 @@
         <v>331</v>
       </c>
       <c r="C195" s="38" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D195" s="55" t="s">
         <v>332</v>
@@ -12808,7 +12827,7 @@
       <c r="G195" s="38"/>
       <c r="H195" s="38"/>
       <c r="J195" s="55" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="K195" s="49"/>
       <c r="L195" s="50"/>
@@ -12851,18 +12870,18 @@
     </row>
     <row r="201" spans="2:18">
       <c r="B201" s="48" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J201" s="48" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="48" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J202" s="48" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="203" spans="2:18">
@@ -12882,7 +12901,7 @@
         <v>329</v>
       </c>
       <c r="G203" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H203" s="38" t="s">
         <v>13</v>
@@ -12934,15 +12953,15 @@
       <c r="G205" s="38"/>
       <c r="H205" s="38"/>
       <c r="J205" s="55" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="206" spans="2:18" ht="15">
       <c r="B206" s="55" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C206" s="55" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D206" s="61" t="s">
         <v>303</v>
@@ -12956,12 +12975,12 @@
         <v>279</v>
       </c>
       <c r="J206" s="55" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="207" spans="2:18" ht="15">
       <c r="B207" s="62" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C207" s="55" t="s">
         <v>242</v>
@@ -12978,15 +12997,15 @@
         <v>267</v>
       </c>
       <c r="J207" s="62" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="208" spans="2:18">
       <c r="B208" s="55" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C208" s="51" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D208" s="55" t="s">
         <v>339</v>
@@ -13000,7 +13019,7 @@
         <v>280</v>
       </c>
       <c r="J208" s="55" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="209" spans="2:22">
@@ -13040,7 +13059,7 @@
       <c r="G210" s="38"/>
       <c r="H210" s="40"/>
       <c r="J210" s="51" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="211" spans="2:22">
@@ -13060,7 +13079,7 @@
       <c r="G211" s="38"/>
       <c r="H211" s="38"/>
       <c r="J211" s="51" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="212" spans="2:22">
@@ -13082,7 +13101,7 @@
         <v>265</v>
       </c>
       <c r="J212" s="51" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="213" spans="2:22">
@@ -13122,15 +13141,15 @@
       <c r="G214" s="38"/>
       <c r="H214" s="38"/>
       <c r="J214" s="51" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="215" spans="2:22">
       <c r="B215" s="51" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C215" s="51" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D215" s="55" t="s">
         <v>303</v>
@@ -13141,10 +13160,10 @@
       <c r="F215" s="55"/>
       <c r="G215" s="55"/>
       <c r="H215" s="56" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="J215" s="51" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="K215" s="49"/>
       <c r="L215" s="49"/>
@@ -13161,7 +13180,7 @@
     </row>
     <row r="216" spans="2:22" ht="28.8">
       <c r="B216" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C216" s="39" t="s">
         <v>263</v>
@@ -13175,10 +13194,10 @@
       <c r="F216" s="38"/>
       <c r="G216" s="38"/>
       <c r="H216" s="56" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J216" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="217" spans="2:22">
@@ -13197,10 +13216,10 @@
       <c r="F217" s="38"/>
       <c r="G217" s="38"/>
       <c r="H217" s="55" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J217" s="55" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="218" spans="2:22">
@@ -13208,7 +13227,7 @@
         <v>378</v>
       </c>
       <c r="C218" s="51" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D218" s="55" t="s">
         <v>303</v>
@@ -13220,7 +13239,7 @@
       <c r="G218" s="38"/>
       <c r="H218" s="38"/>
       <c r="J218" s="55" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="219" spans="2:22">
@@ -13240,12 +13259,12 @@
       <c r="G219" s="38"/>
       <c r="H219" s="38"/>
       <c r="J219" s="55" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="220" spans="2:22">
       <c r="B220" s="55" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C220" s="39" t="s">
         <v>283</v>
@@ -13260,12 +13279,12 @@
       <c r="G220" s="38"/>
       <c r="H220" s="40"/>
       <c r="J220" s="55" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="221" spans="2:22">
       <c r="B221" s="55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C221" s="39" t="s">
         <v>284</v>
@@ -13280,12 +13299,12 @@
       <c r="G221" s="38"/>
       <c r="H221" s="38"/>
       <c r="J221" s="55" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="222" spans="2:22">
       <c r="B222" s="55" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C222" s="39" t="s">
         <v>266</v>
@@ -13300,12 +13319,12 @@
       <c r="G222" s="38"/>
       <c r="H222" s="38"/>
       <c r="J222" s="55" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="223" spans="2:22" ht="28.8">
       <c r="B223" s="55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C223" s="39" t="s">
         <v>285</v>
@@ -13322,12 +13341,12 @@
         <v>289</v>
       </c>
       <c r="J223" s="55" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="224" spans="2:22">
       <c r="B224" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C224" s="39" t="s">
         <v>268</v>
@@ -13342,15 +13361,15 @@
       <c r="G224" s="38"/>
       <c r="H224" s="38"/>
       <c r="J224" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" spans="2:19">
       <c r="B225" s="51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C225" s="39" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D225" s="55" t="s">
         <v>303</v>
@@ -13362,7 +13381,7 @@
       <c r="G225" s="38"/>
       <c r="H225" s="38"/>
       <c r="J225" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="226" spans="2:19">
@@ -13382,7 +13401,7 @@
       <c r="G226" s="55"/>
       <c r="H226" s="55"/>
       <c r="J226" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="227" spans="2:19">
@@ -13404,7 +13423,7 @@
         <v>327</v>
       </c>
       <c r="J227" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="228" spans="2:19">
@@ -13467,18 +13486,18 @@
     </row>
     <row r="233" spans="2:19">
       <c r="B233" s="48" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="J233" s="48" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="234" spans="2:19">
       <c r="B234" s="48" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J234" s="48" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="235" spans="2:19">
@@ -13498,7 +13517,7 @@
         <v>329</v>
       </c>
       <c r="G235" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H235" s="38" t="s">
         <v>13</v>
@@ -13535,7 +13554,7 @@
     </row>
     <row r="237" spans="2:19" ht="15">
       <c r="B237" s="55" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C237" s="55" t="s">
         <v>247</v>
@@ -13550,7 +13569,7 @@
       <c r="G237" s="38"/>
       <c r="H237" s="38"/>
       <c r="J237" s="55" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="238" spans="2:19" ht="15">
@@ -13570,15 +13589,15 @@
       <c r="G238" s="38"/>
       <c r="H238" s="38"/>
       <c r="J238" s="55" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="239" spans="2:19" ht="15">
       <c r="B239" s="55" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C239" s="51" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D239" s="61" t="s">
         <v>303</v>
@@ -13590,7 +13609,7 @@
       <c r="G239" s="38"/>
       <c r="H239" s="38"/>
       <c r="J239" s="55" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="K239" s="64"/>
       <c r="L239" s="64"/>
@@ -13621,7 +13640,7 @@
         <v>63</v>
       </c>
       <c r="J240" s="51" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="241" spans="2:21">
@@ -13641,7 +13660,7 @@
       <c r="G241" s="38"/>
       <c r="H241" s="38"/>
       <c r="J241" s="55" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K241" s="49"/>
       <c r="L241" s="49"/>
@@ -13691,7 +13710,7 @@
         <v>356</v>
       </c>
       <c r="C243" s="51" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D243" s="55" t="s">
         <v>355</v>
@@ -13703,7 +13722,7 @@
       <c r="G243" s="38"/>
       <c r="H243" s="38"/>
       <c r="J243" s="51" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="244" spans="2:21">
@@ -13711,7 +13730,7 @@
         <v>357</v>
       </c>
       <c r="C244" s="51" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D244" s="55" t="s">
         <v>355</v>
@@ -13723,12 +13742,12 @@
       <c r="G244" s="38"/>
       <c r="H244" s="38"/>
       <c r="J244" s="51" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="245" spans="2:21" ht="15">
       <c r="B245" s="51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C245" s="39" t="s">
         <v>278</v>
@@ -13743,7 +13762,7 @@
       <c r="G245" s="38"/>
       <c r="H245" s="38"/>
       <c r="J245" s="51" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="K245" s="49"/>
       <c r="L245" s="49"/>
@@ -13759,7 +13778,7 @@
     </row>
     <row r="246" spans="2:21">
       <c r="B246" s="51" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C246" s="51" t="s">
         <v>291</v>
@@ -13774,7 +13793,7 @@
       <c r="G246" s="38"/>
       <c r="H246" s="38"/>
       <c r="J246" s="51" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="K246" s="49"/>
       <c r="L246" s="49"/>
@@ -13790,7 +13809,7 @@
     </row>
     <row r="247" spans="2:21">
       <c r="B247" s="51" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C247" s="39" t="s">
         <v>292</v>
@@ -13805,12 +13824,12 @@
       <c r="G247" s="38"/>
       <c r="H247" s="38"/>
       <c r="J247" s="51" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="248" spans="2:21">
       <c r="B248" s="51" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C248" s="39" t="s">
         <v>294</v>
@@ -13825,7 +13844,7 @@
       <c r="G248" s="38"/>
       <c r="H248" s="38"/>
       <c r="J248" s="51" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="249" spans="2:21" ht="15">
@@ -13844,7 +13863,7 @@
       <c r="F249" s="38"/>
       <c r="G249" s="38"/>
       <c r="H249" s="56" t="s">
-        <v>417</v>
+        <v>603</v>
       </c>
       <c r="J249" s="55" t="s">
         <v>347</v>
@@ -13852,7 +13871,7 @@
     </row>
     <row r="250" spans="2:21">
       <c r="B250" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C250" s="39" t="s">
         <v>268</v>
@@ -13867,15 +13886,15 @@
       <c r="G250" s="38"/>
       <c r="H250" s="38"/>
       <c r="J250" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="251" spans="2:21">
       <c r="B251" s="51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D251" s="55" t="s">
         <v>303</v>
@@ -13887,7 +13906,7 @@
       <c r="G251" s="38"/>
       <c r="H251" s="38"/>
       <c r="J251" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="252" spans="2:21">
@@ -13907,7 +13926,7 @@
       <c r="G252" s="55"/>
       <c r="H252" s="55"/>
       <c r="J252" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="253" spans="2:21">
@@ -13929,7 +13948,7 @@
         <v>327</v>
       </c>
       <c r="J253" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="254" spans="2:21">
@@ -14000,10 +14019,10 @@
     </row>
     <row r="260" spans="2:18">
       <c r="B260" s="48" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="J260" s="48" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="261" spans="2:18">
@@ -14023,7 +14042,7 @@
         <v>329</v>
       </c>
       <c r="G261" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H261" s="38" t="s">
         <v>13</v>
@@ -14060,7 +14079,7 @@
     </row>
     <row r="263" spans="2:18" ht="15">
       <c r="B263" s="55" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C263" s="55" t="s">
         <v>191</v>
@@ -14074,18 +14093,18 @@
       <c r="F263" s="38"/>
       <c r="G263" s="38"/>
       <c r="H263" s="55" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J263" s="55" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="264" spans="2:18">
       <c r="B264" s="55" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C264" s="51" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D264" s="55" t="s">
         <v>339</v>
@@ -14096,15 +14115,15 @@
       <c r="F264" s="38"/>
       <c r="G264" s="38"/>
       <c r="H264" s="55" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="J264" s="55" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="265" spans="2:18">
       <c r="B265" s="51" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C265" s="39" t="s">
         <v>275</v>
@@ -14119,7 +14138,7 @@
       <c r="G265" s="38"/>
       <c r="H265" s="40"/>
       <c r="J265" s="51" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="266" spans="2:18" ht="43.2">
@@ -14138,7 +14157,7 @@
       <c r="F266" s="38"/>
       <c r="G266" s="38"/>
       <c r="H266" s="56" t="s">
-        <v>419</v>
+        <v>605</v>
       </c>
       <c r="J266" s="51" t="s">
         <v>351</v>
@@ -14146,7 +14165,7 @@
     </row>
     <row r="267" spans="2:18" ht="15">
       <c r="B267" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C267" s="51" t="s">
         <v>263</v>
@@ -14160,16 +14179,16 @@
       <c r="F267" s="38"/>
       <c r="G267" s="38"/>
       <c r="H267" s="56" t="s">
-        <v>402</v>
+        <v>604</v>
       </c>
       <c r="J267" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K267" s="48"/>
     </row>
     <row r="268" spans="2:18">
       <c r="B268" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C268" s="39" t="s">
         <v>268</v>
@@ -14184,15 +14203,15 @@
       <c r="G268" s="38"/>
       <c r="H268" s="38"/>
       <c r="J268" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="269" spans="2:18">
       <c r="B269" s="51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C269" s="39" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D269" s="55" t="s">
         <v>303</v>
@@ -14204,7 +14223,7 @@
       <c r="G269" s="38"/>
       <c r="H269" s="38"/>
       <c r="J269" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="270" spans="2:18">
@@ -14224,7 +14243,7 @@
       <c r="G270" s="55"/>
       <c r="H270" s="55"/>
       <c r="J270" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="271" spans="2:18">
@@ -14246,7 +14265,7 @@
         <v>327</v>
       </c>
       <c r="J271" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="272" spans="2:18">
@@ -14297,10 +14316,10 @@
     </row>
     <row r="278" spans="2:11">
       <c r="B278" s="48" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="J278" s="48" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="279" spans="2:11">
@@ -14320,7 +14339,7 @@
         <v>329</v>
       </c>
       <c r="G279" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H279" s="38" t="s">
         <v>13</v>
@@ -14334,7 +14353,7 @@
         <v>349</v>
       </c>
       <c r="C280" s="55" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D280" s="61" t="s">
         <v>303</v>
@@ -14357,7 +14376,7 @@
     </row>
     <row r="281" spans="2:11" ht="15">
       <c r="B281" s="62" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C281" s="55" t="s">
         <v>242</v>
@@ -14372,15 +14391,15 @@
       <c r="G281" s="38"/>
       <c r="H281" s="38"/>
       <c r="J281" s="62" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="282" spans="2:11" ht="15">
       <c r="B282" s="55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C282" s="55" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D282" s="61" t="s">
         <v>303</v>
@@ -14392,12 +14411,12 @@
       <c r="G282" s="38"/>
       <c r="H282" s="38"/>
       <c r="J282" s="55" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="283" spans="2:11">
       <c r="B283" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C283" s="39" t="s">
         <v>275</v>
@@ -14412,12 +14431,12 @@
       <c r="G283" s="38"/>
       <c r="H283" s="40"/>
       <c r="J283" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="284" spans="2:11" ht="28.8">
       <c r="B284" s="51" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C284" s="39" t="s">
         <v>276</v>
@@ -14431,15 +14450,15 @@
       <c r="F284" s="38"/>
       <c r="G284" s="38"/>
       <c r="H284" s="56" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J284" s="51" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="285" spans="2:11" ht="15">
       <c r="B285" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C285" s="51" t="s">
         <v>263</v>
@@ -14453,16 +14472,16 @@
       <c r="F285" s="38"/>
       <c r="G285" s="38"/>
       <c r="H285" s="56" t="s">
-        <v>402</v>
+        <v>604</v>
       </c>
       <c r="J285" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K285" s="48"/>
     </row>
     <row r="286" spans="2:11">
       <c r="B286" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C286" s="39" t="s">
         <v>268</v>
@@ -14477,15 +14496,15 @@
       <c r="G286" s="38"/>
       <c r="H286" s="38"/>
       <c r="J286" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="287" spans="2:11">
       <c r="B287" s="51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C287" s="39" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D287" s="55" t="s">
         <v>303</v>
@@ -14497,7 +14516,7 @@
       <c r="G287" s="38"/>
       <c r="H287" s="38"/>
       <c r="J287" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="288" spans="2:11">
@@ -14517,7 +14536,7 @@
       <c r="G288" s="55"/>
       <c r="H288" s="55"/>
       <c r="J288" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="289" spans="2:18">
@@ -14539,7 +14558,7 @@
         <v>327</v>
       </c>
       <c r="J289" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="290" spans="2:18">
@@ -14613,12 +14632,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="48" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="48" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -14638,7 +14657,7 @@
         <v>329</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>13</v>
@@ -14672,7 +14691,7 @@
         <v>239</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>303</v>
@@ -14683,7 +14702,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="56" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -14691,7 +14710,7 @@
         <v>257</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>308</v>
@@ -14710,7 +14729,7 @@
         <v>258</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>308</v>
@@ -14726,10 +14745,10 @@
     </row>
     <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="51" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C8" s="61" t="s">
         <v>303</v>
@@ -14740,7 +14759,7 @@
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -14748,7 +14767,7 @@
         <v>260</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>303</v>
@@ -14757,7 +14776,7 @@
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="56" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/doc/需求讨论_表定义.xlsx
+++ b/doc/需求讨论_表定义.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="613">
   <si>
     <t>1 我的想法是抛开你这个表的情况，先以你为维度登记处理下整个的贷款周期内的各种事情，比如合同登记、放款、还款、逾期、提前还款等等</t>
   </si>
@@ -2209,7 +2209,7 @@
   </si>
   <si>
     <r>
-      <t>contr</t>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -2220,13 +2220,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_no</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
+      <t>ype</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>抵押:1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网签</t>
     </r>
     <r>
       <rPr>
@@ -2237,7 +2247,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ype</t>
+      <t>:2,3:其他</t>
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -2264,23 +2274,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2,3:其他</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>抵押:1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>网签</t>
+      <t>:2,其他:3</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
     </r>
     <r>
       <rPr>
@@ -2291,17 +2295,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2,其他:3</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
+      <t>ate</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
     </r>
     <r>
       <rPr>
@@ -2312,13 +2312,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ate</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
+      <t>egin_date</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
     </r>
     <r>
       <rPr>
@@ -2329,13 +2329,45 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>egin_date</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
+      <t>nd_date</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>pen_rate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>term_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lending_date</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lending_amt</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lending_acct</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_date</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>默认为0</t>
     </r>
     <r>
       <rPr>
@@ -2346,45 +2378,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>nd_date</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>pen_rate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>term_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>lending_date</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>lending_amt</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>lending_acct</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>acct_date</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>service_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>默认为0</t>
+      <t>.00</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd_date</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>paid_pen</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>应还利息</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>应还本金</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>paid_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schd_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收服务费</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schd_serv_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schd_pen</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>paid_serv_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>wav_amt</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>extension</t>
     </r>
     <r>
       <rPr>
@@ -2395,57 +2439,70 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.00</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd_date</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>paid_pen</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>应还利息</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>应还本金</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>paid_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>schd_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收服务费</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>schd_serv_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>schd_pen</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>paid_serv_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>wav_amt</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>extension</t>
+      <t>_no</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension_rate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司卡账户,融资账户,借款人账
+户,代偿账户,暂收,暂付</t>
+  </si>
+  <si>
+    <t>登记:1,已放款:2,还款中:3,
+已逾期:4,已展期:5,已结清:6,已代偿:7,已终止:8</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_acct_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctd_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctd_serv_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctd_pen</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期罚息累计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收服务费累计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_paid_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_paid_serv_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_paid_pen</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_wav_amt</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>待还:</t>
     </r>
     <r>
       <rPr>
@@ -2456,70 +2513,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_no</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>extension_rate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司卡账户,融资账户,借款人账
-户,代偿账户,暂收,暂付</t>
-  </si>
-  <si>
-    <t>登记:1,已放款:2,还款中:3,
-已逾期:4,已展期:5,已结清:6,已代偿:7,已终止:8</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_acct_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctd_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctd_serv_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctd_pen</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期罚息累计</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>已收服务费累计</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_paid_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_paid_serv_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_paid_pen</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_wav_amt</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>待还:</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,已还</t>
     </r>
     <r>
       <rPr>
@@ -2530,7 +2534,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>:2</t>
     </r>
     <r>
       <rPr>
@@ -2540,7 +2544,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,已还</t>
+      <t>,已逾期</t>
     </r>
     <r>
       <rPr>
@@ -2551,7 +2555,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
+      <t>:3</t>
     </r>
     <r>
       <rPr>
@@ -2561,7 +2565,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,已逾期</t>
+      <t>,
+已代偿</t>
     </r>
     <r>
       <rPr>
@@ -2572,7 +2577,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:3</t>
+      <t>:4</t>
     </r>
     <r>
       <rPr>
@@ -2582,8 +2587,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,
-已代偿</t>
+      <t>,已终止</t>
     </r>
     <r>
       <rPr>
@@ -2594,7 +2598,30 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:4</t>
+      <t>:5</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借据编号,融资编号,收支编号，入账编号，
+出账编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucher_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>amt</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>bal_dir</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar(1</t>
     </r>
     <r>
       <rPr>
@@ -2604,7 +2631,37 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,已终止</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>available_b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alance</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>acct</t>
     </r>
     <r>
       <rPr>
@@ -2615,13 +2672,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:5</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
+      <t>_type</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>公司卡账户:</t>
     </r>
     <r>
       <rPr>
@@ -2632,30 +2689,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mt_type</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>借据编号,融资编号,收支编号，入账编号，
-出账编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucher_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>amt</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>bal_dir</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>varchar(1</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2665,37 +2699,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>available_b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alance</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>acct</t>
+      <t>,融资账户</t>
     </r>
     <r>
       <rPr>
@@ -2706,13 +2710,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_type</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>公司卡账户:</t>
+      <t>:2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,借款人账
+户</t>
     </r>
     <r>
       <rPr>
@@ -2723,7 +2732,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>:3</t>
     </r>
     <r>
       <rPr>
@@ -2733,7 +2742,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,融资账户</t>
+      <t>,代偿账户</t>
     </r>
     <r>
       <rPr>
@@ -2744,18 +2753,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,借款人账
-户</t>
+      <t>:4,往来户:5</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果是融资账户指的是用户编号
+如果是公司卡账户，为1
+如果是借款人账户，指的是客户编号
+如果是代偿账户，为</t>
     </r>
     <r>
       <rPr>
@@ -2766,7 +2773,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -2776,7 +2783,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,代偿账户</t>
+      <t xml:space="preserve">
+如果是暂收暂付账户，为</t>
     </r>
     <r>
       <rPr>
@@ -2787,16 +2795,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:4,往来户:5</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>如果是融资账户指的是用户编号
-如果是公司卡账户，为1
-如果是借款人账户，指的是客户编号
-如果是代偿账户，为</t>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze_balance</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可透支:</t>
     </r>
     <r>
       <rPr>
@@ -2807,7 +2820,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2817,8 +2830,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-如果是暂收暂付账户，为</t>
+      <t>,不可透支</t>
     </r>
     <r>
       <rPr>
@@ -2829,21 +2841,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze_balance</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance_type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可透支:</t>
+      <t>:2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_acct_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>登记:</t>
     </r>
     <r>
       <rPr>
@@ -2864,7 +2872,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,不可透支</t>
+      <t>,计息中</t>
     </r>
     <r>
       <rPr>
@@ -2877,15 +2885,15 @@
       </rPr>
       <t>:2</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>in_acct_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>登记:</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,已延期</t>
     </r>
     <r>
       <rPr>
@@ -2896,7 +2904,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>:3</t>
     </r>
     <r>
       <rPr>
@@ -2906,7 +2914,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,计息中</t>
+      <t>,已撤资</t>
     </r>
     <r>
       <rPr>
@@ -2917,7 +2925,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
+      <t>:4</t>
     </r>
     <r>
       <rPr>
@@ -2927,7 +2935,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,已延期</t>
+      <t>,
+已结转</t>
     </r>
     <r>
       <rPr>
@@ -2938,17 +2947,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,已撤资</t>
+      <t>:5</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个月的第几天</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资信息表（描述融资的融资信息）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dd_</t>
     </r>
     <r>
       <rPr>
@@ -2959,18 +2972,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,
-已结转</t>
+      <t>num</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
     </r>
     <r>
       <rPr>
@@ -2981,21 +2993,262 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:5</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个月的第几天</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资信息表（描述融资的融资信息）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>dd_</t>
+      <t>mt</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>出账账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_bigint</t>
+  </si>
+  <si>
+    <t>schd_bigint</t>
+  </si>
+  <si>
+    <t>tot_paid_bigint</t>
+  </si>
+  <si>
+    <t>ctd_bigint</t>
+  </si>
+  <si>
+    <t>paid_bigint</t>
+  </si>
+  <si>
+    <t>tot_schd_bigint</t>
+  </si>
+  <si>
+    <t>chd_bigint</t>
+  </si>
+  <si>
+    <t>用户信息表（描述使用系统的用户信息，可以是操作人,也可以是融资用户）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（描述的是借款人信息）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>借据表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（借款具体信息，描述具体的借款情况，整个借款的生命周期中，主要变更这个表）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>借据凭证信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（描述的是贷款的原始凭证信息）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>还款计划表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（客户的还款计划信息，根据借据的期数，生成多条记录）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表（借款人,融资,公司卡账户）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_acct</t>
+  </si>
+  <si>
+    <t>回款计划表（描述融资的回款计划信息）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期开始日期</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期结束日期</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>期数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>展期期数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期期数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle_interval</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期间隔</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>一期的天数，默认是30天</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资人出款账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>指的是从外部那个银行卡出入的,标记</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>指的是从哪个公司卡账户出入钱</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>invest_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借据编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>external_acct</t>
+  </si>
+  <si>
+    <t>external_acct</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个用户可以指定多个公司</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自增</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_sys_user</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_product_info</t>
+  </si>
+  <si>
+    <t>t_biz_customer_info</t>
+  </si>
+  <si>
+    <t>t_biz_loan_info</t>
+  </si>
+  <si>
+    <t>t_biz_loan_voucher_info</t>
+  </si>
+  <si>
+    <t>t_biz_repay_plan</t>
+  </si>
+  <si>
+    <t>t_biz_acct_record</t>
+  </si>
+  <si>
+    <t>t_biz_acct</t>
+  </si>
+  <si>
+    <t>t_biz_in_out_voucher_info</t>
+  </si>
+  <si>
+    <r>
+      <t>首期:1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按期</t>
     </r>
     <r>
       <rPr>
@@ -3006,17 +3259,88 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>num</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
+      <t>:2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:是,0:否</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作员,超级管理员,
+一个用户可以指定多个角色</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户状态</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效:1,冻结:2,止用:3</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>cert_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>正常:1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑名单</t>
     </r>
     <r>
       <rPr>
@@ -3027,275 +3351,249 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mt</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>出账账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户调整:1,服务费补偿:2,融资人贴息:3,其他:4</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>acct_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive_bigint</t>
-  </si>
-  <si>
-    <t>schd_bigint</t>
-  </si>
-  <si>
-    <t>tot_paid_bigint</t>
-  </si>
-  <si>
-    <t>ctd_bigint</t>
-  </si>
-  <si>
-    <t>paid_bigint</t>
-  </si>
-  <si>
-    <t>tot_schd_bigint</t>
-  </si>
-  <si>
-    <t>chd_bigint</t>
-  </si>
-  <si>
-    <t>用户信息表（描述使用系统的用户信息，可以是操作人,也可以是融资用户）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>客户信息表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（描述的是借款人信息）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>借据表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（借款具体信息，描述具体的借款情况，整个借款的生命周期中，主要变更这个表）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>借据凭证信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（描述的是贷款的原始凭证信息）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>还款计划表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（客户的还款计划信息，根据借据的期数，生成多条记录）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表（借款人,融资,公司卡账户）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_acct</t>
-  </si>
-  <si>
-    <t>回款计划表（描述融资的回款计划信息）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>本期开始日期</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>本期结束日期</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>期数</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>展期期数</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>延期期数</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>cycle_interval</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期间隔</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>一期的天数，默认是30天</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资人出款账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>指的是从外部那个银行卡出入的,标记</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>指的是从哪个公司卡账户出入钱</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>invest_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>借据编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>cust_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>external_acct</t>
-  </si>
-  <si>
-    <t>external_acct</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个用户可以指定多个公司</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否自增</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_sys_user</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_biz_product_info</t>
-  </si>
-  <si>
-    <t>t_biz_customer_info</t>
-  </si>
-  <si>
-    <t>t_biz_loan_info</t>
-  </si>
-  <si>
-    <t>t_biz_loan_voucher_info</t>
-  </si>
-  <si>
-    <t>t_biz_repay_plan</t>
-  </si>
-  <si>
-    <t>t_biz_acct_record</t>
-  </si>
-  <si>
-    <t>t_biz_acct</t>
-  </si>
-  <si>
-    <t>t_biz_invest_info</t>
-  </si>
-  <si>
-    <t>t_biz_invest_plan</t>
-  </si>
-  <si>
-    <t>t_biz_in_out_voucher_info</t>
-  </si>
-  <si>
-    <t>t_biz_transfer_voucher_info</t>
-  </si>
-  <si>
-    <r>
-      <t>首期:1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>按期</t>
+      <t>:2,删除:3</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_by</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改操作员</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>modified_by</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>createAt</t>
+  </si>
+  <si>
+    <t>updateAt</t>
+  </si>
+  <si>
+    <t>lendingAmt</t>
+  </si>
+  <si>
+    <t>lendingAcct</t>
+  </si>
+  <si>
+    <t>externalAcct</t>
+  </si>
+  <si>
+    <t>wavAmt</t>
+  </si>
+  <si>
+    <t>createBy</t>
+  </si>
+  <si>
+    <t>modifiedBy</t>
+  </si>
+  <si>
+    <t>receiveBigint</t>
+  </si>
+  <si>
+    <t>schdBigint</t>
+  </si>
+  <si>
+    <t>ctdBigint</t>
+  </si>
+  <si>
+    <t>paidBigint</t>
+  </si>
+  <si>
+    <t>chdBigint</t>
+  </si>
+  <si>
+    <t>acctDate</t>
+  </si>
+  <si>
+    <t>beginDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>lendingDate</t>
+  </si>
+  <si>
+    <t>ddDate</t>
+  </si>
+  <si>
+    <t>balDir</t>
+  </si>
+  <si>
+    <t>serviceFee</t>
+  </si>
+  <si>
+    <t>cycleInterval</t>
+  </si>
+  <si>
+    <t>orgNo</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>penNumber</t>
+  </si>
+  <si>
+    <t>productNo</t>
+  </si>
+  <si>
+    <t>custNo</t>
+  </si>
+  <si>
+    <t>termNo</t>
+  </si>
+  <si>
+    <t>extensionNo</t>
+  </si>
+  <si>
+    <t>loanNo</t>
+  </si>
+  <si>
+    <t>ddNum</t>
+  </si>
+  <si>
+    <t>inAcctNo</t>
+  </si>
+  <si>
+    <t>groupNo</t>
+  </si>
+  <si>
+    <t>voucherNo</t>
+  </si>
+  <si>
+    <t>acctNo</t>
+  </si>
+  <si>
+    <t>userNo</t>
+  </si>
+  <si>
+    <t>investNo</t>
+  </si>
+  <si>
+    <t>outAcctNo</t>
+  </si>
+  <si>
+    <t>isPen</t>
+  </si>
+  <si>
+    <t>schdPrin</t>
+  </si>
+  <si>
+    <t>schdPen</t>
+  </si>
+  <si>
+    <t>totPaidPrin</t>
+  </si>
+  <si>
+    <t>totPaidBigint</t>
+  </si>
+  <si>
+    <t>totPaidPen</t>
+  </si>
+  <si>
+    <t>ctdPrin</t>
+  </si>
+  <si>
+    <t>ctdPen</t>
+  </si>
+  <si>
+    <t>paidPrin</t>
+  </si>
+  <si>
+    <t>paidPen</t>
+  </si>
+  <si>
+    <t>ddPrin</t>
+  </si>
+  <si>
+    <t>penRate</t>
+  </si>
+  <si>
+    <t>extensionRate</t>
+  </si>
+  <si>
+    <t>serviceFeeScale</t>
+  </si>
+  <si>
+    <t>schdServFee</t>
+  </si>
+  <si>
+    <t>totPaidServFee</t>
+  </si>
+  <si>
+    <t>ctdServFee</t>
+  </si>
+  <si>
+    <t>paidServFee</t>
+  </si>
+  <si>
+    <t>totSchdBigint</t>
+  </si>
+  <si>
+    <t>serviceFeeType</t>
+  </si>
+  <si>
+    <t>repayType</t>
+  </si>
+  <si>
+    <t>loanType</t>
+  </si>
+  <si>
+    <t>amtType</t>
+  </si>
+  <si>
+    <t>totWavAmt</t>
+  </si>
+  <si>
+    <t>TBizProductInfo</t>
+  </si>
+  <si>
+    <t>TBizCustomerInfo</t>
+  </si>
+  <si>
+    <t>TBizLoanInfo</t>
+  </si>
+  <si>
+    <t>TBizLoanVoucherInfo</t>
+  </si>
+  <si>
+    <t>TBizRepayPlan</t>
+  </si>
+  <si>
+    <t>TBizAcctRecord</t>
+  </si>
+  <si>
+    <t>TBizAcct</t>
+  </si>
+  <si>
+    <t>TBizInvestInfo</t>
+  </si>
+  <si>
+    <t>TBizInvestPlan</t>
+  </si>
+  <si>
+    <t>TBizInOutVoucherInfo</t>
+  </si>
+  <si>
+    <t>TBizTransferVoucherInfo</t>
+  </si>
+  <si>
+    <t>cert_type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>certType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -3306,88 +3604,53 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:是,0:否</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作员,超级管理员,
-一个用户可以指定多个角色</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效:1,冻结:2,止用:3</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件号码</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>cert_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户姓名</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>正常:1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黑名单</t>
+      <t>tatus</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>balanceType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>acct</t>
     </r>
     <r>
       <rPr>
@@ -3398,252 +3661,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2,删除:3</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_by</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改操作员</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>modified_by</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>createAt</t>
-  </si>
-  <si>
-    <t>updateAt</t>
-  </si>
-  <si>
-    <t>lendingAmt</t>
-  </si>
-  <si>
-    <t>lendingAcct</t>
-  </si>
-  <si>
-    <t>externalAcct</t>
-  </si>
-  <si>
-    <t>wavAmt</t>
-  </si>
-  <si>
-    <t>createBy</t>
-  </si>
-  <si>
-    <t>modifiedBy</t>
-  </si>
-  <si>
-    <t>receiveBigint</t>
-  </si>
-  <si>
-    <t>schdBigint</t>
-  </si>
-  <si>
-    <t>ctdBigint</t>
-  </si>
-  <si>
-    <t>paidBigint</t>
-  </si>
-  <si>
-    <t>chdBigint</t>
-  </si>
-  <si>
-    <t>acctDate</t>
-  </si>
-  <si>
-    <t>beginDate</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-  <si>
-    <t>lendingDate</t>
-  </si>
-  <si>
-    <t>ddDate</t>
-  </si>
-  <si>
-    <t>balDir</t>
-  </si>
-  <si>
-    <t>serviceFee</t>
-  </si>
-  <si>
-    <t>cycleInterval</t>
-  </si>
-  <si>
-    <t>orgNo</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>penNumber</t>
-  </si>
-  <si>
-    <t>productNo</t>
-  </si>
-  <si>
-    <t>custNo</t>
-  </si>
-  <si>
-    <t>contrNo</t>
-  </si>
-  <si>
-    <t>termNo</t>
-  </si>
-  <si>
-    <t>extensionNo</t>
-  </si>
-  <si>
-    <t>loanNo</t>
-  </si>
-  <si>
-    <t>ddNum</t>
-  </si>
-  <si>
-    <t>inAcctNo</t>
-  </si>
-  <si>
-    <t>groupNo</t>
-  </si>
-  <si>
-    <t>voucherNo</t>
-  </si>
-  <si>
-    <t>acctNo</t>
-  </si>
-  <si>
-    <t>userNo</t>
-  </si>
-  <si>
-    <t>investNo</t>
-  </si>
-  <si>
-    <t>outAcctNo</t>
-  </si>
-  <si>
-    <t>isPen</t>
-  </si>
-  <si>
-    <t>schdPrin</t>
-  </si>
-  <si>
-    <t>schdPen</t>
-  </si>
-  <si>
-    <t>totPaidPrin</t>
-  </si>
-  <si>
-    <t>totPaidBigint</t>
-  </si>
-  <si>
-    <t>totPaidPen</t>
-  </si>
-  <si>
-    <t>ctdPrin</t>
-  </si>
-  <si>
-    <t>ctdPen</t>
-  </si>
-  <si>
-    <t>paidPrin</t>
-  </si>
-  <si>
-    <t>paidPen</t>
-  </si>
-  <si>
-    <t>ddPrin</t>
-  </si>
-  <si>
-    <t>penRate</t>
-  </si>
-  <si>
-    <t>extensionRate</t>
-  </si>
-  <si>
-    <t>serviceFeeScale</t>
-  </si>
-  <si>
-    <t>schdServFee</t>
-  </si>
-  <si>
-    <t>totPaidServFee</t>
-  </si>
-  <si>
-    <t>ctdServFee</t>
-  </si>
-  <si>
-    <t>paidServFee</t>
-  </si>
-  <si>
-    <t>totSchdBigint</t>
-  </si>
-  <si>
-    <t>serviceFeeType</t>
-  </si>
-  <si>
-    <t>repayType</t>
-  </si>
-  <si>
-    <t>loanType</t>
-  </si>
-  <si>
-    <t>amtType</t>
-  </si>
-  <si>
-    <t>totWavAmt</t>
-  </si>
-  <si>
-    <t>TBizProductInfo</t>
-  </si>
-  <si>
-    <t>TBizCustomerInfo</t>
-  </si>
-  <si>
-    <t>TBizLoanInfo</t>
-  </si>
-  <si>
-    <t>TBizLoanVoucherInfo</t>
-  </si>
-  <si>
-    <t>TBizRepayPlan</t>
-  </si>
-  <si>
-    <t>TBizAcctRecord</t>
-  </si>
-  <si>
-    <t>TBizAcct</t>
-  </si>
-  <si>
-    <t>TBizInvestInfo</t>
-  </si>
-  <si>
-    <t>TBizInvestPlan</t>
-  </si>
-  <si>
-    <t>TBizInOutVoucherInfo</t>
-  </si>
-  <si>
-    <t>TBizTransferVoucherInfo</t>
-  </si>
-  <si>
-    <t>cert_type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>certType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
+      <t>_type</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可透支:</t>
     </r>
     <r>
       <rPr>
@@ -3654,57 +3682,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>tatus</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>certNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>acctType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>balanceType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>acct</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,不可透支</t>
     </r>
     <r>
       <rPr>
@@ -3715,17 +3703,67 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_type</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可透支:</t>
+      <t>:2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资151开头,借款251开头</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资账户171开头,借款账户271开头,公司卡账户471开头,
+暂收371，暂付372，代偿370</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名称</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>availableBalance</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>freezeBalance</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:公司卡账户,2:融资账户,3:借款人账户,4:代偿账户,5:暂收,6:暂付</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:借款人账户,2:融资人账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资账户、借款人账户指的是客户编号
+如果是公司卡账户、代偿账户、暂收暂付账户，为15000000001</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借据状态</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>身份证:</t>
     </r>
     <r>
       <rPr>
@@ -3746,7 +3784,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,不可透支</t>
+      <t>,电子合同</t>
     </r>
     <r>
       <rPr>
@@ -3759,65 +3797,15 @@
       </rPr>
       <t>:2</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资151开头,借款251开头</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资账户171开头,借款账户271开头,公司卡账户471开头,
-暂收371，暂付372，代偿370</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名称</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>userNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>availableBalance</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>freezeBalance</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:公司卡账户,2:融资账户,3:借款人账户,4:代偿账户,5:暂收,6:暂付</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:借款人账户,2:融资人账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资账户、借款人账户指的是客户编号
-如果是公司卡账户、代偿账户、暂收暂付账户，为15000000001</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>借据状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>身份证:</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,房本</t>
     </r>
     <r>
       <rPr>
@@ -3828,7 +3816,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>:3</t>
     </r>
     <r>
       <rPr>
@@ -3838,7 +3826,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,电子合同</t>
+      <t>,解押手
+续</t>
     </r>
     <r>
       <rPr>
@@ -3849,17 +3838,37 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,房本</t>
+      <t>:4</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款状态</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金:1,利息:2,罚息:3,服务费:4,活期利息:5,资金:6</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:放款,2:还款,3:服务费收取,4:服务费补偿,5:支出,6:融资,7:撤资,8:收入,9:资金登记,10:转账,11:提现,12:结转,13:代偿,14:提前还款</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中:0,成功:1,失败:2</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>未计息:</t>
     </r>
     <r>
       <rPr>
@@ -3870,7 +3879,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:3</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -3880,8 +3889,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,解押手
-续</t>
+      <t>,已计息</t>
     </r>
     <r>
       <rPr>
@@ -3892,37 +3900,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:4</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>本金:1,利息:2,罚息:3,服务费:4,活期利息:5,资金:6</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:放款,2:还款,3:服务费收取,4:服务费补偿,5:支出,6:融资,7:撤资,8:收入,9:资金登记,10:转账,11:提现,12:结转,13:代偿,14:提前还款</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理中:0,成功:1,失败:2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>未计息:</t>
+      <t>:2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,已结息</t>
     </r>
     <r>
       <rPr>
@@ -3933,7 +3921,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>:3</t>
     </r>
     <r>
       <rPr>
@@ -3943,7 +3931,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,已计息</t>
+      <t>,已终止</t>
     </r>
     <r>
       <rPr>
@@ -3954,17 +3942,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,已结息</t>
+      <t>:4</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中:0,成功:1,失败:2</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般预算支出:1,办公支出:2,其他支出:3,股东分润:4,对公支出:5,对公收入:6,利息收入:7</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户调整:1,服务费补偿:2,融资人贴息:3,其他:4</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
     </r>
     <r>
       <rPr>
@@ -3975,17 +3971,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,已终止</t>
+      <t>mt_type</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_invest_info</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_invest_plan</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_transfer_voucher_info</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借据编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>certNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>productNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始合同编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>contr</t>
     </r>
     <r>
       <rPr>
@@ -3996,16 +4032,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:4</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理中:0,成功:1,失败:2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般预算支出:1,办公支出:2,其他支出:3,股东分润:4,对公支出:5,对公收入:6,利息收入:7</t>
+      <t>_no</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrNo</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -7025,7 +7057,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
@@ -8974,8 +9006,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:V291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H266" sqref="H266"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8990,12 +9022,12 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="48" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="48" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -9015,7 +9047,7 @@
         <v>329</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>13</v>
@@ -9060,7 +9092,7 @@
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -9096,7 +9128,7 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="56" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -9230,10 +9262,10 @@
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="48" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -9253,7 +9285,7 @@
         <v>329</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>13</v>
@@ -9305,7 +9337,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="38"/>
       <c r="J23" s="38" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="2:22">
@@ -9325,7 +9357,7 @@
       <c r="G24" s="55"/>
       <c r="H24" s="38"/>
       <c r="J24" s="55" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K24" s="64"/>
       <c r="L24" s="64"/>
@@ -9340,7 +9372,7 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>24</v>
@@ -9357,7 +9389,7 @@
         <v>301</v>
       </c>
       <c r="J25" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K25" s="64"/>
       <c r="L25" s="64"/>
@@ -9389,7 +9421,7 @@
         <v>310</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
@@ -9418,10 +9450,10 @@
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
       <c r="H27" s="55" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -9436,7 +9468,7 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>218</v>
@@ -9453,7 +9485,7 @@
         <v>315</v>
       </c>
       <c r="J28" s="51" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -9482,10 +9514,10 @@
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J29" s="51" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
@@ -9517,7 +9549,7 @@
         <v>320</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
@@ -9549,7 +9581,7 @@
         <v>322</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
@@ -9580,10 +9612,10 @@
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
       <c r="H32" s="56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
@@ -9600,10 +9632,10 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="51" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>303</v>
@@ -9614,10 +9646,10 @@
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
       <c r="H33" s="56" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J33" s="51" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
@@ -9634,7 +9666,7 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>268</v>
@@ -9649,15 +9681,15 @@
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="J34" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D35" s="55" t="s">
         <v>303</v>
@@ -9669,7 +9701,7 @@
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="J35" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -9689,7 +9721,7 @@
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
       <c r="J36" s="51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -9711,7 +9743,7 @@
         <v>327</v>
       </c>
       <c r="J37" s="51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -9766,18 +9798,18 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="48" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J41" s="48" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="48" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -9797,7 +9829,7 @@
         <v>329</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>13</v>
@@ -9811,7 +9843,7 @@
         <v>349</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D44" s="60" t="s">
         <v>303</v>
@@ -9823,10 +9855,10 @@
         <v>314</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="J44" s="55" t="s">
         <v>349</v>
@@ -9834,10 +9866,10 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="55" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D45" s="55" t="s">
         <v>337</v>
@@ -9849,7 +9881,7 @@
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
       <c r="J45" s="55" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
@@ -9864,10 +9896,10 @@
     </row>
     <row r="46" spans="2:22" ht="28.8">
       <c r="B46" s="51" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D46" s="55" t="s">
         <v>303</v>
@@ -9881,7 +9913,7 @@
         <v>338</v>
       </c>
       <c r="J46" s="51" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="15.6">
@@ -9889,7 +9921,7 @@
         <v>348</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D47" s="55" t="s">
         <v>339</v>
@@ -9901,7 +9933,7 @@
       <c r="G47" s="38"/>
       <c r="H47" s="40"/>
       <c r="J47" s="51" t="s">
-        <v>348</v>
+        <v>605</v>
       </c>
       <c r="K47" s="49"/>
       <c r="L47" s="49"/>
@@ -9917,10 +9949,10 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="51" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D48" s="55" t="s">
         <v>303</v>
@@ -9934,7 +9966,7 @@
         <v>343</v>
       </c>
       <c r="J48" s="51" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
@@ -9950,16 +9982,16 @@
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="51" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D49" s="55" t="s">
         <v>344</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -9973,7 +10005,7 @@
         <v>341</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D50" s="55" t="s">
         <v>345</v>
@@ -9992,7 +10024,7 @@
         <v>342</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D51" s="55" t="s">
         <v>346</v>
@@ -10007,10 +10039,10 @@
     </row>
     <row r="52" spans="2:18" ht="15.6">
       <c r="B52" s="51" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D52" s="55" t="s">
         <v>303</v>
@@ -10021,15 +10053,15 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="J52" s="51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="15.6">
       <c r="B53" s="51" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>212</v>
@@ -10038,20 +10070,20 @@
         <v>303</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="55" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J53" s="51" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="2:18">
       <c r="B54" s="51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>268</v>
@@ -10066,15 +10098,15 @@
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
       <c r="J54" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="2:18">
       <c r="B55" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D55" s="55" t="s">
         <v>303</v>
@@ -10086,7 +10118,7 @@
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
       <c r="J55" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" spans="2:18">
@@ -10106,7 +10138,7 @@
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
       <c r="J56" s="51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="2:18">
@@ -10128,15 +10160,15 @@
         <v>327</v>
       </c>
       <c r="J57" s="51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="2:18">
       <c r="B58" s="55" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D58" s="55" t="s">
         <v>332</v>
@@ -10161,18 +10193,18 @@
     </row>
     <row r="60" spans="2:18">
       <c r="B60" s="48" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J60" s="48" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="2:18">
       <c r="B61" s="48" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J61" s="48" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="2:18">
@@ -10192,7 +10224,7 @@
         <v>329</v>
       </c>
       <c r="G62" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>13</v>
@@ -10206,7 +10238,7 @@
         <v>349</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>39</v>
+        <v>603</v>
       </c>
       <c r="D63" s="61" t="s">
         <v>303</v>
@@ -10244,12 +10276,12 @@
       <c r="G64" s="55"/>
       <c r="H64" s="38"/>
       <c r="J64" s="55" t="s">
-        <v>514</v>
+        <v>607</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="15">
       <c r="B65" s="55" t="s">
-        <v>454</v>
+        <v>608</v>
       </c>
       <c r="C65" s="38" t="s">
         <v>221</v>
@@ -10264,12 +10296,12 @@
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
       <c r="J65" s="55" t="s">
-        <v>517</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="15">
       <c r="B66" s="55" t="s">
-        <v>455</v>
+        <v>606</v>
       </c>
       <c r="C66" s="38" t="s">
         <v>28</v>
@@ -10284,15 +10316,15 @@
       <c r="G66" s="55"/>
       <c r="H66" s="55"/>
       <c r="J66" s="55" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="51" t="s">
-        <v>350</v>
+        <v>611</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>203</v>
+        <v>610</v>
       </c>
       <c r="D67" s="55" t="s">
         <v>339</v>
@@ -10304,7 +10336,7 @@
       <c r="G67" s="38"/>
       <c r="H67" s="40"/>
       <c r="J67" s="51" t="s">
-        <v>519</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" spans="2:10">
@@ -10323,21 +10355,21 @@
       <c r="F68" s="55"/>
       <c r="G68" s="55"/>
       <c r="H68" s="56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J68" s="51" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C69" s="39" t="s">
         <v>286</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E69" s="55" t="s">
         <v>305</v>
@@ -10346,18 +10378,18 @@
       <c r="G69" s="38"/>
       <c r="H69" s="40"/>
       <c r="J69" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C70" s="39" t="s">
         <v>261</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E70" s="55" t="s">
         <v>305</v>
@@ -10366,18 +10398,18 @@
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="J70" s="51" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C71" s="39" t="s">
         <v>262</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E71" s="55" t="s">
         <v>312</v>
@@ -10386,12 +10418,12 @@
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
       <c r="J71" s="51" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C72" s="39" t="s">
         <v>41</v>
@@ -10406,12 +10438,12 @@
       <c r="G72" s="55"/>
       <c r="H72" s="55"/>
       <c r="J72" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C73" s="39" t="s">
         <v>44</v>
@@ -10428,12 +10460,12 @@
         <v>301</v>
       </c>
       <c r="J73" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="51" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C74" s="39" t="s">
         <v>45</v>
@@ -10448,7 +10480,7 @@
       <c r="G74" s="55"/>
       <c r="H74" s="38"/>
       <c r="J74" s="51" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="43.2">
@@ -10470,12 +10502,12 @@
         <v>322</v>
       </c>
       <c r="J75" s="51" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C76" s="39" t="s">
         <v>47</v>
@@ -10490,18 +10522,18 @@
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
       <c r="J76" s="51" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C77" s="39" t="s">
         <v>48</v>
       </c>
       <c r="D77" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E77" s="55" t="s">
         <v>312</v>
@@ -10510,12 +10542,12 @@
       <c r="G77" s="38"/>
       <c r="H77" s="38"/>
       <c r="J77" s="55" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C78" s="39" t="s">
         <v>49</v>
@@ -10530,12 +10562,12 @@
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
       <c r="J78" s="55" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="15">
       <c r="B79" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C79" s="39" t="s">
         <v>253</v>
@@ -10552,15 +10584,15 @@
         <v>254</v>
       </c>
       <c r="J79" s="55" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="55" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D80" s="55" t="s">
         <v>339</v>
@@ -10574,12 +10606,12 @@
         <v>233</v>
       </c>
       <c r="J80" s="55" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C81" s="39" t="s">
         <v>50</v>
@@ -10593,10 +10625,10 @@
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
       <c r="H81" s="55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J81" s="55" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="15">
@@ -10618,12 +10650,12 @@
         <v>318</v>
       </c>
       <c r="J82" s="51" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C83" s="39" t="s">
         <v>51</v>
@@ -10637,10 +10669,10 @@
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
       <c r="H83" s="55" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J83" s="55" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -10662,12 +10694,12 @@
         <v>317</v>
       </c>
       <c r="J84" s="51" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>218</v>
@@ -10684,7 +10716,7 @@
         <v>315</v>
       </c>
       <c r="J85" s="51" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86" spans="2:10">
@@ -10706,15 +10738,15 @@
         <v>320</v>
       </c>
       <c r="J86" s="51" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D87" s="55" t="s">
         <v>303</v>
@@ -10725,15 +10757,15 @@
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
       <c r="H87" s="55" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J87" s="55" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C88" s="38" t="s">
         <v>215</v>
@@ -10748,15 +10780,15 @@
       <c r="G88" s="38"/>
       <c r="H88" s="38"/>
       <c r="J88" s="55" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C89" s="51" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D89" s="55" t="s">
         <v>308</v>
@@ -10768,15 +10800,15 @@
       <c r="G89" s="38"/>
       <c r="H89" s="38"/>
       <c r="J89" s="55" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="55" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C90" s="51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D90" s="55" t="s">
         <v>308</v>
@@ -10788,15 +10820,15 @@
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
       <c r="J90" s="55" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C91" s="51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D91" s="55" t="s">
         <v>308</v>
@@ -10808,15 +10840,15 @@
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
       <c r="J91" s="55" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D92" s="55" t="s">
         <v>308</v>
@@ -10828,12 +10860,12 @@
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
       <c r="J92" s="55" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C93" s="39" t="s">
         <v>53</v>
@@ -10848,12 +10880,12 @@
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
       <c r="J93" s="55" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="55" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C94" s="39" t="s">
         <v>54</v>
@@ -10868,15 +10900,15 @@
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
       <c r="J94" s="55" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C95" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D95" s="55" t="s">
         <v>308</v>
@@ -10888,12 +10920,12 @@
       <c r="G95" s="38"/>
       <c r="H95" s="38"/>
       <c r="J95" s="55" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C96" s="55" t="s">
         <v>226</v>
@@ -10908,12 +10940,12 @@
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
       <c r="J96" s="55" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="97" spans="2:18">
       <c r="B97" s="55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C97" s="38" t="s">
         <v>227</v>
@@ -10928,15 +10960,15 @@
       <c r="G97" s="38"/>
       <c r="H97" s="38"/>
       <c r="J97" s="55" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="98" spans="2:18" ht="43.2">
       <c r="B98" s="55" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="D98" s="55" t="s">
         <v>303</v>
@@ -10947,15 +10979,15 @@
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" s="56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J98" s="55" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="2:18">
       <c r="B99" s="51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C99" s="39" t="s">
         <v>268</v>
@@ -10970,15 +11002,15 @@
       <c r="G99" s="38"/>
       <c r="H99" s="38"/>
       <c r="J99" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="100" spans="2:18">
       <c r="B100" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D100" s="55" t="s">
         <v>303</v>
@@ -10990,7 +11022,7 @@
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
       <c r="J100" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" spans="2:18">
@@ -11010,7 +11042,7 @@
       <c r="G101" s="55"/>
       <c r="H101" s="55"/>
       <c r="J101" s="51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="102" spans="2:18">
@@ -11032,7 +11064,7 @@
         <v>327</v>
       </c>
       <c r="J102" s="51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="2:18">
@@ -11105,7 +11137,7 @@
     </row>
     <row r="108" spans="2:18">
       <c r="B108" s="62" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
@@ -11113,12 +11145,12 @@
       <c r="G108" s="43"/>
       <c r="H108" s="44"/>
       <c r="J108" s="62" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="2:18">
       <c r="B109" s="62" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
@@ -11126,7 +11158,7 @@
       <c r="G109" s="43"/>
       <c r="H109" s="44"/>
       <c r="J109" s="62" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="110" spans="2:18">
@@ -11146,7 +11178,7 @@
         <v>329</v>
       </c>
       <c r="G110" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H110" s="38" t="s">
         <v>13</v>
@@ -11183,7 +11215,7 @@
     </row>
     <row r="112" spans="2:18" ht="15">
       <c r="B112" s="55" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C112" s="38" t="s">
         <v>39</v>
@@ -11198,12 +11230,12 @@
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
       <c r="J112" s="55" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="113" spans="2:18" ht="28.8">
       <c r="B113" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C113" s="39" t="s">
         <v>205</v>
@@ -11217,15 +11249,15 @@
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
       <c r="H113" s="56" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="J113" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="2:18">
       <c r="B114" s="55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C114" s="39" t="s">
         <v>206</v>
@@ -11240,12 +11272,12 @@
       <c r="G114" s="38"/>
       <c r="H114" s="40"/>
       <c r="J114" s="55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="2:18">
       <c r="B115" s="51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C115" s="39" t="s">
         <v>268</v>
@@ -11260,15 +11292,15 @@
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
       <c r="J115" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="116" spans="2:18">
       <c r="B116" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D116" s="55" t="s">
         <v>303</v>
@@ -11280,7 +11312,7 @@
       <c r="G116" s="38"/>
       <c r="H116" s="38"/>
       <c r="J116" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="117" spans="2:18">
@@ -11300,7 +11332,7 @@
       <c r="G117" s="55"/>
       <c r="H117" s="55"/>
       <c r="J117" s="51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="118" spans="2:18">
@@ -11322,7 +11354,7 @@
         <v>327</v>
       </c>
       <c r="J118" s="51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119" spans="2:18">
@@ -11375,19 +11407,19 @@
     </row>
     <row r="124" spans="2:18">
       <c r="B124" s="48" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C124" s="48"/>
       <c r="J124" s="48" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="2:18">
       <c r="B125" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J125" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="126" spans="2:18">
@@ -11407,7 +11439,7 @@
         <v>329</v>
       </c>
       <c r="G126" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H126" s="38" t="s">
         <v>13</v>
@@ -11444,10 +11476,10 @@
     </row>
     <row r="128" spans="2:18" ht="15">
       <c r="B128" s="55" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C128" s="55" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D128" s="61" t="s">
         <v>303</v>
@@ -11459,7 +11491,7 @@
       <c r="G128" s="38"/>
       <c r="H128" s="38"/>
       <c r="J128" s="55" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="129" spans="2:21" ht="15">
@@ -11479,12 +11511,12 @@
       <c r="G129" s="38"/>
       <c r="H129" s="38"/>
       <c r="J129" s="55" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="130" spans="2:21" ht="15">
       <c r="B130" s="55" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C130" s="39" t="s">
         <v>21</v>
@@ -11499,7 +11531,7 @@
       <c r="G130" s="38"/>
       <c r="H130" s="40"/>
       <c r="J130" s="55" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K130" s="64"/>
       <c r="L130" s="64"/>
@@ -11513,7 +11545,7 @@
     </row>
     <row r="131" spans="2:21" ht="15">
       <c r="B131" s="55" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C131" s="39" t="s">
         <v>28</v>
@@ -11528,7 +11560,7 @@
       <c r="G131" s="38"/>
       <c r="H131" s="38"/>
       <c r="J131" s="55" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K131" s="64"/>
       <c r="L131" s="64"/>
@@ -11542,13 +11574,13 @@
     </row>
     <row r="132" spans="2:21">
       <c r="B132" s="51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C132" s="39" t="s">
         <v>286</v>
       </c>
       <c r="D132" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E132" s="55" t="s">
         <v>305</v>
@@ -11557,12 +11589,12 @@
       <c r="G132" s="38"/>
       <c r="H132" s="40"/>
       <c r="J132" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="2:21" ht="15">
       <c r="B133" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C133" s="51" t="s">
         <v>270</v>
@@ -11579,12 +11611,12 @@
         <v>63</v>
       </c>
       <c r="J133" s="51" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134" spans="2:21">
       <c r="B134" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C134" s="39" t="s">
         <v>300</v>
@@ -11599,7 +11631,7 @@
       <c r="G134" s="38"/>
       <c r="H134" s="38"/>
       <c r="J134" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K134" s="49"/>
       <c r="L134" s="49"/>
@@ -11615,13 +11647,13 @@
     </row>
     <row r="135" spans="2:21">
       <c r="B135" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D135" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E135" s="55" t="s">
         <v>305</v>
@@ -11630,18 +11662,18 @@
       <c r="G135" s="38"/>
       <c r="H135" s="38"/>
       <c r="J135" s="51" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="136" spans="2:21">
       <c r="B136" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D136" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E136" s="55" t="s">
         <v>312</v>
@@ -11650,12 +11682,12 @@
       <c r="G136" s="38"/>
       <c r="H136" s="38"/>
       <c r="J136" s="51" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="2:21" ht="15">
       <c r="B137" s="51" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C137" s="39" t="s">
         <v>278</v>
@@ -11670,7 +11702,7 @@
       <c r="G137" s="38"/>
       <c r="H137" s="38"/>
       <c r="J137" s="51" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="K137" s="49"/>
       <c r="L137" s="49"/>
@@ -11686,13 +11718,13 @@
     </row>
     <row r="138" spans="2:21">
       <c r="B138" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C138" s="39" t="s">
         <v>290</v>
       </c>
       <c r="D138" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E138" s="55" t="s">
         <v>314</v>
@@ -11701,7 +11733,7 @@
       <c r="G138" s="38"/>
       <c r="H138" s="38"/>
       <c r="J138" s="55" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="K138" s="49"/>
       <c r="L138" s="49"/>
@@ -11717,7 +11749,7 @@
     </row>
     <row r="139" spans="2:21">
       <c r="B139" s="55" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C139" s="39" t="s">
         <v>255</v>
@@ -11734,7 +11766,7 @@
         <v>236</v>
       </c>
       <c r="J139" s="55" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K139" s="49"/>
       <c r="L139" s="49"/>
@@ -11750,7 +11782,7 @@
     </row>
     <row r="140" spans="2:21" ht="15">
       <c r="B140" s="55" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C140" s="39" t="s">
         <v>242</v>
@@ -11767,7 +11799,7 @@
         <v>256</v>
       </c>
       <c r="J140" s="55" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="K140" s="49"/>
       <c r="L140" s="49"/>
@@ -11783,7 +11815,7 @@
     </row>
     <row r="141" spans="2:21">
       <c r="B141" s="55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C141" s="39" t="s">
         <v>66</v>
@@ -11798,12 +11830,12 @@
       <c r="G141" s="38"/>
       <c r="H141" s="38"/>
       <c r="J141" s="55" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="142" spans="2:21">
       <c r="B142" s="55" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C142" s="39" t="s">
         <v>67</v>
@@ -11818,12 +11850,12 @@
       <c r="G142" s="38"/>
       <c r="H142" s="38"/>
       <c r="J142" s="55" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="2:21">
       <c r="B143" s="55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C143" s="39" t="s">
         <v>68</v>
@@ -11838,12 +11870,12 @@
       <c r="G143" s="38"/>
       <c r="H143" s="38"/>
       <c r="J143" s="55" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="144" spans="2:21">
       <c r="B144" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C144" s="39" t="s">
         <v>69</v>
@@ -11858,12 +11890,12 @@
       <c r="G144" s="38"/>
       <c r="H144" s="38"/>
       <c r="J144" s="55" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="145" spans="2:18">
       <c r="B145" s="55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C145" s="39" t="s">
         <v>70</v>
@@ -11878,12 +11910,12 @@
       <c r="G145" s="38"/>
       <c r="H145" s="38"/>
       <c r="J145" s="55" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="146" spans="2:18">
       <c r="B146" s="55" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C146" s="39" t="s">
         <v>71</v>
@@ -11898,12 +11930,12 @@
       <c r="G146" s="38"/>
       <c r="H146" s="38"/>
       <c r="J146" s="55" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="147" spans="2:18">
       <c r="B147" s="55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C147" s="39" t="s">
         <v>72</v>
@@ -11918,12 +11950,12 @@
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
       <c r="J147" s="55" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="148" spans="2:18">
       <c r="B148" s="55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C148" s="39" t="s">
         <v>73</v>
@@ -11938,12 +11970,12 @@
       <c r="G148" s="38"/>
       <c r="H148" s="38"/>
       <c r="J148" s="55" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="149" spans="2:18">
       <c r="B149" s="55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C149" s="39" t="s">
         <v>225</v>
@@ -11958,7 +11990,7 @@
       <c r="G149" s="38"/>
       <c r="H149" s="38"/>
       <c r="J149" s="55" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="150" spans="2:18" ht="28.8">
@@ -11966,7 +11998,7 @@
         <v>347</v>
       </c>
       <c r="C150" s="39" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D150" s="55" t="s">
         <v>303</v>
@@ -11977,7 +12009,7 @@
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
       <c r="H150" s="56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J150" s="55" t="s">
         <v>347</v>
@@ -11985,7 +12017,7 @@
     </row>
     <row r="151" spans="2:18">
       <c r="B151" s="51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C151" s="39" t="s">
         <v>268</v>
@@ -12000,15 +12032,15 @@
       <c r="G151" s="38"/>
       <c r="H151" s="38"/>
       <c r="J151" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="152" spans="2:18">
       <c r="B152" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D152" s="55" t="s">
         <v>303</v>
@@ -12020,7 +12052,7 @@
       <c r="G152" s="38"/>
       <c r="H152" s="38"/>
       <c r="J152" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="153" spans="2:18">
@@ -12040,7 +12072,7 @@
       <c r="G153" s="55"/>
       <c r="H153" s="55"/>
       <c r="J153" s="51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="154" spans="2:18">
@@ -12062,7 +12094,7 @@
         <v>327</v>
       </c>
       <c r="J154" s="51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="155" spans="2:18">
@@ -12103,10 +12135,10 @@
     </row>
     <row r="160" spans="2:18">
       <c r="B160" s="48" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J160" s="48" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161" spans="2:18">
@@ -12126,7 +12158,7 @@
         <v>329</v>
       </c>
       <c r="G161" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H161" s="38" t="s">
         <v>13</v>
@@ -12163,7 +12195,7 @@
     </row>
     <row r="163" spans="2:18" ht="15">
       <c r="B163" s="55" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C163" s="38" t="s">
         <v>277</v>
@@ -12178,7 +12210,7 @@
       <c r="G163" s="38"/>
       <c r="H163" s="38"/>
       <c r="J163" s="55" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="164" spans="2:18" ht="15">
@@ -12198,12 +12230,12 @@
       <c r="G164" s="38"/>
       <c r="H164" s="38"/>
       <c r="J164" s="55" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="165" spans="2:18" ht="28.8">
       <c r="B165" s="51" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C165" s="39" t="s">
         <v>248</v>
@@ -12217,10 +12249,10 @@
       <c r="F165" s="38"/>
       <c r="G165" s="38"/>
       <c r="H165" s="56" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J165" s="51" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="K165" s="59"/>
       <c r="L165" s="59"/>
@@ -12233,7 +12265,7 @@
     </row>
     <row r="166" spans="2:18" ht="28.8">
       <c r="B166" s="52" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C166" s="54" t="s">
         <v>191</v>
@@ -12247,18 +12279,18 @@
       <c r="F166" s="53"/>
       <c r="G166" s="53"/>
       <c r="H166" s="58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J166" s="52" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="167" spans="2:18" ht="69.599999999999994" customHeight="1">
       <c r="B167" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C167" s="38" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D167" s="61" t="s">
         <v>303</v>
@@ -12269,18 +12301,18 @@
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
       <c r="H167" s="56" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="J167" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="2:18" ht="28.8">
       <c r="B168" s="55" t="s">
-        <v>394</v>
+        <v>599</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D168" s="61" t="s">
         <v>303</v>
@@ -12291,21 +12323,21 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
       <c r="H168" s="56" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="J168" s="55" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="169" spans="2:18">
       <c r="B169" s="51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C169" s="39" t="s">
         <v>286</v>
       </c>
       <c r="D169" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E169" s="55" t="s">
         <v>305</v>
@@ -12314,7 +12346,7 @@
       <c r="G169" s="38"/>
       <c r="H169" s="40"/>
       <c r="J169" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K169" s="59"/>
       <c r="L169" s="59"/>
@@ -12327,7 +12359,7 @@
     </row>
     <row r="170" spans="2:18">
       <c r="B170" s="51" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C170" s="39" t="s">
         <v>250</v>
@@ -12342,7 +12374,7 @@
       <c r="G170" s="38"/>
       <c r="H170" s="38"/>
       <c r="J170" s="51" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K170" s="49"/>
       <c r="L170" s="49"/>
@@ -12351,13 +12383,13 @@
     </row>
     <row r="171" spans="2:18" ht="28.8">
       <c r="B171" s="51" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C171" s="51" t="s">
         <v>190</v>
       </c>
       <c r="D171" s="55" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E171" s="55" t="s">
         <v>305</v>
@@ -12368,13 +12400,13 @@
         <v>249</v>
       </c>
       <c r="J171" s="51" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="K171" s="48"/>
     </row>
     <row r="172" spans="2:18" ht="15">
       <c r="B172" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C172" s="51" t="s">
         <v>259</v>
@@ -12388,16 +12420,16 @@
       <c r="F172" s="38"/>
       <c r="G172" s="38"/>
       <c r="H172" s="56" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="J172" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K172" s="48"/>
     </row>
     <row r="173" spans="2:18">
       <c r="B173" s="51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C173" s="39" t="s">
         <v>268</v>
@@ -12412,15 +12444,15 @@
       <c r="G173" s="38"/>
       <c r="H173" s="38"/>
       <c r="J173" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="174" spans="2:18">
       <c r="B174" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D174" s="55" t="s">
         <v>303</v>
@@ -12432,7 +12464,7 @@
       <c r="G174" s="38"/>
       <c r="H174" s="38"/>
       <c r="J174" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="2:18">
@@ -12452,7 +12484,7 @@
       <c r="G175" s="55"/>
       <c r="H175" s="55"/>
       <c r="J175" s="51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="176" spans="2:18">
@@ -12474,7 +12506,7 @@
         <v>327</v>
       </c>
       <c r="J176" s="51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="177" spans="2:18">
@@ -12507,18 +12539,18 @@
     </row>
     <row r="180" spans="2:18">
       <c r="B180" s="48" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J180" s="48" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="181" spans="2:18">
       <c r="B181" s="48" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J181" s="48" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="182" spans="2:18">
@@ -12538,7 +12570,7 @@
         <v>329</v>
       </c>
       <c r="G182" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H182" s="38" t="s">
         <v>13</v>
@@ -12553,7 +12585,7 @@
         <v>349</v>
       </c>
       <c r="C183" s="55" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D183" s="61" t="s">
         <v>303</v>
@@ -12565,10 +12597,10 @@
         <v>314</v>
       </c>
       <c r="G183" s="55" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="H183" s="56" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="J183" s="55" t="s">
         <v>349</v>
@@ -12576,7 +12608,7 @@
     </row>
     <row r="184" spans="2:18" ht="43.2">
       <c r="B184" s="55" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C184" s="38" t="s">
         <v>239</v>
@@ -12590,19 +12622,19 @@
       <c r="F184" s="38"/>
       <c r="G184" s="38"/>
       <c r="H184" s="56" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="J184" s="55" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="K184" s="48"/>
     </row>
     <row r="185" spans="2:18">
       <c r="B185" s="55" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C185" s="38" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D185" s="55" t="s">
         <v>339</v>
@@ -12620,7 +12652,7 @@
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="55" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C186" s="51" t="s">
         <v>257</v>
@@ -12637,12 +12669,12 @@
         <v>310</v>
       </c>
       <c r="J186" s="55" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="187" spans="2:18">
       <c r="B187" s="55" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C187" s="51" t="s">
         <v>258</v>
@@ -12659,15 +12691,15 @@
         <v>310</v>
       </c>
       <c r="J187" s="55" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="188" spans="2:18" ht="28.8">
       <c r="B188" s="55" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C188" s="51" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D188" s="61" t="s">
         <v>303</v>
@@ -12678,15 +12710,15 @@
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
       <c r="H188" s="56" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="J188" s="55" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="15">
       <c r="B189" s="55" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C189" s="51" t="s">
         <v>260</v>
@@ -12700,18 +12732,18 @@
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
       <c r="H189" s="56" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="J189" s="55" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="190" spans="2:18" ht="15">
       <c r="B190" s="55" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C190" s="51" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D190" s="61" t="s">
         <v>303</v>
@@ -12722,15 +12754,15 @@
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
       <c r="H190" s="56" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J190" s="55" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="2:18">
       <c r="B191" s="51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C191" s="39" t="s">
         <v>268</v>
@@ -12745,15 +12777,15 @@
       <c r="G191" s="38"/>
       <c r="H191" s="38"/>
       <c r="J191" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="192" spans="2:18">
       <c r="B192" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D192" s="55" t="s">
         <v>303</v>
@@ -12765,7 +12797,7 @@
       <c r="G192" s="38"/>
       <c r="H192" s="38"/>
       <c r="J192" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" spans="2:18">
@@ -12785,7 +12817,7 @@
       <c r="G193" s="55"/>
       <c r="H193" s="55"/>
       <c r="J193" s="51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="194" spans="2:18">
@@ -12807,7 +12839,7 @@
         <v>327</v>
       </c>
       <c r="J194" s="51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="195" spans="2:18">
@@ -12815,7 +12847,7 @@
         <v>331</v>
       </c>
       <c r="C195" s="38" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D195" s="55" t="s">
         <v>332</v>
@@ -12827,7 +12859,7 @@
       <c r="G195" s="38"/>
       <c r="H195" s="38"/>
       <c r="J195" s="55" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="K195" s="49"/>
       <c r="L195" s="50"/>
@@ -12870,18 +12902,18 @@
     </row>
     <row r="201" spans="2:18">
       <c r="B201" s="48" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J201" s="48" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="48" t="s">
-        <v>468</v>
+        <v>600</v>
       </c>
       <c r="J202" s="48" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="203" spans="2:18">
@@ -12901,7 +12933,7 @@
         <v>329</v>
       </c>
       <c r="G203" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H203" s="38" t="s">
         <v>13</v>
@@ -12953,15 +12985,15 @@
       <c r="G205" s="38"/>
       <c r="H205" s="38"/>
       <c r="J205" s="55" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="206" spans="2:18" ht="15">
       <c r="B206" s="55" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C206" s="55" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D206" s="61" t="s">
         <v>303</v>
@@ -12975,12 +13007,12 @@
         <v>279</v>
       </c>
       <c r="J206" s="55" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="207" spans="2:18" ht="15">
       <c r="B207" s="62" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C207" s="55" t="s">
         <v>242</v>
@@ -12997,15 +13029,15 @@
         <v>267</v>
       </c>
       <c r="J207" s="62" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="208" spans="2:18">
       <c r="B208" s="55" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C208" s="51" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D208" s="55" t="s">
         <v>339</v>
@@ -13019,12 +13051,12 @@
         <v>280</v>
       </c>
       <c r="J208" s="55" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="2:22">
       <c r="B209" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C209" s="39" t="s">
         <v>273</v>
@@ -13039,18 +13071,18 @@
       <c r="G209" s="38"/>
       <c r="H209" s="40"/>
       <c r="J209" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="210" spans="2:22">
       <c r="B210" s="51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C210" s="39" t="s">
         <v>286</v>
       </c>
       <c r="D210" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E210" s="55" t="s">
         <v>305</v>
@@ -13059,18 +13091,18 @@
       <c r="G210" s="38"/>
       <c r="H210" s="40"/>
       <c r="J210" s="51" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="211" spans="2:22">
       <c r="B211" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C211" s="39" t="s">
         <v>287</v>
       </c>
       <c r="D211" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E211" s="55" t="s">
         <v>305</v>
@@ -13079,18 +13111,18 @@
       <c r="G211" s="38"/>
       <c r="H211" s="38"/>
       <c r="J211" s="51" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="212" spans="2:22">
       <c r="B212" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C212" s="39" t="s">
         <v>288</v>
       </c>
       <c r="D212" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E212" s="55" t="s">
         <v>312</v>
@@ -13101,12 +13133,12 @@
         <v>265</v>
       </c>
       <c r="J212" s="51" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="213" spans="2:22">
       <c r="B213" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C213" s="39" t="s">
         <v>44</v>
@@ -13121,12 +13153,12 @@
       <c r="G213" s="55"/>
       <c r="H213" s="38"/>
       <c r="J213" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="214" spans="2:22">
       <c r="B214" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C214" s="39" t="s">
         <v>270</v>
@@ -13141,15 +13173,15 @@
       <c r="G214" s="38"/>
       <c r="H214" s="38"/>
       <c r="J214" s="51" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="215" spans="2:22">
       <c r="B215" s="51" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C215" s="51" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D215" s="55" t="s">
         <v>303</v>
@@ -13160,10 +13192,10 @@
       <c r="F215" s="55"/>
       <c r="G215" s="55"/>
       <c r="H215" s="56" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J215" s="51" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="K215" s="49"/>
       <c r="L215" s="49"/>
@@ -13180,7 +13212,7 @@
     </row>
     <row r="216" spans="2:22" ht="28.8">
       <c r="B216" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C216" s="39" t="s">
         <v>263</v>
@@ -13194,15 +13226,15 @@
       <c r="F216" s="38"/>
       <c r="G216" s="38"/>
       <c r="H216" s="56" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J216" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="217" spans="2:22">
       <c r="B217" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C217" s="39" t="s">
         <v>272</v>
@@ -13216,18 +13248,18 @@
       <c r="F217" s="38"/>
       <c r="G217" s="38"/>
       <c r="H217" s="55" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J217" s="55" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="218" spans="2:22">
       <c r="B218" s="55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C218" s="51" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D218" s="55" t="s">
         <v>303</v>
@@ -13239,12 +13271,12 @@
       <c r="G218" s="38"/>
       <c r="H218" s="38"/>
       <c r="J218" s="55" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="219" spans="2:22">
       <c r="B219" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C219" s="39" t="s">
         <v>271</v>
@@ -13259,12 +13291,12 @@
       <c r="G219" s="38"/>
       <c r="H219" s="38"/>
       <c r="J219" s="55" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="220" spans="2:22">
       <c r="B220" s="55" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C220" s="39" t="s">
         <v>283</v>
@@ -13279,12 +13311,12 @@
       <c r="G220" s="38"/>
       <c r="H220" s="40"/>
       <c r="J220" s="55" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="221" spans="2:22">
       <c r="B221" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C221" s="39" t="s">
         <v>284</v>
@@ -13299,12 +13331,12 @@
       <c r="G221" s="38"/>
       <c r="H221" s="38"/>
       <c r="J221" s="55" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="222" spans="2:22">
       <c r="B222" s="55" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C222" s="39" t="s">
         <v>266</v>
@@ -13319,12 +13351,12 @@
       <c r="G222" s="38"/>
       <c r="H222" s="38"/>
       <c r="J222" s="55" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="223" spans="2:22" ht="28.8">
       <c r="B223" s="55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C223" s="39" t="s">
         <v>285</v>
@@ -13341,12 +13373,12 @@
         <v>289</v>
       </c>
       <c r="J223" s="55" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="224" spans="2:22">
       <c r="B224" s="51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C224" s="39" t="s">
         <v>268</v>
@@ -13361,15 +13393,15 @@
       <c r="G224" s="38"/>
       <c r="H224" s="38"/>
       <c r="J224" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="225" spans="2:19">
       <c r="B225" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C225" s="39" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D225" s="55" t="s">
         <v>303</v>
@@ -13381,7 +13413,7 @@
       <c r="G225" s="38"/>
       <c r="H225" s="38"/>
       <c r="J225" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="226" spans="2:19">
@@ -13401,7 +13433,7 @@
       <c r="G226" s="55"/>
       <c r="H226" s="55"/>
       <c r="J226" s="51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="227" spans="2:19">
@@ -13423,7 +13455,7 @@
         <v>327</v>
       </c>
       <c r="J227" s="51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="228" spans="2:19">
@@ -13486,18 +13518,18 @@
     </row>
     <row r="233" spans="2:19">
       <c r="B233" s="48" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J233" s="48" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="234" spans="2:19">
       <c r="B234" s="48" t="s">
-        <v>469</v>
+        <v>601</v>
       </c>
       <c r="J234" s="48" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="235" spans="2:19">
@@ -13517,7 +13549,7 @@
         <v>329</v>
       </c>
       <c r="G235" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H235" s="38" t="s">
         <v>13</v>
@@ -13554,7 +13586,7 @@
     </row>
     <row r="237" spans="2:19" ht="15">
       <c r="B237" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C237" s="55" t="s">
         <v>247</v>
@@ -13569,7 +13601,7 @@
       <c r="G237" s="38"/>
       <c r="H237" s="38"/>
       <c r="J237" s="55" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="238" spans="2:19" ht="15">
@@ -13589,15 +13621,15 @@
       <c r="G238" s="38"/>
       <c r="H238" s="38"/>
       <c r="J238" s="55" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239" spans="2:19" ht="15">
       <c r="B239" s="55" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C239" s="51" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D239" s="61" t="s">
         <v>303</v>
@@ -13609,7 +13641,7 @@
       <c r="G239" s="38"/>
       <c r="H239" s="38"/>
       <c r="J239" s="55" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K239" s="64"/>
       <c r="L239" s="64"/>
@@ -13623,7 +13655,7 @@
     </row>
     <row r="240" spans="2:19" ht="15">
       <c r="B240" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C240" s="51" t="s">
         <v>270</v>
@@ -13640,18 +13672,18 @@
         <v>63</v>
       </c>
       <c r="J240" s="51" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="241" spans="2:21">
       <c r="B241" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C241" s="39" t="s">
         <v>293</v>
       </c>
       <c r="D241" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E241" s="55" t="s">
         <v>314</v>
@@ -13660,7 +13692,7 @@
       <c r="G241" s="38"/>
       <c r="H241" s="38"/>
       <c r="J241" s="55" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="K241" s="49"/>
       <c r="L241" s="49"/>
@@ -13676,7 +13708,7 @@
     </row>
     <row r="242" spans="2:21">
       <c r="B242" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C242" s="39" t="s">
         <v>300</v>
@@ -13691,7 +13723,7 @@
       <c r="G242" s="38"/>
       <c r="H242" s="38"/>
       <c r="J242" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K242" s="49"/>
       <c r="L242" s="49"/>
@@ -13707,13 +13739,13 @@
     </row>
     <row r="243" spans="2:21">
       <c r="B243" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C243" s="51" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D243" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E243" s="55" t="s">
         <v>305</v>
@@ -13722,18 +13754,18 @@
       <c r="G243" s="38"/>
       <c r="H243" s="38"/>
       <c r="J243" s="51" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="244" spans="2:21">
       <c r="B244" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C244" s="51" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D244" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E244" s="55" t="s">
         <v>312</v>
@@ -13742,12 +13774,12 @@
       <c r="G244" s="38"/>
       <c r="H244" s="38"/>
       <c r="J244" s="51" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="245" spans="2:21" ht="15">
       <c r="B245" s="51" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C245" s="39" t="s">
         <v>278</v>
@@ -13762,7 +13794,7 @@
       <c r="G245" s="38"/>
       <c r="H245" s="38"/>
       <c r="J245" s="51" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="K245" s="49"/>
       <c r="L245" s="49"/>
@@ -13778,7 +13810,7 @@
     </row>
     <row r="246" spans="2:21">
       <c r="B246" s="51" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C246" s="51" t="s">
         <v>291</v>
@@ -13793,7 +13825,7 @@
       <c r="G246" s="38"/>
       <c r="H246" s="38"/>
       <c r="J246" s="51" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="K246" s="49"/>
       <c r="L246" s="49"/>
@@ -13809,7 +13841,7 @@
     </row>
     <row r="247" spans="2:21">
       <c r="B247" s="51" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C247" s="39" t="s">
         <v>292</v>
@@ -13824,12 +13856,12 @@
       <c r="G247" s="38"/>
       <c r="H247" s="38"/>
       <c r="J247" s="51" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="248" spans="2:21">
       <c r="B248" s="51" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C248" s="39" t="s">
         <v>294</v>
@@ -13844,7 +13876,7 @@
       <c r="G248" s="38"/>
       <c r="H248" s="38"/>
       <c r="J248" s="51" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="249" spans="2:21" ht="15">
@@ -13863,7 +13895,7 @@
       <c r="F249" s="38"/>
       <c r="G249" s="38"/>
       <c r="H249" s="56" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="J249" s="55" t="s">
         <v>347</v>
@@ -13871,7 +13903,7 @@
     </row>
     <row r="250" spans="2:21">
       <c r="B250" s="51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C250" s="39" t="s">
         <v>268</v>
@@ -13886,15 +13918,15 @@
       <c r="G250" s="38"/>
       <c r="H250" s="38"/>
       <c r="J250" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="251" spans="2:21">
       <c r="B251" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D251" s="55" t="s">
         <v>303</v>
@@ -13906,7 +13938,7 @@
       <c r="G251" s="38"/>
       <c r="H251" s="38"/>
       <c r="J251" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="252" spans="2:21">
@@ -13926,7 +13958,7 @@
       <c r="G252" s="55"/>
       <c r="H252" s="55"/>
       <c r="J252" s="51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="253" spans="2:21">
@@ -13948,7 +13980,7 @@
         <v>327</v>
       </c>
       <c r="J253" s="51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="254" spans="2:21">
@@ -14019,10 +14051,10 @@
     </row>
     <row r="260" spans="2:18">
       <c r="B260" s="48" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J260" s="48" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="261" spans="2:18">
@@ -14042,7 +14074,7 @@
         <v>329</v>
       </c>
       <c r="G261" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H261" s="38" t="s">
         <v>13</v>
@@ -14079,7 +14111,7 @@
     </row>
     <row r="263" spans="2:18" ht="15">
       <c r="B263" s="55" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C263" s="55" t="s">
         <v>191</v>
@@ -14093,18 +14125,18 @@
       <c r="F263" s="38"/>
       <c r="G263" s="38"/>
       <c r="H263" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J263" s="55" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="264" spans="2:18">
       <c r="B264" s="55" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C264" s="51" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D264" s="55" t="s">
         <v>339</v>
@@ -14115,15 +14147,15 @@
       <c r="F264" s="38"/>
       <c r="G264" s="38"/>
       <c r="H264" s="55" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J264" s="55" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="265" spans="2:18">
       <c r="B265" s="51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C265" s="39" t="s">
         <v>275</v>
@@ -14138,12 +14170,12 @@
       <c r="G265" s="38"/>
       <c r="H265" s="40"/>
       <c r="J265" s="51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="266" spans="2:18" ht="43.2">
       <c r="B266" s="51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C266" s="39" t="s">
         <v>276</v>
@@ -14157,15 +14189,15 @@
       <c r="F266" s="38"/>
       <c r="G266" s="38"/>
       <c r="H266" s="56" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="J266" s="51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="267" spans="2:18" ht="15">
       <c r="B267" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C267" s="51" t="s">
         <v>263</v>
@@ -14179,16 +14211,16 @@
       <c r="F267" s="38"/>
       <c r="G267" s="38"/>
       <c r="H267" s="56" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="J267" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K267" s="48"/>
     </row>
     <row r="268" spans="2:18">
       <c r="B268" s="51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C268" s="39" t="s">
         <v>268</v>
@@ -14203,15 +14235,15 @@
       <c r="G268" s="38"/>
       <c r="H268" s="38"/>
       <c r="J268" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="269" spans="2:18">
       <c r="B269" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C269" s="39" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D269" s="55" t="s">
         <v>303</v>
@@ -14223,7 +14255,7 @@
       <c r="G269" s="38"/>
       <c r="H269" s="38"/>
       <c r="J269" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="270" spans="2:18">
@@ -14243,7 +14275,7 @@
       <c r="G270" s="55"/>
       <c r="H270" s="55"/>
       <c r="J270" s="51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="271" spans="2:18">
@@ -14265,7 +14297,7 @@
         <v>327</v>
       </c>
       <c r="J271" s="51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="272" spans="2:18">
@@ -14316,10 +14348,10 @@
     </row>
     <row r="278" spans="2:11">
       <c r="B278" s="48" t="s">
-        <v>471</v>
+        <v>602</v>
       </c>
       <c r="J278" s="48" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="279" spans="2:11">
@@ -14339,7 +14371,7 @@
         <v>329</v>
       </c>
       <c r="G279" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H279" s="38" t="s">
         <v>13</v>
@@ -14353,7 +14385,7 @@
         <v>349</v>
       </c>
       <c r="C280" s="55" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D280" s="61" t="s">
         <v>303</v>
@@ -14376,7 +14408,7 @@
     </row>
     <row r="281" spans="2:11" ht="15">
       <c r="B281" s="62" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C281" s="55" t="s">
         <v>242</v>
@@ -14391,15 +14423,15 @@
       <c r="G281" s="38"/>
       <c r="H281" s="38"/>
       <c r="J281" s="62" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="282" spans="2:11" ht="15">
       <c r="B282" s="55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C282" s="55" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D282" s="61" t="s">
         <v>303</v>
@@ -14411,12 +14443,12 @@
       <c r="G282" s="38"/>
       <c r="H282" s="38"/>
       <c r="J282" s="55" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="283" spans="2:11">
       <c r="B283" s="51" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C283" s="39" t="s">
         <v>275</v>
@@ -14431,12 +14463,12 @@
       <c r="G283" s="38"/>
       <c r="H283" s="40"/>
       <c r="J283" s="51" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="284" spans="2:11" ht="28.8">
       <c r="B284" s="51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C284" s="39" t="s">
         <v>276</v>
@@ -14450,15 +14482,15 @@
       <c r="F284" s="38"/>
       <c r="G284" s="38"/>
       <c r="H284" s="56" t="s">
-        <v>419</v>
+        <v>598</v>
       </c>
       <c r="J284" s="51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="285" spans="2:11" ht="15">
       <c r="B285" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C285" s="51" t="s">
         <v>263</v>
@@ -14472,16 +14504,16 @@
       <c r="F285" s="38"/>
       <c r="G285" s="38"/>
       <c r="H285" s="56" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="J285" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K285" s="48"/>
     </row>
     <row r="286" spans="2:11">
       <c r="B286" s="51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C286" s="39" t="s">
         <v>268</v>
@@ -14496,15 +14528,15 @@
       <c r="G286" s="38"/>
       <c r="H286" s="38"/>
       <c r="J286" s="51" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="287" spans="2:11">
       <c r="B287" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C287" s="39" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D287" s="55" t="s">
         <v>303</v>
@@ -14516,7 +14548,7 @@
       <c r="G287" s="38"/>
       <c r="H287" s="38"/>
       <c r="J287" s="51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="288" spans="2:11">
@@ -14536,7 +14568,7 @@
       <c r="G288" s="55"/>
       <c r="H288" s="55"/>
       <c r="J288" s="51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="289" spans="2:18">
@@ -14558,7 +14590,7 @@
         <v>327</v>
       </c>
       <c r="J289" s="51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="290" spans="2:18">
@@ -14632,12 +14664,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="48" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="48" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -14657,7 +14689,7 @@
         <v>329</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>13</v>
@@ -14691,7 +14723,7 @@
         <v>239</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>303</v>
@@ -14702,7 +14734,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="56" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -14710,7 +14742,7 @@
         <v>257</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>308</v>
@@ -14729,7 +14761,7 @@
         <v>258</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>308</v>
@@ -14745,10 +14777,10 @@
     </row>
     <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="51" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C8" s="61" t="s">
         <v>303</v>
@@ -14759,7 +14791,7 @@
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="56" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -14767,7 +14799,7 @@
         <v>260</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>303</v>
@@ -14776,7 +14808,7 @@
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="56" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/doc/需求讨论_表定义.xlsx
+++ b/doc/需求讨论_表定义.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="642">
   <si>
     <t>1 我的想法是抛开你这个表的情况，先以你为维度登记处理下整个的贷款周期内的各种事情，比如合同登记、放款、还款、逾期、提前还款等等</t>
   </si>
@@ -1752,7 +1752,35 @@
   </si>
   <si>
     <r>
-      <t>首期:1,</t>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en_number</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本金:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,</t>
     </r>
     <r>
       <rPr>
@@ -1762,7 +1790,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>按期</t>
+      <t>未还金额</t>
     </r>
     <r>
       <rPr>
@@ -1779,9 +1807,6 @@
   </si>
   <si>
     <r>
-      <t>p</t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1790,13 +1815,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>en_number</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>本金:</t>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>epay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_type</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>等额本息:</t>
     </r>
     <r>
       <rPr>
@@ -1817,7 +1863,701 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>未还金额</t>
+      <t>等额本金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+先息后本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先息后本（上交息）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一次性还本付息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:5</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oan_type</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>create_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_at</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为当前系统时间</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为主键</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleid</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:身份证,2:护照,3:营业执照,4:组织机构代
+码,5:统一社会信用代码</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:男,2:女</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tatus</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ype</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>抵押:1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:2,3:其他</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>抵押:1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:2,其他:3</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ate</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>egin_date</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd_date</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>pen_rate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>term_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lending_date</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lending_amt</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lending_acct</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_date</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>默认为0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.00</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd_date</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>paid_pen</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>应还利息</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>应还本金</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>paid_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schd_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收服务费</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schd_serv_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schd_pen</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>paid_serv_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>wav_amt</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>extension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_no</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension_rate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司卡账户,融资账户,借款人账
+户,代偿账户,暂收,暂付</t>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_acct_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctd_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctd_serv_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctd_pen</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期罚息累计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收服务费累计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_paid_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_paid_serv_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_paid_pen</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_wav_amt</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借据编号,融资编号,收支编号，入账编号，
+出账编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucher_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>amt</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>bal_dir</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>available_b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alance</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>acct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_type</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>公司卡账户:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,融资账户</t>
     </r>
     <r>
       <rPr>
@@ -1830,9 +2570,17 @@
       </rPr>
       <t>:2</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,借款人账
+户</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1842,7 +2590,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>r</t>
+      <t>:3</t>
     </r>
     <r>
       <rPr>
@@ -1852,7 +2600,789 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>epay</t>
+      <t>,代偿账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:4,往来户:5</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果是融资账户指的是用户编号
+如果是公司卡账户，为1
+如果是借款人账户，指的是客户编号
+如果是代偿账户，为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+如果是暂收暂付账户，为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze_balance</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可透支:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,不可透支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_acct_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个月的第几天</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资信息表（描述融资的融资信息）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dd_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd_prin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mt</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>出账账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_paid_bigint</t>
+  </si>
+  <si>
+    <t>ctd_bigint</t>
+  </si>
+  <si>
+    <t>paid_bigint</t>
+  </si>
+  <si>
+    <t>tot_schd_bigint</t>
+  </si>
+  <si>
+    <t>chd_bigint</t>
+  </si>
+  <si>
+    <t>用户信息表（描述使用系统的用户信息，可以是操作人,也可以是融资用户）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（描述的是借款人信息）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>借据表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（借款具体信息，描述具体的借款情况，整个借款的生命周期中，主要变更这个表）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>借据凭证信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（描述的是贷款的原始凭证信息）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>还款计划表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（客户的还款计划信息，根据借据的期数，生成多条记录）</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表（借款人,融资,公司卡账户）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_acct</t>
+  </si>
+  <si>
+    <t>回款计划表（描述融资的回款计划信息）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期开始日期</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期结束日期</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>期数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>展期期数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期期数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle_interval</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期间隔</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>一期的天数，默认是30天</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资人出款账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>指的是从外部那个银行卡出入的,标记</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>指的是从哪个公司卡账户出入钱</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>invest_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借据编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>external_acct</t>
+  </si>
+  <si>
+    <t>external_acct</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个用户可以指定多个公司</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自增</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_sys_user</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_product_info</t>
+  </si>
+  <si>
+    <t>t_biz_customer_info</t>
+  </si>
+  <si>
+    <t>t_biz_loan_info</t>
+  </si>
+  <si>
+    <t>t_biz_loan_voucher_info</t>
+  </si>
+  <si>
+    <t>t_biz_repay_plan</t>
+  </si>
+  <si>
+    <t>t_biz_acct_record</t>
+  </si>
+  <si>
+    <t>t_biz_acct</t>
+  </si>
+  <si>
+    <t>t_biz_in_out_voucher_info</t>
+  </si>
+  <si>
+    <r>
+      <t>首期:1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:是,0:否</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作员,超级管理员,
+一个用户可以指定多个角色</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户状态</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效:1,冻结:2,止用:3</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>cert_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>正常:1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:2,删除:3</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_by</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改操作员</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>modified_by</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>createAt</t>
+  </si>
+  <si>
+    <t>updateAt</t>
+  </si>
+  <si>
+    <t>externalAcct</t>
+  </si>
+  <si>
+    <t>wavAmt</t>
+  </si>
+  <si>
+    <t>createBy</t>
+  </si>
+  <si>
+    <t>modifiedBy</t>
+  </si>
+  <si>
+    <t>ctdBigint</t>
+  </si>
+  <si>
+    <t>paidBigint</t>
+  </si>
+  <si>
+    <t>chdBigint</t>
+  </si>
+  <si>
+    <t>acctDate</t>
+  </si>
+  <si>
+    <t>beginDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>ddDate</t>
+  </si>
+  <si>
+    <t>balDir</t>
+  </si>
+  <si>
+    <t>cycleInterval</t>
+  </si>
+  <si>
+    <t>orgNo</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>penNumber</t>
+  </si>
+  <si>
+    <t>productNo</t>
+  </si>
+  <si>
+    <t>custNo</t>
+  </si>
+  <si>
+    <t>termNo</t>
+  </si>
+  <si>
+    <t>extensionNo</t>
+  </si>
+  <si>
+    <t>loanNo</t>
+  </si>
+  <si>
+    <t>ddNum</t>
+  </si>
+  <si>
+    <t>inAcctNo</t>
+  </si>
+  <si>
+    <t>groupNo</t>
+  </si>
+  <si>
+    <t>voucherNo</t>
+  </si>
+  <si>
+    <t>acctNo</t>
+  </si>
+  <si>
+    <t>userNo</t>
+  </si>
+  <si>
+    <t>investNo</t>
+  </si>
+  <si>
+    <t>outAcctNo</t>
+  </si>
+  <si>
+    <t>isPen</t>
+  </si>
+  <si>
+    <t>schdPrin</t>
+  </si>
+  <si>
+    <t>schdPen</t>
+  </si>
+  <si>
+    <t>totPaidPrin</t>
+  </si>
+  <si>
+    <t>totPaidBigint</t>
+  </si>
+  <si>
+    <t>totPaidPen</t>
+  </si>
+  <si>
+    <t>ctdPrin</t>
+  </si>
+  <si>
+    <t>ctdPen</t>
+  </si>
+  <si>
+    <t>paidPrin</t>
+  </si>
+  <si>
+    <t>paidPen</t>
+  </si>
+  <si>
+    <t>ddPrin</t>
+  </si>
+  <si>
+    <t>penRate</t>
+  </si>
+  <si>
+    <t>extensionRate</t>
+  </si>
+  <si>
+    <t>serviceFeeScale</t>
+  </si>
+  <si>
+    <t>schdServFee</t>
+  </si>
+  <si>
+    <t>totPaidServFee</t>
+  </si>
+  <si>
+    <t>ctdServFee</t>
+  </si>
+  <si>
+    <t>paidServFee</t>
+  </si>
+  <si>
+    <t>totSchdBigint</t>
+  </si>
+  <si>
+    <t>serviceFeeType</t>
+  </si>
+  <si>
+    <t>repayType</t>
+  </si>
+  <si>
+    <t>loanType</t>
+  </si>
+  <si>
+    <t>amtType</t>
+  </si>
+  <si>
+    <t>totWavAmt</t>
+  </si>
+  <si>
+    <t>TBizProductInfo</t>
+  </si>
+  <si>
+    <t>TBizCustomerInfo</t>
+  </si>
+  <si>
+    <t>TBizLoanInfo</t>
+  </si>
+  <si>
+    <t>TBizLoanVoucherInfo</t>
+  </si>
+  <si>
+    <t>TBizRepayPlan</t>
+  </si>
+  <si>
+    <t>TBizAcctRecord</t>
+  </si>
+  <si>
+    <t>TBizAcct</t>
+  </si>
+  <si>
+    <t>TBizInvestInfo</t>
+  </si>
+  <si>
+    <t>TBizInvestPlan</t>
+  </si>
+  <si>
+    <t>TBizInOutVoucherInfo</t>
+  </si>
+  <si>
+    <t>TBizTransferVoucherInfo</t>
+  </si>
+  <si>
+    <t>cert_type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>certType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tatus</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>balanceType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>acct</t>
     </r>
     <r>
       <rPr>
@@ -1868,8 +3398,12 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>等额本息:</t>
+    <t>type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可透支:</t>
     </r>
     <r>
       <rPr>
@@ -1880,7 +3414,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1,</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1890,7 +3424,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>等额本金</t>
+      <t>,不可透支</t>
     </r>
     <r>
       <rPr>
@@ -1901,18 +3435,67 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-先息后本</t>
+      <t>:2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资151开头,借款251开头</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资账户171开头,借款账户271开头,公司卡账户471开头,
+暂收371，暂付372，代偿370</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名称</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>availableBalance</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>freezeBalance</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:公司卡账户,2:融资账户,3:借款人账户,4:代偿账户,5:暂收,6:暂付</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:借款人账户,2:融资人账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资账户、借款人账户指的是客户编号
+如果是公司卡账户、代偿账户、暂收暂付账户，为15000000001</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借据状态</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>身份证:</t>
     </r>
     <r>
       <rPr>
@@ -1923,7 +3506,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:3,</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1933,7 +3516,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>先息后本（上交息）</t>
+      <t>,电子合同</t>
     </r>
     <r>
       <rPr>
@@ -1944,7 +3527,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:4,</t>
+      <t>:2</t>
     </r>
     <r>
       <rPr>
@@ -1954,7 +3537,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>一次性还本付息</t>
+      <t>,房本</t>
     </r>
     <r>
       <rPr>
@@ -1965,13 +3548,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:5</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
+      <t>:3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,解押手
+续</t>
     </r>
     <r>
       <rPr>
@@ -1982,13 +3570,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>oan_type</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>create_</t>
+      <t>:4</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款状态</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金:1,利息:2,罚息:3,服务费:4,活期利息:5,资金:6</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:放款,2:还款,3:服务费收取,4:服务费补偿,5:支出,6:融资,7:撤资,8:收入,9:资金登记,10:转账,11:提现,12:结转,13:代偿,14:提前还款</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中:0,成功:1,失败:2</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中:0,成功:1,失败:2</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般预算支出:1,办公支出:2,其他支出:3,股东分润:4,对公支出:5,对公收入:6,利息收入:7</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户调整:1,服务费补偿:2,融资人贴息:3,其他:4</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
     </r>
     <r>
       <rPr>
@@ -1999,196 +3623,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>at</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_at</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为当前系统时间</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为主键</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>varchar(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>128</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleid</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(32)</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:身份证,2:护照,3:营业执照,4:组织机构代
-码,5:统一社会信用代码</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>varchar(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:男,2:女</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>varchar(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tatus</t>
-    </r>
+      <t>mt_type</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_invest_info</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_invest_plan</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_transfer_voucher_info</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借据编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>certNo</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -2196,231 +3652,16 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ype</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>抵押:1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>网签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:2,3:其他</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>抵押:1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>网签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:2,其他:3</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ate</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>egin_date</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nd_date</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>pen_rate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>term_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>lending_date</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>lending_amt</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>lending_acct</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>acct_date</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>service_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>默认为0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.00</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd_date</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>paid_pen</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>应还利息</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>应还本金</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>paid_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>schd_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收服务费</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>schd_serv_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>schd_pen</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>paid_serv_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>wav_amt</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>extension</t>
+    <t>orgNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>contr</t>
     </r>
     <r>
       <rPr>
@@ -2436,117 +3677,104 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>extension_rate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司卡账户,融资账户,借款人账
-户,代偿账户,暂收,暂付</t>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_acct_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctd_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctd_serv_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctd_pen</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期罚息累计</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>已收服务费累计</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_paid_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_paid_serv_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_paid_pen</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_wav_amt</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>借据编号,融资编号,收支编号，入账编号，
-出账编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucher_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>amt</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>bal_dir</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>varchar(1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>available_b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alance</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>acct</t>
+    <t>productNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:登记,3:计息中,4:已延期,1:已撤资,2:已结转</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中:0,成功:1,失败:2</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:登记,8:已放款,12:还款中,11:已逾期,10:已展期,3:已结清,2:已代偿,1:已终止</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:待还,3:已还,4:已逾期,2:已代偿,1:已终止</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:未计息,3:已计息,2:已结息,1:已终止</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始合同编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctDate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginDate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款开始日期</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款结束日期</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收利息</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款日期</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款金额</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lendingAmt</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lendingAcct</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>externalAcct</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>约定还款日</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddDate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>extension</t>
     </r>
     <r>
       <rPr>
@@ -2557,13 +3785,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_type</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>公司卡账户:</t>
+      <t>_no</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>extensionNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款方式</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>service</t>
     </r>
     <r>
       <rPr>
@@ -2574,7 +3810,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -2584,7 +3820,86 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,融资账户</t>
+      <t>fee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_scale</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceFeeScale</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>repayType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPen</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>penRate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>penNumber</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lendingDate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>期数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>termNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceFee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceFeeType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费收取方式</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>首期:1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按期</t>
     </r>
     <r>
       <rPr>
@@ -2597,1302 +3912,30 @@
       </rPr>
       <t>:2</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,借款人账
-户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,代偿账户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:4,往来户:5</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>如果是融资账户指的是用户编号
-如果是公司卡账户，为1
-如果是借款人账户，指的是客户编号
-如果是代偿账户，为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-如果是暂收暂付账户，为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze_balance</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance_type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可透支:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,不可透支</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:2</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>in_acct_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个月的第几天</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资信息表（描述融资的融资信息）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>dd_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>num</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd_prin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mt</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>出账账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>acct_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive_bigint</t>
-  </si>
-  <si>
-    <t>schd_bigint</t>
-  </si>
-  <si>
-    <t>tot_paid_bigint</t>
-  </si>
-  <si>
-    <t>ctd_bigint</t>
-  </si>
-  <si>
-    <t>paid_bigint</t>
-  </si>
-  <si>
-    <t>tot_schd_bigint</t>
-  </si>
-  <si>
-    <t>chd_bigint</t>
-  </si>
-  <si>
-    <t>用户信息表（描述使用系统的用户信息，可以是操作人,也可以是融资用户）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>客户信息表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（描述的是借款人信息）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>借据表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（借款具体信息，描述具体的借款情况，整个借款的生命周期中，主要变更这个表）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>借据凭证信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（描述的是贷款的原始凭证信息）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>还款计划表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（客户的还款计划信息，根据借据的期数，生成多条记录）</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表（借款人,融资,公司卡账户）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_acct</t>
-  </si>
-  <si>
-    <t>回款计划表（描述融资的回款计划信息）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>本期开始日期</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>本期结束日期</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>期数</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>展期期数</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>延期期数</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>cycle_interval</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期间隔</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>一期的天数，默认是30天</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资人出款账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>指的是从外部那个银行卡出入的,标记</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>指的是从哪个公司卡账户出入钱</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>invest_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>借据编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>cust_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>external_acct</t>
-  </si>
-  <si>
-    <t>external_acct</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个用户可以指定多个公司</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否自增</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_sys_user</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_biz_product_info</t>
-  </si>
-  <si>
-    <t>t_biz_customer_info</t>
-  </si>
-  <si>
-    <t>t_biz_loan_info</t>
-  </si>
-  <si>
-    <t>t_biz_loan_voucher_info</t>
-  </si>
-  <si>
-    <t>t_biz_repay_plan</t>
-  </si>
-  <si>
-    <t>t_biz_acct_record</t>
-  </si>
-  <si>
-    <t>t_biz_acct</t>
-  </si>
-  <si>
-    <t>t_biz_in_out_voucher_info</t>
-  </si>
-  <si>
-    <r>
-      <t>首期:1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>按期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:2</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:是,0:否</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作员,超级管理员,
-一个用户可以指定多个角色</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效:1,冻结:2,止用:3</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件号码</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>cert_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户姓名</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>正常:1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黑名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:2,删除:3</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_by</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改操作员</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>modified_by</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>createAt</t>
-  </si>
-  <si>
-    <t>updateAt</t>
-  </si>
-  <si>
-    <t>externalAcct</t>
-  </si>
-  <si>
-    <t>wavAmt</t>
-  </si>
-  <si>
-    <t>createBy</t>
-  </si>
-  <si>
-    <t>modifiedBy</t>
-  </si>
-  <si>
-    <t>schdBigint</t>
-  </si>
-  <si>
-    <t>ctdBigint</t>
-  </si>
-  <si>
-    <t>paidBigint</t>
-  </si>
-  <si>
-    <t>chdBigint</t>
-  </si>
-  <si>
-    <t>acctDate</t>
-  </si>
-  <si>
-    <t>beginDate</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-  <si>
-    <t>ddDate</t>
-  </si>
-  <si>
-    <t>balDir</t>
-  </si>
-  <si>
-    <t>cycleInterval</t>
-  </si>
-  <si>
-    <t>orgNo</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>penNumber</t>
-  </si>
-  <si>
-    <t>productNo</t>
-  </si>
-  <si>
-    <t>custNo</t>
-  </si>
-  <si>
-    <t>termNo</t>
-  </si>
-  <si>
-    <t>extensionNo</t>
-  </si>
-  <si>
-    <t>loanNo</t>
-  </si>
-  <si>
-    <t>ddNum</t>
-  </si>
-  <si>
-    <t>inAcctNo</t>
-  </si>
-  <si>
-    <t>groupNo</t>
-  </si>
-  <si>
-    <t>voucherNo</t>
-  </si>
-  <si>
-    <t>acctNo</t>
-  </si>
-  <si>
-    <t>userNo</t>
-  </si>
-  <si>
-    <t>investNo</t>
-  </si>
-  <si>
-    <t>outAcctNo</t>
-  </si>
-  <si>
-    <t>isPen</t>
-  </si>
-  <si>
-    <t>schdPrin</t>
-  </si>
-  <si>
-    <t>schdPen</t>
-  </si>
-  <si>
-    <t>totPaidPrin</t>
-  </si>
-  <si>
-    <t>totPaidBigint</t>
-  </si>
-  <si>
-    <t>totPaidPen</t>
-  </si>
-  <si>
-    <t>ctdPrin</t>
-  </si>
-  <si>
-    <t>ctdPen</t>
-  </si>
-  <si>
-    <t>paidPrin</t>
-  </si>
-  <si>
-    <t>paidPen</t>
-  </si>
-  <si>
-    <t>ddPrin</t>
-  </si>
-  <si>
-    <t>penRate</t>
-  </si>
-  <si>
-    <t>extensionRate</t>
-  </si>
-  <si>
-    <t>serviceFeeScale</t>
-  </si>
-  <si>
-    <t>schdServFee</t>
-  </si>
-  <si>
-    <t>totPaidServFee</t>
-  </si>
-  <si>
-    <t>ctdServFee</t>
-  </si>
-  <si>
-    <t>paidServFee</t>
-  </si>
-  <si>
-    <t>totSchdBigint</t>
-  </si>
-  <si>
-    <t>serviceFeeType</t>
-  </si>
-  <si>
-    <t>repayType</t>
-  </si>
-  <si>
-    <t>loanType</t>
-  </si>
-  <si>
-    <t>amtType</t>
-  </si>
-  <si>
-    <t>totWavAmt</t>
-  </si>
-  <si>
-    <t>TBizProductInfo</t>
-  </si>
-  <si>
-    <t>TBizCustomerInfo</t>
-  </si>
-  <si>
-    <t>TBizLoanInfo</t>
-  </si>
-  <si>
-    <t>TBizLoanVoucherInfo</t>
-  </si>
-  <si>
-    <t>TBizRepayPlan</t>
-  </si>
-  <si>
-    <t>TBizAcctRecord</t>
-  </si>
-  <si>
-    <t>TBizAcct</t>
-  </si>
-  <si>
-    <t>TBizInvestInfo</t>
-  </si>
-  <si>
-    <t>TBizInvestPlan</t>
-  </si>
-  <si>
-    <t>TBizInOutVoucherInfo</t>
-  </si>
-  <si>
-    <t>TBizTransferVoucherInfo</t>
-  </si>
-  <si>
-    <t>cert_type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>certType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tatus</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>acctType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>balanceType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>acct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_type</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可透支:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,不可透支</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:2</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资151开头,借款251开头</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资账户171开头,借款账户271开头,公司卡账户471开头,
-暂收371，暂付372，代偿370</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名称</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>userNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>availableBalance</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>freezeBalance</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:公司卡账户,2:融资账户,3:借款人账户,4:代偿账户,5:暂收,6:暂付</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:借款人账户,2:融资人账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资账户、借款人账户指的是客户编号
-如果是公司卡账户、代偿账户、暂收暂付账户，为15000000001</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>借据状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>身份证:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,电子合同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,房本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,解押手
-续</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:4</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>本金:1,利息:2,罚息:3,服务费:4,活期利息:5,资金:6</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:放款,2:还款,3:服务费收取,4:服务费补偿,5:支出,6:融资,7:撤资,8:收入,9:资金登记,10:转账,11:提现,12:结转,13:代偿,14:提前还款</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理中:0,成功:1,失败:2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理中:0,成功:1,失败:2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般预算支出:1,办公支出:2,其他支出:3,股东分润:4,对公支出:5,对公收入:6,利息收入:7</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户调整:1,服务费补偿:2,融资人贴息:3,其他:4</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mt_type</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_biz_invest_info</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_biz_invest_plan</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_biz_transfer_voucher_info</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>借据编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>certNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>contr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_no</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>productNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:登记,3:计息中,4:已延期,1:已撤资,2:已结转</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理中:0,成功:1,失败:2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:登记,8:已放款,12:还款中,11:已逾期,10:已展期,3:已结清,2:已代偿,1:已终止</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:待还,3:已还,4:已逾期,2:已代偿,1:已终止</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:未计息,3:已计息,2:已结息,1:已终止</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>custNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>contrNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始合同编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>acctDate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginDate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>endDate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款开始日期</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款结束日期</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>本金</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收利息</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveBigint</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>termNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>放款日期</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>lendingDate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>放款金额</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>lendingAmt</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>lendingAcct</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>externalAcct</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceFeeType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceFee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>约定还款日</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddDate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>extension</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_no</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>extensionNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款方式</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_scale</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceFeeScale</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schd_interest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_paid_interest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_interest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>totPaidInterest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schdInterest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveInterest</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -8864,8 +8907,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:V292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8880,12 +8923,12 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="48" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="48" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -8902,10 +8945,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>13</v>
@@ -8913,7 +8956,7 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>239</v>
@@ -8931,7 +8974,7 @@
         <v>312</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -8942,7 +8985,7 @@
         <v>209</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E5" s="55" t="s">
         <v>303</v>
@@ -8950,18 +8993,18 @@
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E6" s="55" t="s">
         <v>303</v>
@@ -8972,13 +9015,13 @@
     </row>
     <row r="7" spans="2:8" ht="28.8">
       <c r="B7" s="55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>267</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E7" s="55" t="s">
         <v>303</v>
@@ -8986,12 +9029,12 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="56" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>266</v>
@@ -9008,13 +9051,13 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" s="55" t="s">
         <v>312</v>
@@ -9025,13 +9068,13 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>251</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E10" s="55" t="s">
         <v>310</v>
@@ -9039,18 +9082,18 @@
       <c r="F10" s="55"/>
       <c r="G10" s="55"/>
       <c r="H10" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C11" s="55" t="s">
         <v>241</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E11" s="55" t="s">
         <v>312</v>
@@ -9120,10 +9163,10 @@
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="48" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -9140,10 +9183,10 @@
         <v>12</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>13</v>
@@ -9154,7 +9197,7 @@
     </row>
     <row r="22" spans="2:22" ht="15">
       <c r="B22" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C22" s="55" t="s">
         <v>221</v>
@@ -9172,10 +9215,10 @@
         <v>312</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J22" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="2:22" ht="15">
@@ -9195,7 +9238,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="38"/>
       <c r="J23" s="38" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="2:22">
@@ -9215,7 +9258,7 @@
       <c r="G24" s="55"/>
       <c r="H24" s="38"/>
       <c r="J24" s="55" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K24" s="65"/>
       <c r="L24" s="65"/>
@@ -9230,7 +9273,7 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>24</v>
@@ -9247,7 +9290,7 @@
         <v>299</v>
       </c>
       <c r="J25" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K25" s="65"/>
       <c r="L25" s="65"/>
@@ -9279,7 +9322,7 @@
         <v>308</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
@@ -9308,10 +9351,10 @@
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
       <c r="H27" s="55" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -9326,7 +9369,7 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>218</v>
@@ -9343,7 +9386,7 @@
         <v>313</v>
       </c>
       <c r="J28" s="51" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -9372,10 +9415,10 @@
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J29" s="51" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
@@ -9390,7 +9433,7 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>279</v>
@@ -9404,10 +9447,10 @@
       <c r="F30" s="55"/>
       <c r="G30" s="55"/>
       <c r="H30" s="55" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
@@ -9422,7 +9465,7 @@
     </row>
     <row r="31" spans="2:22" ht="43.2">
       <c r="B31" s="51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C31" s="39" t="s">
         <v>25</v>
@@ -9436,10 +9479,10 @@
       <c r="F31" s="55"/>
       <c r="G31" s="55"/>
       <c r="H31" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
@@ -9456,7 +9499,7 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C32" s="51" t="s">
         <v>280</v>
@@ -9470,10 +9513,10 @@
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
       <c r="H32" s="56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
@@ -9490,10 +9533,10 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="51" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>301</v>
@@ -9504,10 +9547,10 @@
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
       <c r="H33" s="56" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J33" s="51" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
@@ -9524,7 +9567,7 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>266</v>
@@ -9539,15 +9582,15 @@
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="J34" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D35" s="55" t="s">
         <v>301</v>
@@ -9559,18 +9602,18 @@
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="J35" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E36" s="55" t="s">
         <v>312</v>
@@ -9579,18 +9622,18 @@
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
       <c r="J36" s="51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="2:22">
       <c r="B37" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C37" s="39" t="s">
         <v>251</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E37" s="55" t="s">
         <v>310</v>
@@ -9598,21 +9641,21 @@
       <c r="F37" s="55"/>
       <c r="G37" s="55"/>
       <c r="H37" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J37" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E38" s="55" t="s">
         <v>312</v>
@@ -9621,7 +9664,7 @@
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="J38" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K38" s="49"/>
       <c r="L38" s="50"/>
@@ -9656,18 +9699,18 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="48" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J41" s="48" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="48" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -9684,10 +9727,10 @@
         <v>12</v>
       </c>
       <c r="F43" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>13</v>
@@ -9698,10 +9741,10 @@
     </row>
     <row r="44" spans="2:22" ht="15">
       <c r="B44" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D44" s="60" t="s">
         <v>301</v>
@@ -9713,24 +9756,24 @@
         <v>312</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J44" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="55" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E45" s="55" t="s">
         <v>302</v>
@@ -9739,7 +9782,7 @@
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
       <c r="J45" s="55" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
@@ -9754,10 +9797,10 @@
     </row>
     <row r="46" spans="2:22" ht="28.8">
       <c r="B46" s="51" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D46" s="55" t="s">
         <v>301</v>
@@ -9768,21 +9811,21 @@
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J46" s="51" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="15.6">
       <c r="B47" s="51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E47" s="55" t="s">
         <v>302</v>
@@ -9791,7 +9834,7 @@
       <c r="G47" s="38"/>
       <c r="H47" s="40"/>
       <c r="J47" s="51" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="K47" s="49"/>
       <c r="L47" s="49"/>
@@ -9807,10 +9850,10 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D48" s="55" t="s">
         <v>301</v>
@@ -9821,10 +9864,10 @@
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
       <c r="H48" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J48" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
@@ -9840,67 +9883,67 @@
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="51" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
       <c r="J49" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="15.6">
       <c r="B50" s="51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
       <c r="J50" s="51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K50" s="48"/>
     </row>
     <row r="51" spans="2:18" ht="15.6">
       <c r="B51" s="51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
       <c r="J51" s="51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="2:18" ht="15.6">
       <c r="B52" s="51" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D52" s="55" t="s">
         <v>301</v>
@@ -9911,15 +9954,15 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J52" s="51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="15.6">
       <c r="B53" s="51" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>212</v>
@@ -9928,20 +9971,20 @@
         <v>301</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="55" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J53" s="51" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="2:18">
       <c r="B54" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>266</v>
@@ -9956,15 +9999,15 @@
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
       <c r="J54" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" spans="2:18">
       <c r="B55" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D55" s="55" t="s">
         <v>301</v>
@@ -9976,18 +10019,18 @@
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
       <c r="J55" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="2:18">
       <c r="B56" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C56" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E56" s="55" t="s">
         <v>310</v>
@@ -9996,18 +10039,18 @@
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
       <c r="J56" s="51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="2:18">
       <c r="B57" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C57" s="39" t="s">
         <v>251</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E57" s="55" t="s">
         <v>310</v>
@@ -10015,21 +10058,21 @@
       <c r="F57" s="55"/>
       <c r="G57" s="55"/>
       <c r="H57" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J57" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="2:18">
       <c r="B58" s="55" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E58" s="55" t="s">
         <v>310</v>
@@ -10038,7 +10081,7 @@
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
       <c r="J58" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K58" s="49"/>
       <c r="L58" s="50"/>
@@ -10051,18 +10094,18 @@
     </row>
     <row r="60" spans="2:18">
       <c r="B60" s="48" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J60" s="48" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="2:18">
       <c r="B61" s="48" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J61" s="48" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" spans="2:18">
@@ -10079,10 +10122,10 @@
         <v>12</v>
       </c>
       <c r="F62" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G62" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>13</v>
@@ -10093,10 +10136,10 @@
     </row>
     <row r="63" spans="2:18" ht="15">
       <c r="B63" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D63" s="61" t="s">
         <v>301</v>
@@ -10111,10 +10154,10 @@
         <v>312</v>
       </c>
       <c r="H63" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J63" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="2:18" ht="15">
@@ -10134,12 +10177,12 @@
       <c r="G64" s="55"/>
       <c r="H64" s="38"/>
       <c r="J64" s="55" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="15">
       <c r="B65" s="55" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C65" s="38" t="s">
         <v>221</v>
@@ -10154,15 +10197,15 @@
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
       <c r="J65" s="55" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="15">
       <c r="B66" s="55" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D66" s="61" t="s">
         <v>301</v>
@@ -10174,18 +10217,18 @@
       <c r="G66" s="55"/>
       <c r="H66" s="55"/>
       <c r="J66" s="55" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="51" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E67" s="55" t="s">
         <v>302</v>
@@ -10194,18 +10237,18 @@
       <c r="G67" s="38"/>
       <c r="H67" s="40"/>
       <c r="J67" s="51" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C68" s="39" t="s">
         <v>284</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E68" s="55" t="s">
         <v>303</v>
@@ -10214,18 +10257,18 @@
       <c r="G68" s="38"/>
       <c r="H68" s="40"/>
       <c r="J68" s="51" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E69" s="55" t="s">
         <v>303</v>
@@ -10234,18 +10277,18 @@
       <c r="G69" s="38"/>
       <c r="H69" s="38"/>
       <c r="J69" s="51" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E70" s="55" t="s">
         <v>310</v>
@@ -10254,15 +10297,15 @@
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="J70" s="51" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D71" s="55" t="s">
         <v>306</v>
@@ -10274,12 +10317,12 @@
       <c r="G71" s="55"/>
       <c r="H71" s="55"/>
       <c r="J71" s="51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C72" s="39" t="s">
         <v>50</v>
@@ -10293,18 +10336,18 @@
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
       <c r="H72" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J72" s="55" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="51" t="s">
-        <v>413</v>
+        <v>638</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D73" s="55" t="s">
         <v>306</v>
@@ -10316,15 +10359,15 @@
       <c r="G73" s="55"/>
       <c r="H73" s="38"/>
       <c r="J73" s="51" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>47</v>
+        <v>630</v>
       </c>
       <c r="D74" s="55" t="s">
         <v>301</v>
@@ -10336,18 +10379,18 @@
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
       <c r="J74" s="51" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E75" s="55" t="s">
         <v>310</v>
@@ -10356,15 +10399,15 @@
       <c r="G75" s="38"/>
       <c r="H75" s="38"/>
       <c r="J75" s="55" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D76" s="55" t="s">
         <v>306</v>
@@ -10376,12 +10419,12 @@
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
       <c r="J76" s="55" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="15">
       <c r="B77" s="55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C77" s="39" t="s">
         <v>253</v>
@@ -10398,18 +10441,18 @@
         <v>254</v>
       </c>
       <c r="J77" s="55" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="55" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D78" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E78" s="55" t="s">
         <v>312</v>
@@ -10420,12 +10463,12 @@
         <v>233</v>
       </c>
       <c r="J78" s="55" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C79" s="51" t="s">
         <v>280</v>
@@ -10439,18 +10482,18 @@
       <c r="F79" s="55"/>
       <c r="G79" s="55"/>
       <c r="H79" s="56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J79" s="51" t="s">
-        <v>535</v>
+        <v>622</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>44</v>
+        <v>628</v>
       </c>
       <c r="D80" s="55" t="s">
         <v>311</v>
@@ -10464,12 +10507,12 @@
         <v>299</v>
       </c>
       <c r="J80" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="2:20">
       <c r="B81" s="51" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>220</v>
@@ -10486,7 +10529,7 @@
         <v>308</v>
       </c>
       <c r="J81" s="51" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="K81" s="64"/>
       <c r="L81" s="64"/>
@@ -10504,7 +10547,7 @@
         <v>309</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>222</v>
+        <v>634</v>
       </c>
       <c r="D82" s="60" t="s">
         <v>301</v>
@@ -10515,18 +10558,18 @@
       <c r="F82" s="55"/>
       <c r="G82" s="55"/>
       <c r="H82" s="55" t="s">
-        <v>316</v>
+        <v>635</v>
       </c>
       <c r="J82" s="51" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="83" spans="2:20" ht="43.2">
       <c r="B83" s="51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D83" s="55" t="s">
         <v>301</v>
@@ -10537,10 +10580,10 @@
       <c r="F83" s="55"/>
       <c r="G83" s="55"/>
       <c r="H83" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J83" s="51" t="s">
-        <v>534</v>
+        <v>624</v>
       </c>
     </row>
     <row r="84" spans="2:20">
@@ -10562,12 +10605,12 @@
         <v>315</v>
       </c>
       <c r="J84" s="51" t="s">
-        <v>514</v>
+        <v>625</v>
       </c>
     </row>
     <row r="85" spans="2:20">
       <c r="B85" s="51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>218</v>
@@ -10584,12 +10627,12 @@
         <v>313</v>
       </c>
       <c r="J85" s="51" t="s">
-        <v>525</v>
+        <v>626</v>
       </c>
     </row>
     <row r="86" spans="2:20">
       <c r="B86" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C86" s="39" t="s">
         <v>279</v>
@@ -10603,18 +10646,18 @@
       <c r="F86" s="55"/>
       <c r="G86" s="55"/>
       <c r="H86" s="55" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J86" s="51" t="s">
-        <v>500</v>
+        <v>627</v>
       </c>
     </row>
     <row r="87" spans="2:20">
       <c r="B87" s="55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D87" s="55" t="s">
         <v>301</v>
@@ -10625,18 +10668,18 @@
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
       <c r="H87" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J87" s="55" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="88" spans="2:20">
       <c r="B88" s="55" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D88" s="55" t="s">
         <v>301</v>
@@ -10647,15 +10690,15 @@
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="55" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J88" s="55" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="2:20">
       <c r="B89" s="55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>215</v>
@@ -10670,15 +10713,15 @@
       <c r="G89" s="38"/>
       <c r="H89" s="38"/>
       <c r="J89" s="55" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="90" spans="2:20">
       <c r="B90" s="55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C90" s="51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D90" s="55" t="s">
         <v>306</v>
@@ -10690,15 +10733,15 @@
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
       <c r="J90" s="55" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="91" spans="2:20">
       <c r="B91" s="55" t="s">
-        <v>414</v>
+        <v>636</v>
       </c>
       <c r="C91" s="51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D91" s="55" t="s">
         <v>306</v>
@@ -10710,15 +10753,15 @@
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
       <c r="J91" s="55" t="s">
-        <v>488</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" spans="2:20">
       <c r="B92" s="55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D92" s="55" t="s">
         <v>306</v>
@@ -10730,15 +10773,15 @@
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
       <c r="J92" s="55" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="93" spans="2:20">
       <c r="B93" s="55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C93" s="51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D93" s="55" t="s">
         <v>306</v>
@@ -10750,12 +10793,12 @@
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
       <c r="J93" s="55" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="94" spans="2:20">
       <c r="B94" s="55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C94" s="39" t="s">
         <v>53</v>
@@ -10770,12 +10813,12 @@
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
       <c r="J94" s="55" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="95" spans="2:20">
       <c r="B95" s="55" t="s">
-        <v>415</v>
+        <v>637</v>
       </c>
       <c r="C95" s="39" t="s">
         <v>54</v>
@@ -10790,15 +10833,15 @@
       <c r="G95" s="38"/>
       <c r="H95" s="38"/>
       <c r="J95" s="55" t="s">
-        <v>518</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" spans="2:20">
       <c r="B96" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C96" s="55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D96" s="55" t="s">
         <v>306</v>
@@ -10810,12 +10853,12 @@
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
       <c r="J96" s="55" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="97" spans="2:18">
       <c r="B97" s="55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C97" s="55" t="s">
         <v>226</v>
@@ -10830,12 +10873,12 @@
       <c r="G97" s="38"/>
       <c r="H97" s="38"/>
       <c r="J97" s="55" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="98" spans="2:18">
       <c r="B98" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C98" s="38" t="s">
         <v>227</v>
@@ -10850,15 +10893,15 @@
       <c r="G98" s="38"/>
       <c r="H98" s="38"/>
       <c r="J98" s="55" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="99" spans="2:18" ht="46.8" customHeight="1">
       <c r="B99" s="55" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D99" s="55" t="s">
         <v>301</v>
@@ -10869,15 +10912,15 @@
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
       <c r="H99" s="56" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="J99" s="55" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="2:18">
       <c r="B100" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C100" s="39" t="s">
         <v>266</v>
@@ -10892,15 +10935,15 @@
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
       <c r="J100" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="2:18">
       <c r="B101" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D101" s="55" t="s">
         <v>301</v>
@@ -10912,18 +10955,18 @@
       <c r="G101" s="38"/>
       <c r="H101" s="38"/>
       <c r="J101" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="2:18">
       <c r="B102" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C102" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D102" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E102" s="55" t="s">
         <v>310</v>
@@ -10932,18 +10975,18 @@
       <c r="G102" s="55"/>
       <c r="H102" s="55"/>
       <c r="J102" s="51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="103" spans="2:18">
       <c r="B103" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C103" s="39" t="s">
         <v>251</v>
       </c>
       <c r="D103" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E103" s="55" t="s">
         <v>310</v>
@@ -10951,21 +10994,21 @@
       <c r="F103" s="55"/>
       <c r="G103" s="55"/>
       <c r="H103" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J103" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="104" spans="2:18">
       <c r="B104" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C104" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E104" s="55" t="s">
         <v>310</v>
@@ -10974,7 +11017,7 @@
       <c r="G104" s="38"/>
       <c r="H104" s="38"/>
       <c r="J104" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K104" s="49"/>
       <c r="L104" s="50"/>
@@ -11027,7 +11070,7 @@
     </row>
     <row r="109" spans="2:18">
       <c r="B109" s="62" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
@@ -11035,12 +11078,12 @@
       <c r="G109" s="43"/>
       <c r="H109" s="44"/>
       <c r="J109" s="62" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="2:18">
       <c r="B110" s="62" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
@@ -11048,7 +11091,7 @@
       <c r="G110" s="43"/>
       <c r="H110" s="44"/>
       <c r="J110" s="62" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="111" spans="2:18">
@@ -11065,10 +11108,10 @@
         <v>12</v>
       </c>
       <c r="F111" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G111" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H111" s="38" t="s">
         <v>13</v>
@@ -11079,7 +11122,7 @@
     </row>
     <row r="112" spans="2:18" ht="15">
       <c r="B112" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C112" s="55" t="s">
         <v>248</v>
@@ -11097,15 +11140,15 @@
         <v>312</v>
       </c>
       <c r="H112" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J112" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="2:18" ht="15">
       <c r="B113" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>39</v>
@@ -11120,12 +11163,12 @@
       <c r="G113" s="38"/>
       <c r="H113" s="38"/>
       <c r="J113" s="55" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114" spans="2:18" ht="28.8">
       <c r="B114" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C114" s="39" t="s">
         <v>205</v>
@@ -11139,21 +11182,21 @@
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="56" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J114" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="2:18">
       <c r="B115" s="55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C115" s="39" t="s">
         <v>206</v>
       </c>
       <c r="D115" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E115" s="55" t="s">
         <v>312</v>
@@ -11162,12 +11205,12 @@
       <c r="G115" s="38"/>
       <c r="H115" s="40"/>
       <c r="J115" s="55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="116" spans="2:18">
       <c r="B116" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C116" s="39" t="s">
         <v>266</v>
@@ -11182,15 +11225,15 @@
       <c r="G116" s="38"/>
       <c r="H116" s="38"/>
       <c r="J116" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="2:18">
       <c r="B117" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D117" s="55" t="s">
         <v>301</v>
@@ -11202,18 +11245,18 @@
       <c r="G117" s="38"/>
       <c r="H117" s="38"/>
       <c r="J117" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="118" spans="2:18">
       <c r="B118" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C118" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D118" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E118" s="55" t="s">
         <v>310</v>
@@ -11222,18 +11265,18 @@
       <c r="G118" s="55"/>
       <c r="H118" s="55"/>
       <c r="J118" s="51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="119" spans="2:18">
       <c r="B119" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C119" s="39" t="s">
         <v>251</v>
       </c>
       <c r="D119" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E119" s="55" t="s">
         <v>310</v>
@@ -11241,21 +11284,21 @@
       <c r="F119" s="55"/>
       <c r="G119" s="55"/>
       <c r="H119" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J119" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="2:18">
       <c r="B120" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C120" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E120" s="55" t="s">
         <v>310</v>
@@ -11264,7 +11307,7 @@
       <c r="G120" s="38"/>
       <c r="H120" s="38"/>
       <c r="J120" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K120" s="49"/>
       <c r="L120" s="50"/>
@@ -11297,19 +11340,19 @@
     </row>
     <row r="125" spans="2:18">
       <c r="B125" s="48" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C125" s="48"/>
       <c r="J125" s="48" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="126" spans="2:18">
       <c r="B126" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J126" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="127" spans="2:18">
@@ -11326,10 +11369,10 @@
         <v>12</v>
       </c>
       <c r="F127" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G127" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H127" s="38" t="s">
         <v>13</v>
@@ -11340,7 +11383,7 @@
     </row>
     <row r="128" spans="2:18" ht="15">
       <c r="B128" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C128" s="38" t="s">
         <v>59</v>
@@ -11358,18 +11401,18 @@
         <v>312</v>
       </c>
       <c r="H128" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J128" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="129" spans="2:21" ht="15">
       <c r="B129" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C129" s="55" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D129" s="61" t="s">
         <v>301</v>
@@ -11381,7 +11424,7 @@
       <c r="G129" s="38"/>
       <c r="H129" s="38"/>
       <c r="J129" s="55" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="130" spans="2:21" ht="15">
@@ -11401,12 +11444,12 @@
       <c r="G130" s="38"/>
       <c r="H130" s="38"/>
       <c r="J130" s="55" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="2:21" ht="15">
       <c r="B131" s="55" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C131" s="39" t="s">
         <v>21</v>
@@ -11421,7 +11464,7 @@
       <c r="G131" s="38"/>
       <c r="H131" s="40"/>
       <c r="J131" s="55" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K131" s="65"/>
       <c r="L131" s="65"/>
@@ -11435,7 +11478,7 @@
     </row>
     <row r="132" spans="2:21" ht="15">
       <c r="B132" s="55" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C132" s="39" t="s">
         <v>28</v>
@@ -11450,7 +11493,7 @@
       <c r="G132" s="38"/>
       <c r="H132" s="38"/>
       <c r="J132" s="55" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K132" s="65"/>
       <c r="L132" s="65"/>
@@ -11464,13 +11507,13 @@
     </row>
     <row r="133" spans="2:21">
       <c r="B133" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C133" s="39" t="s">
         <v>284</v>
       </c>
       <c r="D133" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E133" s="55" t="s">
         <v>303</v>
@@ -11479,12 +11522,12 @@
       <c r="G133" s="38"/>
       <c r="H133" s="40"/>
       <c r="J133" s="51" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="2:21" ht="15">
       <c r="B134" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C134" s="51" t="s">
         <v>268</v>
@@ -11501,12 +11544,12 @@
         <v>63</v>
       </c>
       <c r="J134" s="51" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="135" spans="2:21">
       <c r="B135" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C135" s="39" t="s">
         <v>298</v>
@@ -11521,7 +11564,7 @@
       <c r="G135" s="38"/>
       <c r="H135" s="38"/>
       <c r="J135" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K135" s="49"/>
       <c r="L135" s="49"/>
@@ -11537,13 +11580,13 @@
     </row>
     <row r="136" spans="2:21">
       <c r="B136" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D136" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E136" s="55" t="s">
         <v>303</v>
@@ -11552,18 +11595,18 @@
       <c r="G136" s="38"/>
       <c r="H136" s="38"/>
       <c r="J136" s="51" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="2:21">
       <c r="B137" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D137" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E137" s="55" t="s">
         <v>310</v>
@@ -11572,12 +11615,12 @@
       <c r="G137" s="38"/>
       <c r="H137" s="38"/>
       <c r="J137" s="51" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="2:21" ht="15">
       <c r="B138" s="51" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C138" s="39" t="s">
         <v>276</v>
@@ -11592,7 +11635,7 @@
       <c r="G138" s="38"/>
       <c r="H138" s="38"/>
       <c r="J138" s="51" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K138" s="49"/>
       <c r="L138" s="49"/>
@@ -11608,13 +11651,13 @@
     </row>
     <row r="139" spans="2:21">
       <c r="B139" s="55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C139" s="39" t="s">
         <v>288</v>
       </c>
       <c r="D139" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E139" s="55" t="s">
         <v>312</v>
@@ -11623,7 +11666,7 @@
       <c r="G139" s="38"/>
       <c r="H139" s="38"/>
       <c r="J139" s="55" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K139" s="49"/>
       <c r="L139" s="49"/>
@@ -11639,13 +11682,13 @@
     </row>
     <row r="140" spans="2:21">
       <c r="B140" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C140" s="39" t="s">
         <v>255</v>
       </c>
       <c r="D140" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E140" s="55" t="s">
         <v>312</v>
@@ -11656,7 +11699,7 @@
         <v>236</v>
       </c>
       <c r="J140" s="55" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K140" s="49"/>
       <c r="L140" s="49"/>
@@ -11672,7 +11715,7 @@
     </row>
     <row r="141" spans="2:21" ht="15">
       <c r="B141" s="55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C141" s="39" t="s">
         <v>242</v>
@@ -11689,7 +11732,7 @@
         <v>256</v>
       </c>
       <c r="J141" s="55" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K141" s="49"/>
       <c r="L141" s="49"/>
@@ -11705,7 +11748,7 @@
     </row>
     <row r="142" spans="2:21">
       <c r="B142" s="55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C142" s="39" t="s">
         <v>66</v>
@@ -11720,12 +11763,12 @@
       <c r="G142" s="38"/>
       <c r="H142" s="38"/>
       <c r="J142" s="55" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="143" spans="2:21">
       <c r="B143" s="55" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C143" s="39" t="s">
         <v>67</v>
@@ -11740,12 +11783,12 @@
       <c r="G143" s="38"/>
       <c r="H143" s="38"/>
       <c r="J143" s="55" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="144" spans="2:21">
       <c r="B144" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C144" s="39" t="s">
         <v>68</v>
@@ -11760,12 +11803,12 @@
       <c r="G144" s="38"/>
       <c r="H144" s="38"/>
       <c r="J144" s="55" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="145" spans="2:18">
       <c r="B145" s="55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C145" s="39" t="s">
         <v>69</v>
@@ -11780,12 +11823,12 @@
       <c r="G145" s="38"/>
       <c r="H145" s="38"/>
       <c r="J145" s="55" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="146" spans="2:18">
       <c r="B146" s="55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C146" s="39" t="s">
         <v>70</v>
@@ -11800,12 +11843,12 @@
       <c r="G146" s="38"/>
       <c r="H146" s="38"/>
       <c r="J146" s="55" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="147" spans="2:18">
       <c r="B147" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C147" s="39" t="s">
         <v>71</v>
@@ -11820,12 +11863,12 @@
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
       <c r="J147" s="55" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="148" spans="2:18">
       <c r="B148" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C148" s="39" t="s">
         <v>72</v>
@@ -11840,12 +11883,12 @@
       <c r="G148" s="38"/>
       <c r="H148" s="38"/>
       <c r="J148" s="55" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149" spans="2:18">
       <c r="B149" s="55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C149" s="39" t="s">
         <v>73</v>
@@ -11860,12 +11903,12 @@
       <c r="G149" s="38"/>
       <c r="H149" s="38"/>
       <c r="J149" s="55" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="150" spans="2:18">
       <c r="B150" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C150" s="39" t="s">
         <v>225</v>
@@ -11880,15 +11923,15 @@
       <c r="G150" s="38"/>
       <c r="H150" s="38"/>
       <c r="J150" s="55" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151" spans="2:18" ht="28.8">
       <c r="B151" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C151" s="39" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D151" s="55" t="s">
         <v>301</v>
@@ -11899,15 +11942,15 @@
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
       <c r="H151" s="56" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="J151" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="152" spans="2:18">
       <c r="B152" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C152" s="39" t="s">
         <v>266</v>
@@ -11922,15 +11965,15 @@
       <c r="G152" s="38"/>
       <c r="H152" s="38"/>
       <c r="J152" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="153" spans="2:18">
       <c r="B153" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C153" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D153" s="55" t="s">
         <v>301</v>
@@ -11942,18 +11985,18 @@
       <c r="G153" s="38"/>
       <c r="H153" s="38"/>
       <c r="J153" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="154" spans="2:18">
       <c r="B154" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C154" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D154" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E154" s="55" t="s">
         <v>310</v>
@@ -11962,18 +12005,18 @@
       <c r="G154" s="55"/>
       <c r="H154" s="55"/>
       <c r="J154" s="51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="155" spans="2:18">
       <c r="B155" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C155" s="39" t="s">
         <v>251</v>
       </c>
       <c r="D155" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E155" s="55" t="s">
         <v>310</v>
@@ -11981,21 +12024,21 @@
       <c r="F155" s="55"/>
       <c r="G155" s="55"/>
       <c r="H155" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J155" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="2:18">
       <c r="B156" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C156" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E156" s="55" t="s">
         <v>310</v>
@@ -12004,7 +12047,7 @@
       <c r="G156" s="38"/>
       <c r="H156" s="38"/>
       <c r="J156" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K156" s="49"/>
       <c r="L156" s="50"/>
@@ -12025,10 +12068,10 @@
     </row>
     <row r="161" spans="2:18">
       <c r="B161" s="48" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J161" s="48" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="162" spans="2:18">
@@ -12045,10 +12088,10 @@
         <v>12</v>
       </c>
       <c r="F162" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G162" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H162" s="38" t="s">
         <v>13</v>
@@ -12059,7 +12102,7 @@
     </row>
     <row r="163" spans="2:18" ht="15">
       <c r="B163" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C163" s="38" t="s">
         <v>77</v>
@@ -12077,15 +12120,15 @@
         <v>312</v>
       </c>
       <c r="H163" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J163" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="164" spans="2:18" ht="15">
       <c r="B164" s="55" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C164" s="38" t="s">
         <v>275</v>
@@ -12100,7 +12143,7 @@
       <c r="G164" s="38"/>
       <c r="H164" s="38"/>
       <c r="J164" s="55" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="165" spans="2:18" ht="15">
@@ -12120,12 +12163,12 @@
       <c r="G165" s="38"/>
       <c r="H165" s="38"/>
       <c r="J165" s="55" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="2:18" ht="28.8">
       <c r="B166" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C166" s="39" t="s">
         <v>248</v>
@@ -12139,10 +12182,10 @@
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
       <c r="H166" s="56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J166" s="51" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K166" s="59"/>
       <c r="L166" s="59"/>
@@ -12155,7 +12198,7 @@
     </row>
     <row r="167" spans="2:18" ht="28.8">
       <c r="B167" s="52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C167" s="54" t="s">
         <v>191</v>
@@ -12169,18 +12212,18 @@
       <c r="F167" s="53"/>
       <c r="G167" s="53"/>
       <c r="H167" s="58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J167" s="52" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="168" spans="2:18" ht="69.599999999999994" customHeight="1">
       <c r="B168" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D168" s="61" t="s">
         <v>301</v>
@@ -12191,18 +12234,18 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
       <c r="H168" s="56" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="J168" s="55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="2:18" ht="28.8">
       <c r="B169" s="55" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D169" s="61" t="s">
         <v>301</v>
@@ -12213,21 +12256,21 @@
       <c r="F169" s="38"/>
       <c r="G169" s="38"/>
       <c r="H169" s="56" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J169" s="55" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="170" spans="2:18">
       <c r="B170" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C170" s="39" t="s">
         <v>284</v>
       </c>
       <c r="D170" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E170" s="55" t="s">
         <v>303</v>
@@ -12236,7 +12279,7 @@
       <c r="G170" s="38"/>
       <c r="H170" s="40"/>
       <c r="J170" s="51" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K170" s="59"/>
       <c r="L170" s="59"/>
@@ -12249,7 +12292,7 @@
     </row>
     <row r="171" spans="2:18">
       <c r="B171" s="51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C171" s="39" t="s">
         <v>250</v>
@@ -12264,7 +12307,7 @@
       <c r="G171" s="38"/>
       <c r="H171" s="38"/>
       <c r="J171" s="51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K171" s="49"/>
       <c r="L171" s="49"/>
@@ -12273,13 +12316,13 @@
     </row>
     <row r="172" spans="2:18" ht="28.8">
       <c r="B172" s="51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C172" s="51" t="s">
         <v>190</v>
       </c>
       <c r="D172" s="55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E172" s="55" t="s">
         <v>303</v>
@@ -12290,13 +12333,13 @@
         <v>249</v>
       </c>
       <c r="J172" s="51" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K172" s="48"/>
     </row>
     <row r="173" spans="2:18" ht="15">
       <c r="B173" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C173" s="51" t="s">
         <v>259</v>
@@ -12310,16 +12353,16 @@
       <c r="F173" s="38"/>
       <c r="G173" s="38"/>
       <c r="H173" s="56" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="J173" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K173" s="48"/>
     </row>
     <row r="174" spans="2:18">
       <c r="B174" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C174" s="39" t="s">
         <v>266</v>
@@ -12334,15 +12377,15 @@
       <c r="G174" s="38"/>
       <c r="H174" s="38"/>
       <c r="J174" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="175" spans="2:18">
       <c r="B175" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C175" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D175" s="55" t="s">
         <v>301</v>
@@ -12354,18 +12397,18 @@
       <c r="G175" s="38"/>
       <c r="H175" s="38"/>
       <c r="J175" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="176" spans="2:18">
       <c r="B176" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C176" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D176" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E176" s="55" t="s">
         <v>310</v>
@@ -12374,18 +12417,18 @@
       <c r="G176" s="55"/>
       <c r="H176" s="55"/>
       <c r="J176" s="51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" spans="2:18">
       <c r="B177" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C177" s="39" t="s">
         <v>251</v>
       </c>
       <c r="D177" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E177" s="55" t="s">
         <v>310</v>
@@ -12393,21 +12436,21 @@
       <c r="F177" s="55"/>
       <c r="G177" s="55"/>
       <c r="H177" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J177" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C178" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E178" s="55" t="s">
         <v>310</v>
@@ -12416,7 +12459,7 @@
       <c r="G178" s="38"/>
       <c r="H178" s="38"/>
       <c r="J178" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K178" s="49"/>
       <c r="L178" s="50"/>
@@ -12429,18 +12472,18 @@
     </row>
     <row r="181" spans="2:18">
       <c r="B181" s="48" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J181" s="48" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="48" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J182" s="48" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="183" spans="2:18">
@@ -12457,10 +12500,10 @@
         <v>12</v>
       </c>
       <c r="F183" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G183" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H183" s="38" t="s">
         <v>13</v>
@@ -12472,10 +12515,10 @@
     </row>
     <row r="184" spans="2:18" ht="43.2">
       <c r="B184" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C184" s="55" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D184" s="61" t="s">
         <v>301</v>
@@ -12487,18 +12530,18 @@
         <v>312</v>
       </c>
       <c r="G184" s="55" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H184" s="56" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J184" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="185" spans="2:18" ht="43.2">
       <c r="B185" s="55" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C185" s="38" t="s">
         <v>239</v>
@@ -12512,22 +12555,22 @@
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
       <c r="H185" s="56" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J185" s="55" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="K185" s="48"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="55" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D186" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E186" s="55" t="s">
         <v>302</v>
@@ -12536,13 +12579,13 @@
       <c r="G186" s="38"/>
       <c r="H186" s="40"/>
       <c r="J186" s="51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K186" s="48"/>
     </row>
     <row r="187" spans="2:18">
       <c r="B187" s="55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C187" s="51" t="s">
         <v>257</v>
@@ -12559,12 +12602,12 @@
         <v>308</v>
       </c>
       <c r="J187" s="55" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="188" spans="2:18">
       <c r="B188" s="55" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C188" s="51" t="s">
         <v>258</v>
@@ -12581,15 +12624,15 @@
         <v>308</v>
       </c>
       <c r="J188" s="55" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="28.8">
       <c r="B189" s="55" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C189" s="51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D189" s="61" t="s">
         <v>301</v>
@@ -12600,15 +12643,15 @@
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
       <c r="H189" s="56" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J189" s="55" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="190" spans="2:18" ht="15">
       <c r="B190" s="55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C190" s="51" t="s">
         <v>260</v>
@@ -12622,18 +12665,18 @@
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
       <c r="H190" s="56" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="J190" s="55" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="191" spans="2:18" ht="15">
       <c r="B191" s="55" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C191" s="51" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D191" s="61" t="s">
         <v>301</v>
@@ -12644,15 +12687,15 @@
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
       <c r="H191" s="56" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J191" s="55" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="192" spans="2:18">
       <c r="B192" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C192" s="39" t="s">
         <v>266</v>
@@ -12667,15 +12710,15 @@
       <c r="G192" s="38"/>
       <c r="H192" s="38"/>
       <c r="J192" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="193" spans="2:18">
       <c r="B193" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C193" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D193" s="55" t="s">
         <v>301</v>
@@ -12687,18 +12730,18 @@
       <c r="G193" s="38"/>
       <c r="H193" s="38"/>
       <c r="J193" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C194" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D194" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E194" s="55" t="s">
         <v>310</v>
@@ -12707,18 +12750,18 @@
       <c r="G194" s="55"/>
       <c r="H194" s="55"/>
       <c r="J194" s="51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="195" spans="2:18">
       <c r="B195" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C195" s="39" t="s">
         <v>251</v>
       </c>
       <c r="D195" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E195" s="55" t="s">
         <v>310</v>
@@ -12726,21 +12769,21 @@
       <c r="F195" s="55"/>
       <c r="G195" s="55"/>
       <c r="H195" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J195" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="196" spans="2:18">
       <c r="B196" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="C196" s="38" t="s">
+        <v>554</v>
+      </c>
+      <c r="D196" s="55" t="s">
         <v>329</v>
-      </c>
-      <c r="C196" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D196" s="55" t="s">
-        <v>330</v>
       </c>
       <c r="E196" s="55" t="s">
         <v>310</v>
@@ -12749,7 +12792,7 @@
       <c r="G196" s="38"/>
       <c r="H196" s="38"/>
       <c r="J196" s="55" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K196" s="49"/>
       <c r="L196" s="50"/>
@@ -12792,18 +12835,18 @@
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J202" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="203" spans="2:18">
       <c r="B203" s="48" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J203" s="48" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="204" spans="2:18">
@@ -12820,10 +12863,10 @@
         <v>12</v>
       </c>
       <c r="F204" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G204" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H204" s="38" t="s">
         <v>13</v>
@@ -12834,7 +12877,7 @@
     </row>
     <row r="205" spans="2:18" ht="15">
       <c r="B205" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C205" s="38" t="s">
         <v>247</v>
@@ -12852,10 +12895,10 @@
         <v>312</v>
       </c>
       <c r="H205" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J205" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="206" spans="2:18" ht="15">
@@ -12875,15 +12918,15 @@
       <c r="G206" s="38"/>
       <c r="H206" s="38"/>
       <c r="J206" s="55" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="207" spans="2:18" ht="15">
       <c r="B207" s="55" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C207" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D207" s="61" t="s">
         <v>301</v>
@@ -12897,12 +12940,12 @@
         <v>277</v>
       </c>
       <c r="J207" s="55" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="208" spans="2:18" ht="15">
       <c r="B208" s="62" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C208" s="55" t="s">
         <v>242</v>
@@ -12919,18 +12962,18 @@
         <v>265</v>
       </c>
       <c r="J208" s="62" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="209" spans="2:22">
       <c r="B209" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C209" s="51" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D209" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E209" s="55" t="s">
         <v>312</v>
@@ -12941,12 +12984,12 @@
         <v>278</v>
       </c>
       <c r="J209" s="55" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="210" spans="2:22">
       <c r="B210" s="51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C210" s="39" t="s">
         <v>271</v>
@@ -12961,18 +13004,18 @@
       <c r="G210" s="38"/>
       <c r="H210" s="40"/>
       <c r="J210" s="51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="211" spans="2:22">
       <c r="B211" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C211" s="39" t="s">
         <v>284</v>
       </c>
       <c r="D211" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E211" s="55" t="s">
         <v>303</v>
@@ -12981,18 +13024,18 @@
       <c r="G211" s="38"/>
       <c r="H211" s="40"/>
       <c r="J211" s="51" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="212" spans="2:22">
       <c r="B212" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C212" s="39" t="s">
         <v>285</v>
       </c>
       <c r="D212" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E212" s="55" t="s">
         <v>303</v>
@@ -13001,18 +13044,18 @@
       <c r="G212" s="38"/>
       <c r="H212" s="38"/>
       <c r="J212" s="51" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="213" spans="2:22">
       <c r="B213" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C213" s="39" t="s">
         <v>286</v>
       </c>
       <c r="D213" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E213" s="55" t="s">
         <v>310</v>
@@ -13023,12 +13066,12 @@
         <v>263</v>
       </c>
       <c r="J213" s="51" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="214" spans="2:22">
       <c r="B214" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C214" s="39" t="s">
         <v>44</v>
@@ -13043,12 +13086,12 @@
       <c r="G214" s="55"/>
       <c r="H214" s="38"/>
       <c r="J214" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="215" spans="2:22">
       <c r="B215" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C215" s="39" t="s">
         <v>268</v>
@@ -13063,15 +13106,15 @@
       <c r="G215" s="38"/>
       <c r="H215" s="38"/>
       <c r="J215" s="51" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="216" spans="2:22">
       <c r="B216" s="51" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C216" s="51" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D216" s="55" t="s">
         <v>301</v>
@@ -13082,10 +13125,10 @@
       <c r="F216" s="55"/>
       <c r="G216" s="55"/>
       <c r="H216" s="56" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J216" s="51" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K216" s="49"/>
       <c r="L216" s="49"/>
@@ -13102,7 +13145,7 @@
     </row>
     <row r="217" spans="2:22" ht="28.8">
       <c r="B217" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C217" s="39" t="s">
         <v>261</v>
@@ -13116,15 +13159,15 @@
       <c r="F217" s="38"/>
       <c r="G217" s="38"/>
       <c r="H217" s="56" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="J217" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="218" spans="2:22">
       <c r="B218" s="55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C218" s="39" t="s">
         <v>270</v>
@@ -13138,18 +13181,18 @@
       <c r="F218" s="38"/>
       <c r="G218" s="38"/>
       <c r="H218" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J218" s="55" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="2:22">
       <c r="B219" s="55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C219" s="51" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D219" s="55" t="s">
         <v>301</v>
@@ -13161,12 +13204,12 @@
       <c r="G219" s="38"/>
       <c r="H219" s="38"/>
       <c r="J219" s="55" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="2:22">
       <c r="B220" s="55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C220" s="39" t="s">
         <v>269</v>
@@ -13181,12 +13224,12 @@
       <c r="G220" s="38"/>
       <c r="H220" s="38"/>
       <c r="J220" s="55" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="221" spans="2:22">
       <c r="B221" s="55" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C221" s="39" t="s">
         <v>281</v>
@@ -13201,12 +13244,12 @@
       <c r="G221" s="38"/>
       <c r="H221" s="40"/>
       <c r="J221" s="55" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="222" spans="2:22">
       <c r="B222" s="55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C222" s="39" t="s">
         <v>282</v>
@@ -13221,12 +13264,12 @@
       <c r="G222" s="38"/>
       <c r="H222" s="38"/>
       <c r="J222" s="55" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="223" spans="2:22">
       <c r="B223" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C223" s="39" t="s">
         <v>264</v>
@@ -13241,12 +13284,12 @@
       <c r="G223" s="38"/>
       <c r="H223" s="38"/>
       <c r="J223" s="55" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="224" spans="2:22" ht="28.8">
       <c r="B224" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C224" s="39" t="s">
         <v>283</v>
@@ -13263,12 +13306,12 @@
         <v>287</v>
       </c>
       <c r="J224" s="55" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="225" spans="2:19">
       <c r="B225" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C225" s="39" t="s">
         <v>266</v>
@@ -13283,15 +13326,15 @@
       <c r="G225" s="38"/>
       <c r="H225" s="38"/>
       <c r="J225" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="226" spans="2:19">
       <c r="B226" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C226" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D226" s="55" t="s">
         <v>301</v>
@@ -13303,18 +13346,18 @@
       <c r="G226" s="38"/>
       <c r="H226" s="38"/>
       <c r="J226" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="227" spans="2:19">
       <c r="B227" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C227" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D227" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E227" s="55" t="s">
         <v>310</v>
@@ -13323,18 +13366,18 @@
       <c r="G227" s="55"/>
       <c r="H227" s="55"/>
       <c r="J227" s="51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="228" spans="2:19">
       <c r="B228" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C228" s="39" t="s">
         <v>251</v>
       </c>
       <c r="D228" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E228" s="55" t="s">
         <v>310</v>
@@ -13342,21 +13385,21 @@
       <c r="F228" s="55"/>
       <c r="G228" s="55"/>
       <c r="H228" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J228" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="229" spans="2:19">
       <c r="B229" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C229" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D229" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E229" s="55" t="s">
         <v>310</v>
@@ -13365,7 +13408,7 @@
       <c r="G229" s="38"/>
       <c r="H229" s="38"/>
       <c r="J229" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K229" s="49"/>
       <c r="L229" s="50"/>
@@ -13408,18 +13451,18 @@
     </row>
     <row r="234" spans="2:19">
       <c r="B234" s="48" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J234" s="48" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="235" spans="2:19">
       <c r="B235" s="48" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J235" s="48" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="236" spans="2:19">
@@ -13436,10 +13479,10 @@
         <v>12</v>
       </c>
       <c r="F236" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G236" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H236" s="38" t="s">
         <v>13</v>
@@ -13450,7 +13493,7 @@
     </row>
     <row r="237" spans="2:19" ht="15">
       <c r="B237" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C237" s="38" t="s">
         <v>59</v>
@@ -13468,15 +13511,15 @@
         <v>312</v>
       </c>
       <c r="H237" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J237" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="238" spans="2:19" ht="15">
       <c r="B238" s="55" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C238" s="55" t="s">
         <v>247</v>
@@ -13491,7 +13534,7 @@
       <c r="G238" s="38"/>
       <c r="H238" s="38"/>
       <c r="J238" s="55" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239" spans="2:19" ht="15">
@@ -13511,15 +13554,15 @@
       <c r="G239" s="38"/>
       <c r="H239" s="38"/>
       <c r="J239" s="55" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="240" spans="2:19" ht="15">
       <c r="B240" s="55" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C240" s="51" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D240" s="61" t="s">
         <v>301</v>
@@ -13531,7 +13574,7 @@
       <c r="G240" s="38"/>
       <c r="H240" s="38"/>
       <c r="J240" s="55" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K240" s="65"/>
       <c r="L240" s="65"/>
@@ -13545,7 +13588,7 @@
     </row>
     <row r="241" spans="2:21" ht="15">
       <c r="B241" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C241" s="51" t="s">
         <v>268</v>
@@ -13562,18 +13605,18 @@
         <v>63</v>
       </c>
       <c r="J241" s="51" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="242" spans="2:21">
       <c r="B242" s="55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C242" s="39" t="s">
         <v>291</v>
       </c>
       <c r="D242" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E242" s="55" t="s">
         <v>312</v>
@@ -13582,7 +13625,7 @@
       <c r="G242" s="38"/>
       <c r="H242" s="38"/>
       <c r="J242" s="55" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K242" s="49"/>
       <c r="L242" s="49"/>
@@ -13598,7 +13641,7 @@
     </row>
     <row r="243" spans="2:21">
       <c r="B243" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C243" s="39" t="s">
         <v>298</v>
@@ -13613,7 +13656,7 @@
       <c r="G243" s="38"/>
       <c r="H243" s="38"/>
       <c r="J243" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K243" s="49"/>
       <c r="L243" s="49"/>
@@ -13629,13 +13672,13 @@
     </row>
     <row r="244" spans="2:21">
       <c r="B244" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C244" s="51" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D244" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E244" s="55" t="s">
         <v>303</v>
@@ -13644,18 +13687,18 @@
       <c r="G244" s="38"/>
       <c r="H244" s="38"/>
       <c r="J244" s="51" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="245" spans="2:21">
       <c r="B245" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C245" s="51" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D245" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E245" s="55" t="s">
         <v>310</v>
@@ -13664,12 +13707,12 @@
       <c r="G245" s="38"/>
       <c r="H245" s="38"/>
       <c r="J245" s="51" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="246" spans="2:21" ht="15">
       <c r="B246" s="51" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C246" s="39" t="s">
         <v>276</v>
@@ -13684,7 +13727,7 @@
       <c r="G246" s="38"/>
       <c r="H246" s="38"/>
       <c r="J246" s="51" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K246" s="49"/>
       <c r="L246" s="49"/>
@@ -13700,7 +13743,7 @@
     </row>
     <row r="247" spans="2:21">
       <c r="B247" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C247" s="51" t="s">
         <v>289</v>
@@ -13715,7 +13758,7 @@
       <c r="G247" s="38"/>
       <c r="H247" s="38"/>
       <c r="J247" s="51" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K247" s="49"/>
       <c r="L247" s="49"/>
@@ -13731,7 +13774,7 @@
     </row>
     <row r="248" spans="2:21">
       <c r="B248" s="51" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C248" s="39" t="s">
         <v>290</v>
@@ -13746,12 +13789,12 @@
       <c r="G248" s="38"/>
       <c r="H248" s="38"/>
       <c r="J248" s="51" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="249" spans="2:21">
       <c r="B249" s="51" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C249" s="39" t="s">
         <v>292</v>
@@ -13766,12 +13809,12 @@
       <c r="G249" s="38"/>
       <c r="H249" s="38"/>
       <c r="J249" s="51" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="250" spans="2:21" ht="15">
       <c r="B250" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C250" s="39" t="s">
         <v>272</v>
@@ -13785,15 +13828,15 @@
       <c r="F250" s="38"/>
       <c r="G250" s="38"/>
       <c r="H250" s="56" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="J250" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="251" spans="2:21">
       <c r="B251" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C251" s="39" t="s">
         <v>266</v>
@@ -13808,15 +13851,15 @@
       <c r="G251" s="38"/>
       <c r="H251" s="38"/>
       <c r="J251" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="252" spans="2:21">
       <c r="B252" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D252" s="55" t="s">
         <v>301</v>
@@ -13828,18 +13871,18 @@
       <c r="G252" s="38"/>
       <c r="H252" s="38"/>
       <c r="J252" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="253" spans="2:21">
       <c r="B253" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C253" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D253" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E253" s="55" t="s">
         <v>310</v>
@@ -13848,18 +13891,18 @@
       <c r="G253" s="55"/>
       <c r="H253" s="55"/>
       <c r="J253" s="51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="254" spans="2:21">
       <c r="B254" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C254" s="39" t="s">
         <v>251</v>
       </c>
       <c r="D254" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E254" s="55" t="s">
         <v>310</v>
@@ -13867,21 +13910,21 @@
       <c r="F254" s="55"/>
       <c r="G254" s="55"/>
       <c r="H254" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J254" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="255" spans="2:21">
       <c r="B255" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C255" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D255" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E255" s="55" t="s">
         <v>310</v>
@@ -13890,7 +13933,7 @@
       <c r="G255" s="38"/>
       <c r="H255" s="38"/>
       <c r="J255" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K255" s="49"/>
       <c r="L255" s="50"/>
@@ -13941,10 +13984,10 @@
     </row>
     <row r="261" spans="2:11">
       <c r="B261" s="48" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J261" s="48" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="262" spans="2:11">
@@ -13961,10 +14004,10 @@
         <v>12</v>
       </c>
       <c r="F262" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G262" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H262" s="38" t="s">
         <v>13</v>
@@ -13975,7 +14018,7 @@
     </row>
     <row r="263" spans="2:11" ht="15">
       <c r="B263" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C263" s="55" t="s">
         <v>294</v>
@@ -13993,15 +14036,15 @@
         <v>312</v>
       </c>
       <c r="H263" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J263" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="264" spans="2:11" ht="15">
       <c r="B264" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C264" s="55" t="s">
         <v>191</v>
@@ -14015,21 +14058,21 @@
       <c r="F264" s="38"/>
       <c r="G264" s="38"/>
       <c r="H264" s="55" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J264" s="55" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="265" spans="2:11">
       <c r="B265" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C265" s="51" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D265" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E265" s="55" t="s">
         <v>312</v>
@@ -14037,15 +14080,15 @@
       <c r="F265" s="38"/>
       <c r="G265" s="38"/>
       <c r="H265" s="55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J265" s="55" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="266" spans="2:11">
       <c r="B266" s="51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C266" s="39" t="s">
         <v>273</v>
@@ -14060,12 +14103,12 @@
       <c r="G266" s="38"/>
       <c r="H266" s="40"/>
       <c r="J266" s="51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="267" spans="2:11" ht="43.2">
       <c r="B267" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C267" s="39" t="s">
         <v>274</v>
@@ -14079,15 +14122,15 @@
       <c r="F267" s="38"/>
       <c r="G267" s="38"/>
       <c r="H267" s="56" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J267" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="268" spans="2:11" ht="15">
       <c r="B268" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C268" s="51" t="s">
         <v>261</v>
@@ -14101,16 +14144,16 @@
       <c r="F268" s="38"/>
       <c r="G268" s="38"/>
       <c r="H268" s="56" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="J268" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K268" s="48"/>
     </row>
     <row r="269" spans="2:11">
       <c r="B269" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C269" s="39" t="s">
         <v>266</v>
@@ -14125,15 +14168,15 @@
       <c r="G269" s="38"/>
       <c r="H269" s="38"/>
       <c r="J269" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="270" spans="2:11">
       <c r="B270" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C270" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D270" s="55" t="s">
         <v>301</v>
@@ -14145,18 +14188,18 @@
       <c r="G270" s="38"/>
       <c r="H270" s="38"/>
       <c r="J270" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="271" spans="2:11">
       <c r="B271" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C271" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D271" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E271" s="55" t="s">
         <v>310</v>
@@ -14165,18 +14208,18 @@
       <c r="G271" s="55"/>
       <c r="H271" s="55"/>
       <c r="J271" s="51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="272" spans="2:11">
       <c r="B272" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C272" s="39" t="s">
         <v>251</v>
       </c>
       <c r="D272" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E272" s="55" t="s">
         <v>310</v>
@@ -14184,21 +14227,21 @@
       <c r="F272" s="55"/>
       <c r="G272" s="55"/>
       <c r="H272" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J272" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="273" spans="2:18">
       <c r="B273" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C273" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D273" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E273" s="55" t="s">
         <v>310</v>
@@ -14207,7 +14250,7 @@
       <c r="G273" s="38"/>
       <c r="H273" s="38"/>
       <c r="J273" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K273" s="49"/>
       <c r="L273" s="50"/>
@@ -14238,10 +14281,10 @@
     </row>
     <row r="279" spans="2:18">
       <c r="B279" s="48" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J279" s="48" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="280" spans="2:18">
@@ -14258,10 +14301,10 @@
         <v>12</v>
       </c>
       <c r="F280" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G280" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H280" s="38" t="s">
         <v>13</v>
@@ -14272,10 +14315,10 @@
     </row>
     <row r="281" spans="2:18" ht="15">
       <c r="B281" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C281" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D281" s="61" t="s">
         <v>301</v>
@@ -14290,15 +14333,15 @@
         <v>312</v>
       </c>
       <c r="H281" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J281" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="282" spans="2:18" ht="15">
       <c r="B282" s="62" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C282" s="55" t="s">
         <v>242</v>
@@ -14313,15 +14356,15 @@
       <c r="G282" s="38"/>
       <c r="H282" s="38"/>
       <c r="J282" s="62" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="283" spans="2:18" ht="15">
       <c r="B283" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C283" s="55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D283" s="61" t="s">
         <v>301</v>
@@ -14333,12 +14376,12 @@
       <c r="G283" s="38"/>
       <c r="H283" s="38"/>
       <c r="J283" s="55" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="284" spans="2:18">
       <c r="B284" s="51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C284" s="39" t="s">
         <v>273</v>
@@ -14353,12 +14396,12 @@
       <c r="G284" s="38"/>
       <c r="H284" s="40"/>
       <c r="J284" s="51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="285" spans="2:18" ht="28.8">
       <c r="B285" s="51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C285" s="39" t="s">
         <v>274</v>
@@ -14372,15 +14415,15 @@
       <c r="F285" s="38"/>
       <c r="G285" s="38"/>
       <c r="H285" s="56" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J285" s="51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="286" spans="2:18" ht="15">
       <c r="B286" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C286" s="51" t="s">
         <v>261</v>
@@ -14394,16 +14437,16 @@
       <c r="F286" s="38"/>
       <c r="G286" s="38"/>
       <c r="H286" s="56" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="J286" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K286" s="48"/>
     </row>
     <row r="287" spans="2:18">
       <c r="B287" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C287" s="39" t="s">
         <v>266</v>
@@ -14418,15 +14461,15 @@
       <c r="G287" s="38"/>
       <c r="H287" s="38"/>
       <c r="J287" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="288" spans="2:18">
       <c r="B288" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C288" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D288" s="55" t="s">
         <v>301</v>
@@ -14438,18 +14481,18 @@
       <c r="G288" s="38"/>
       <c r="H288" s="38"/>
       <c r="J288" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="289" spans="2:18">
       <c r="B289" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C289" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D289" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E289" s="55" t="s">
         <v>310</v>
@@ -14458,18 +14501,18 @@
       <c r="G289" s="55"/>
       <c r="H289" s="55"/>
       <c r="J289" s="51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="290" spans="2:18">
       <c r="B290" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C290" s="39" t="s">
         <v>251</v>
       </c>
       <c r="D290" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E290" s="55" t="s">
         <v>310</v>
@@ -14477,21 +14520,21 @@
       <c r="F290" s="55"/>
       <c r="G290" s="55"/>
       <c r="H290" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J290" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="291" spans="2:18">
       <c r="B291" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C291" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D291" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E291" s="55" t="s">
         <v>310</v>
@@ -14500,7 +14543,7 @@
       <c r="G291" s="38"/>
       <c r="H291" s="38"/>
       <c r="J291" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K291" s="49"/>
       <c r="L291" s="50"/>
@@ -14554,12 +14597,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="48" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="48" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -14576,10 +14619,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>13</v>
@@ -14590,7 +14633,7 @@
         <v>191</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>301</v>
@@ -14605,7 +14648,7 @@
         <v>310</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="100.8">
@@ -14613,7 +14656,7 @@
         <v>239</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>301</v>
@@ -14624,7 +14667,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="56" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -14632,7 +14675,7 @@
         <v>257</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>306</v>
@@ -14651,7 +14694,7 @@
         <v>258</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>306</v>
@@ -14667,10 +14710,10 @@
     </row>
     <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="51" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>396</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>397</v>
       </c>
       <c r="C8" s="61" t="s">
         <v>301</v>
@@ -14681,7 +14724,7 @@
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="56" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -14689,7 +14732,7 @@
         <v>260</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>301</v>
@@ -14698,7 +14741,7 @@
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -14706,7 +14749,7 @@
         <v>266</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C10" s="55" t="s">
         <v>301</v>
@@ -14723,10 +14766,10 @@
         <v>84</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>310</v>
@@ -14740,10 +14783,10 @@
         <v>251</v>
       </c>
       <c r="B12" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="55" t="s">
         <v>323</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>324</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>310</v>
@@ -14751,7 +14794,7 @@
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
       <c r="G12" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -14759,10 +14802,10 @@
         <v>241</v>
       </c>
       <c r="B13" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="55" t="s">
         <v>329</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>330</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>310</v>

--- a/doc/需求讨论_表定义.xlsx
+++ b/doc/需求讨论_表定义.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="646">
   <si>
     <t>1 我的想法是抛开你这个表的情况，先以你为维度登记处理下整个的贷款周期内的各种事情，比如合同登记、放款、还款、逾期、提前还款等等</t>
   </si>
@@ -2327,10 +2327,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>service_fee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>默认为0</t>
     </r>
@@ -2437,14 +2433,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>逾期罚息累计</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>已收服务费累计</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>tot_paid_prin</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3677,10 +3665,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>productNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>5:登记,3:计息中,4:已延期,1:已撤资,2:已结转</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3705,10 +3689,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>custNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>contrNo</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3750,14 +3730,6 @@
   </si>
   <si>
     <t>放款金额</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>lendingAmt</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>lendingAcct</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -3798,6 +3770,149 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
+    <t>loanType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>repayType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPen</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>penRate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>penNumber</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lendingDate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>期数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>termNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceFeeType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费收取方式</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>首期:1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schd_interest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_paid_interest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_interest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>totPaidInterest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schdInterest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>productNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lendingAcct</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_fee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceFee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveInterest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lendingAmt</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>extensionRate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>已还罚息累计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收服务费累计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>已还利息累计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>已还本金累计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期罚息累计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>service</t>
     </r>
@@ -3836,106 +3951,7 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>loanType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>serviceFeeScale</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>repayType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPen</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>penRate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>penNumber</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>lendingDate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>期数</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>termNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceFee</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceFeeType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务费收取方式</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>首期:1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>按期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:2</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>schd_interest</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>tot_paid_interest</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive_interest</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>totPaidInterest</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>schdInterest</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveInterest</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -4537,8 +4553,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4641,72 +4723,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6972,29 +6988,29 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="M1" s="121" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="M1" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="122"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="19" t="s">
         <v>97</v>
       </c>
@@ -7003,18 +7019,18 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="L2" s="67" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="L2" s="76" t="s">
         <v>98</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -7055,18 +7071,18 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="L3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="6">
         <v>1</v>
       </c>
@@ -7103,21 +7119,21 @@
       <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="L4" s="67"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="6">
         <v>2</v>
       </c>
@@ -7154,17 +7170,17 @@
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="104"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="74"/>
-      <c r="L5" s="67"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
+      <c r="L5" s="76"/>
       <c r="M5" s="6">
         <v>3</v>
       </c>
@@ -7200,17 +7216,17 @@
       <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="105"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="L6" s="67"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
+      <c r="L6" s="76"/>
       <c r="M6" s="6">
         <v>4</v>
       </c>
@@ -7244,21 +7260,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="L7" s="67"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="102"/>
+      <c r="L7" s="76"/>
       <c r="M7" s="6">
         <v>5</v>
       </c>
@@ -7292,17 +7308,17 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="104"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
-      <c r="L8" s="67"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
+      <c r="L8" s="76"/>
       <c r="M8" s="6">
         <v>6</v>
       </c>
@@ -7338,17 +7354,17 @@
       <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="104"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
-      <c r="L9" s="67"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="L9" s="76"/>
       <c r="M9" s="6">
         <v>7</v>
       </c>
@@ -7384,17 +7400,17 @@
       <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="104"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="83"/>
-      <c r="L10" s="67"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="105"/>
+      <c r="L10" s="76"/>
       <c r="M10" s="6">
         <v>8</v>
       </c>
@@ -7430,17 +7446,17 @@
       <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="105"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="86"/>
-      <c r="L11" s="67"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="108"/>
+      <c r="L11" s="76"/>
       <c r="M11" s="6">
         <v>9</v>
       </c>
@@ -7474,21 +7490,21 @@
       <c r="W11" s="11"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
-      <c r="L12" s="67"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="111"/>
+      <c r="L12" s="76"/>
       <c r="M12" s="6">
         <v>10</v>
       </c>
@@ -7524,17 +7540,17 @@
       <c r="W12" s="11"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="104"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
-      <c r="L13" s="67"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
+      <c r="L13" s="76"/>
       <c r="M13" s="6">
         <v>11</v>
       </c>
@@ -7570,17 +7586,17 @@
       <c r="W13" s="11"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="104"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="92"/>
-      <c r="L14" s="67"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="114"/>
+      <c r="L14" s="76"/>
       <c r="M14" s="6">
         <v>12</v>
       </c>
@@ -7616,17 +7632,17 @@
       <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="104"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
-      <c r="L15" s="67"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
+      <c r="L15" s="76"/>
       <c r="M15" s="6">
         <v>13</v>
       </c>
@@ -7660,17 +7676,17 @@
       <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="104"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92"/>
-      <c r="L16" s="67"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
+      <c r="L16" s="76"/>
       <c r="M16" s="6">
         <v>14</v>
       </c>
@@ -7704,17 +7720,17 @@
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="105"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="95"/>
-      <c r="L17" s="67"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="117"/>
+      <c r="L17" s="76"/>
       <c r="M17" s="6">
         <v>15</v>
       </c>
@@ -7740,21 +7756,21 @@
       <c r="W17" s="11"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
-      <c r="L18" s="67"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="120"/>
+      <c r="L18" s="76"/>
       <c r="M18" s="6">
         <v>16</v>
       </c>
@@ -7780,17 +7796,17 @@
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="107"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="101"/>
-      <c r="L19" s="67"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="123"/>
+      <c r="L19" s="76"/>
       <c r="M19" s="6">
         <v>17</v>
       </c>
@@ -7817,16 +7833,16 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="L20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="L20" s="76"/>
       <c r="M20" s="6"/>
       <c r="N20" s="11"/>
       <c r="O20" s="12"/>
@@ -7849,16 +7865,16 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="1"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="L21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="L21" s="76"/>
       <c r="M21" s="6"/>
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
@@ -7881,16 +7897,16 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="L22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="L22" s="76"/>
       <c r="M22" s="6"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
@@ -7913,16 +7929,16 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="1"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="L23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="L23" s="76"/>
       <c r="M23" s="6"/>
       <c r="N23" s="11"/>
       <c r="O23" s="12"/>
@@ -7945,16 +7961,16 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="1"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="L24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="L24" s="76"/>
       <c r="M24" s="6"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
@@ -7977,16 +7993,16 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="L25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="L25" s="76"/>
       <c r="M25" s="6"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
@@ -8009,16 +8025,16 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="1"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="L26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="L26" s="76"/>
       <c r="M26" s="6" t="s">
         <v>143</v>
       </c>
@@ -8053,115 +8069,115 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="1"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="1"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="1"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="1"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="1"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="N33" s="118" t="s">
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="N33" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="O33" s="118"/>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="118"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
       <c r="X33" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="1"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="M34" s="67" t="s">
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="M34" s="76" t="s">
         <v>119</v>
       </c>
       <c r="N34" s="6" t="s">
@@ -8170,10 +8186,10 @@
       <c r="O34" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="P34" s="119" t="s">
+      <c r="P34" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="Q34" s="120"/>
+      <c r="Q34" s="73"/>
       <c r="R34" s="27" t="s">
         <v>147</v>
       </c>
@@ -8183,10 +8199,10 @@
       <c r="T34" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="U34" s="116" t="s">
+      <c r="U34" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="V34" s="117"/>
+      <c r="V34" s="75"/>
       <c r="W34" s="12" t="s">
         <v>151</v>
       </c>
@@ -8196,16 +8212,16 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="1"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="M35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="M35" s="76"/>
       <c r="N35" s="6">
         <v>1</v>
       </c>
@@ -8228,11 +8244,11 @@
       <c r="T35" s="27">
         <v>0</v>
       </c>
-      <c r="U35" s="116">
+      <c r="U35" s="74">
         <f>SUM(U36:U44)</f>
         <v>-162944</v>
       </c>
-      <c r="V35" s="117"/>
+      <c r="V35" s="75"/>
       <c r="W35" s="12">
         <f>O35+Q35+R35+S35-T35+U35</f>
         <v>-662731.32999999996</v>
@@ -8241,16 +8257,16 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="1"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="M36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="M36" s="76"/>
       <c r="N36" s="6">
         <v>2</v>
       </c>
@@ -8275,16 +8291,16 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="1"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="M37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="M37" s="76"/>
       <c r="N37" s="6">
         <v>3</v>
       </c>
@@ -8309,16 +8325,16 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="1"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
-      <c r="M38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="M38" s="76"/>
       <c r="N38" s="6">
         <v>4</v>
       </c>
@@ -8338,7 +8354,7 @@
       <c r="X38" s="12"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="M39" s="67"/>
+      <c r="M39" s="76"/>
       <c r="N39" s="6">
         <v>5</v>
       </c>
@@ -8368,7 +8384,7 @@
       <c r="G40" s="49"/>
       <c r="H40" s="49"/>
       <c r="I40" s="49"/>
-      <c r="M40" s="67"/>
+      <c r="M40" s="76"/>
       <c r="N40" s="6">
         <v>6</v>
       </c>
@@ -8389,7 +8405,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="B41" s="48"/>
-      <c r="M41" s="67"/>
+      <c r="M41" s="76"/>
       <c r="N41" s="6">
         <v>7</v>
       </c>
@@ -8409,7 +8425,7 @@
       <c r="X41" s="12"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="M42" s="67"/>
+      <c r="M42" s="76"/>
       <c r="N42" s="6">
         <v>8</v>
       </c>
@@ -8442,7 +8458,7 @@
       <c r="J43" s="49"/>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
-      <c r="M43" s="67"/>
+      <c r="M43" s="76"/>
       <c r="N43" s="6">
         <v>9</v>
       </c>
@@ -8480,7 +8496,7 @@
       <c r="J44" s="49"/>
       <c r="K44" s="49"/>
       <c r="L44" s="49"/>
-      <c r="M44" s="67"/>
+      <c r="M44" s="76"/>
       <c r="N44" s="6">
         <v>10</v>
       </c>
@@ -8501,22 +8517,22 @@
       </c>
     </row>
     <row r="49" spans="13:24">
-      <c r="N49" s="114" t="s">
+      <c r="N49" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="O49" s="115"/>
-      <c r="P49" s="115"/>
-      <c r="Q49" s="115"/>
-      <c r="R49" s="115"/>
-      <c r="S49" s="115"/>
-      <c r="T49" s="115"/>
-      <c r="U49" s="115"/>
-      <c r="V49" s="115"/>
-      <c r="W49" s="115"/>
-      <c r="X49" s="115"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="78"/>
+      <c r="S49" s="78"/>
+      <c r="T49" s="78"/>
+      <c r="U49" s="78"/>
+      <c r="V49" s="78"/>
+      <c r="W49" s="78"/>
+      <c r="X49" s="78"/>
     </row>
     <row r="50" spans="13:24">
-      <c r="M50" s="67" t="s">
+      <c r="M50" s="76" t="s">
         <v>296</v>
       </c>
       <c r="N50" s="15"/>
@@ -8534,13 +8550,13 @@
         <v>167</v>
       </c>
       <c r="V50" s="17"/>
-      <c r="W50" s="112" t="s">
+      <c r="W50" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="X50" s="113"/>
+      <c r="X50" s="80"/>
     </row>
     <row r="51" spans="13:24">
-      <c r="M51" s="68"/>
+      <c r="M51" s="90"/>
       <c r="N51" s="17">
         <v>7</v>
       </c>
@@ -8558,13 +8574,13 @@
       <c r="V51" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="W51" s="112">
+      <c r="W51" s="79">
         <v>22000</v>
       </c>
-      <c r="X51" s="113"/>
+      <c r="X51" s="80"/>
     </row>
     <row r="52" spans="13:24">
-      <c r="M52" s="68"/>
+      <c r="M52" s="90"/>
       <c r="N52" s="17">
         <v>8</v>
       </c>
@@ -8582,13 +8598,13 @@
       <c r="V52" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="W52" s="112">
+      <c r="W52" s="79">
         <v>18000</v>
       </c>
-      <c r="X52" s="113"/>
+      <c r="X52" s="80"/>
     </row>
     <row r="53" spans="13:24">
-      <c r="M53" s="68"/>
+      <c r="M53" s="90"/>
       <c r="N53" s="17">
         <v>9</v>
       </c>
@@ -8606,13 +8622,13 @@
       <c r="V53" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="W53" s="112">
+      <c r="W53" s="79">
         <v>18000</v>
       </c>
-      <c r="X53" s="113"/>
+      <c r="X53" s="80"/>
     </row>
     <row r="54" spans="13:24">
-      <c r="M54" s="68"/>
+      <c r="M54" s="90"/>
       <c r="N54" s="17">
         <v>10</v>
       </c>
@@ -8630,13 +8646,13 @@
       <c r="V54" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="W54" s="112">
+      <c r="W54" s="79">
         <v>18000</v>
       </c>
-      <c r="X54" s="113"/>
+      <c r="X54" s="80"/>
     </row>
     <row r="55" spans="13:24">
-      <c r="M55" s="68"/>
+      <c r="M55" s="90"/>
       <c r="N55" s="17">
         <v>11</v>
       </c>
@@ -8654,13 +8670,13 @@
       <c r="V55" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="W55" s="112">
+      <c r="W55" s="79">
         <v>18000</v>
       </c>
-      <c r="X55" s="113"/>
+      <c r="X55" s="80"/>
     </row>
     <row r="56" spans="13:24">
-      <c r="M56" s="68"/>
+      <c r="M56" s="90"/>
       <c r="N56" s="17">
         <v>12</v>
       </c>
@@ -8678,13 +8694,13 @@
       <c r="V56" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="W56" s="112">
+      <c r="W56" s="79">
         <v>162944</v>
       </c>
-      <c r="X56" s="113"/>
+      <c r="X56" s="80"/>
     </row>
     <row r="57" spans="13:24">
-      <c r="M57" s="68"/>
+      <c r="M57" s="90"/>
       <c r="N57" s="17">
         <v>13</v>
       </c>
@@ -8700,11 +8716,11 @@
       <c r="V57" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="W57" s="112"/>
-      <c r="X57" s="113"/>
+      <c r="W57" s="79"/>
+      <c r="X57" s="80"/>
     </row>
     <row r="58" spans="13:24">
-      <c r="M58" s="68"/>
+      <c r="M58" s="90"/>
       <c r="N58" s="17">
         <v>14</v>
       </c>
@@ -8725,59 +8741,59 @@
       <c r="V58" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="W58" s="112"/>
-      <c r="X58" s="113"/>
+      <c r="W58" s="79"/>
+      <c r="X58" s="80"/>
     </row>
     <row r="59" spans="13:24">
-      <c r="M59" s="68"/>
+      <c r="M59" s="90"/>
       <c r="N59" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="O59" s="108"/>
-      <c r="P59" s="109"/>
-      <c r="Q59" s="110"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="82"/>
+      <c r="Q59" s="83"/>
       <c r="R59" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="S59" s="108">
+      <c r="S59" s="81">
         <f>S58+T58</f>
         <v>8533000</v>
       </c>
-      <c r="T59" s="110"/>
+      <c r="T59" s="83"/>
       <c r="U59" s="18">
         <f>U51+U52+U53+U54+U55+U56+U57+U58+W58</f>
         <v>582156</v>
       </c>
       <c r="V59" s="18"/>
-      <c r="W59" s="108">
+      <c r="W59" s="81">
         <f>SUM(W51:W58)</f>
         <v>256944</v>
       </c>
-      <c r="X59" s="110"/>
+      <c r="X59" s="83"/>
     </row>
     <row r="60" spans="13:24">
-      <c r="M60" s="68"/>
+      <c r="M60" s="90"/>
       <c r="N60" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="O60" s="111" t="s">
+      <c r="O60" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="P60" s="109"/>
-      <c r="Q60" s="109"/>
-      <c r="R60" s="110"/>
-      <c r="S60" s="108">
+      <c r="P60" s="82"/>
+      <c r="Q60" s="82"/>
+      <c r="R60" s="83"/>
+      <c r="S60" s="81">
         <f>S59-U59</f>
         <v>7950844</v>
       </c>
-      <c r="T60" s="109"/>
-      <c r="U60" s="110"/>
+      <c r="T60" s="82"/>
+      <c r="U60" s="83"/>
       <c r="V60" s="18"/>
       <c r="W60" s="18"/>
       <c r="X60" s="18"/>
     </row>
     <row r="61" spans="13:24">
-      <c r="M61" s="68"/>
+      <c r="M61" s="90"/>
       <c r="N61" s="17">
         <v>17</v>
       </c>
@@ -8793,7 +8809,7 @@
       <c r="X61" s="18"/>
     </row>
     <row r="62" spans="13:24">
-      <c r="M62" s="68"/>
+      <c r="M62" s="90"/>
       <c r="N62" s="17">
         <v>18</v>
       </c>
@@ -8809,7 +8825,7 @@
       <c r="X62" s="18"/>
     </row>
     <row r="63" spans="13:24">
-      <c r="M63" s="68"/>
+      <c r="M63" s="90"/>
       <c r="N63" s="17">
         <v>19</v>
       </c>
@@ -8825,7 +8841,7 @@
       <c r="X63" s="18"/>
     </row>
     <row r="64" spans="13:24">
-      <c r="M64" s="68"/>
+      <c r="M64" s="90"/>
       <c r="N64" s="17">
         <v>20</v>
       </c>
@@ -8842,40 +8858,15 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="N33:W33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="M34:M44"/>
-    <mergeCell ref="N49:X49"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="M50:M64"/>
+    <mergeCell ref="B4:J6"/>
+    <mergeCell ref="B7:J11"/>
+    <mergeCell ref="B12:J17"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -8886,15 +8877,40 @@
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B24:J24"/>
     <mergeCell ref="B25:J25"/>
-    <mergeCell ref="M50:M64"/>
-    <mergeCell ref="B4:J6"/>
-    <mergeCell ref="B7:J11"/>
-    <mergeCell ref="B12:J17"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="N49:X49"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="M34:M44"/>
+    <mergeCell ref="N33:W33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B20:J20"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8907,8 +8923,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:V292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8923,12 +8939,12 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="48" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="48" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -8948,7 +8964,7 @@
         <v>326</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>13</v>
@@ -8993,7 +9009,7 @@
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -9029,7 +9045,7 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="56" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -9163,10 +9179,10 @@
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="48" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -9186,7 +9202,7 @@
         <v>326</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>13</v>
@@ -9238,7 +9254,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="38"/>
       <c r="J23" s="38" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="2:22">
@@ -9258,7 +9274,7 @@
       <c r="G24" s="55"/>
       <c r="H24" s="38"/>
       <c r="J24" s="55" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K24" s="65"/>
       <c r="L24" s="65"/>
@@ -9322,7 +9338,7 @@
         <v>308</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
@@ -9351,10 +9367,10 @@
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
       <c r="H27" s="55" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -9386,7 +9402,7 @@
         <v>313</v>
       </c>
       <c r="J28" s="51" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -9415,10 +9431,10 @@
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J29" s="51" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
@@ -9450,7 +9466,7 @@
         <v>317</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
@@ -9482,7 +9498,7 @@
         <v>319</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
@@ -9516,7 +9532,7 @@
         <v>348</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
@@ -9533,10 +9549,10 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="51" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>301</v>
@@ -9547,10 +9563,10 @@
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
       <c r="H33" s="56" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J33" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
@@ -9567,7 +9583,7 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>266</v>
@@ -9582,15 +9598,15 @@
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="J34" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="51" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D35" s="55" t="s">
         <v>301</v>
@@ -9602,7 +9618,7 @@
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="J35" s="51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -9622,7 +9638,7 @@
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
       <c r="J36" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -9644,7 +9660,7 @@
         <v>324</v>
       </c>
       <c r="J37" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -9699,18 +9715,18 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="48" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J41" s="48" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="48" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -9730,7 +9746,7 @@
         <v>326</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>13</v>
@@ -9744,7 +9760,7 @@
         <v>346</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D44" s="60" t="s">
         <v>301</v>
@@ -9756,10 +9772,10 @@
         <v>312</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J44" s="55" t="s">
         <v>346</v>
@@ -9767,10 +9783,10 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="55" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D45" s="55" t="s">
         <v>334</v>
@@ -9782,7 +9798,7 @@
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
       <c r="J45" s="55" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
@@ -9797,10 +9813,10 @@
     </row>
     <row r="46" spans="2:22" ht="28.8">
       <c r="B46" s="51" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D46" s="55" t="s">
         <v>301</v>
@@ -9814,7 +9830,7 @@
         <v>335</v>
       </c>
       <c r="J46" s="51" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="15.6">
@@ -9822,7 +9838,7 @@
         <v>345</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D47" s="55" t="s">
         <v>336</v>
@@ -9834,7 +9850,7 @@
       <c r="G47" s="38"/>
       <c r="H47" s="40"/>
       <c r="J47" s="51" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="K47" s="49"/>
       <c r="L47" s="49"/>
@@ -9850,10 +9866,10 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="51" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D48" s="55" t="s">
         <v>301</v>
@@ -9867,7 +9883,7 @@
         <v>340</v>
       </c>
       <c r="J48" s="51" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
@@ -9883,16 +9899,16 @@
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="51" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D49" s="55" t="s">
         <v>341</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -9906,7 +9922,7 @@
         <v>338</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D50" s="55" t="s">
         <v>342</v>
@@ -9925,7 +9941,7 @@
         <v>339</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D51" s="55" t="s">
         <v>343</v>
@@ -9940,10 +9956,10 @@
     </row>
     <row r="52" spans="2:18" ht="15.6">
       <c r="B52" s="51" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D52" s="55" t="s">
         <v>301</v>
@@ -9954,15 +9970,15 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J52" s="51" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="15.6">
       <c r="B53" s="51" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>212</v>
@@ -9971,20 +9987,20 @@
         <v>301</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="55" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="J53" s="51" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54" spans="2:18">
       <c r="B54" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>266</v>
@@ -9999,15 +10015,15 @@
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
       <c r="J54" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="2:18">
       <c r="B55" s="51" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D55" s="55" t="s">
         <v>301</v>
@@ -10019,7 +10035,7 @@
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
       <c r="J55" s="51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="2:18">
@@ -10039,7 +10055,7 @@
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
       <c r="J56" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="2:18">
@@ -10061,15 +10077,15 @@
         <v>324</v>
       </c>
       <c r="J57" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="2:18">
       <c r="B58" s="55" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D58" s="55" t="s">
         <v>329</v>
@@ -10094,18 +10110,18 @@
     </row>
     <row r="60" spans="2:18">
       <c r="B60" s="48" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J60" s="48" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="2:18">
       <c r="B61" s="48" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J61" s="48" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="62" spans="2:18">
@@ -10125,7 +10141,7 @@
         <v>326</v>
       </c>
       <c r="G62" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>13</v>
@@ -10139,7 +10155,7 @@
         <v>346</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D63" s="61" t="s">
         <v>301</v>
@@ -10177,12 +10193,12 @@
       <c r="G64" s="55"/>
       <c r="H64" s="38"/>
       <c r="J64" s="55" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="15">
       <c r="B65" s="55" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C65" s="38" t="s">
         <v>221</v>
@@ -10197,15 +10213,15 @@
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
       <c r="J65" s="55" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="15">
       <c r="B66" s="55" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D66" s="61" t="s">
         <v>301</v>
@@ -10217,15 +10233,15 @@
       <c r="G66" s="55"/>
       <c r="H66" s="55"/>
       <c r="J66" s="55" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="51" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D67" s="55" t="s">
         <v>336</v>
@@ -10237,7 +10253,7 @@
       <c r="G67" s="38"/>
       <c r="H67" s="40"/>
       <c r="J67" s="51" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="68" spans="2:10">
@@ -10257,7 +10273,7 @@
       <c r="G68" s="38"/>
       <c r="H68" s="40"/>
       <c r="J68" s="51" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="2:10">
@@ -10265,7 +10281,7 @@
         <v>352</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D69" s="55" t="s">
         <v>351</v>
@@ -10277,7 +10293,7 @@
       <c r="G69" s="38"/>
       <c r="H69" s="38"/>
       <c r="J69" s="51" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="2:10">
@@ -10285,7 +10301,7 @@
         <v>353</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D70" s="55" t="s">
         <v>351</v>
@@ -10297,7 +10313,7 @@
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="J70" s="51" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -10305,7 +10321,7 @@
         <v>350</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D71" s="55" t="s">
         <v>306</v>
@@ -10322,7 +10338,7 @@
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="55" t="s">
-        <v>361</v>
+        <v>634</v>
       </c>
       <c r="C72" s="39" t="s">
         <v>50</v>
@@ -10336,18 +10352,18 @@
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
       <c r="H72" s="55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J72" s="55" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="51" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D73" s="55" t="s">
         <v>306</v>
@@ -10359,7 +10375,7 @@
       <c r="G73" s="55"/>
       <c r="H73" s="38"/>
       <c r="J73" s="51" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="74" spans="2:10">
@@ -10367,7 +10383,7 @@
         <v>356</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D74" s="55" t="s">
         <v>301</v>
@@ -10379,7 +10395,7 @@
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
       <c r="J74" s="51" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="75" spans="2:10">
@@ -10387,7 +10403,7 @@
         <v>357</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D75" s="55" t="s">
         <v>351</v>
@@ -10399,7 +10415,7 @@
       <c r="G75" s="38"/>
       <c r="H75" s="38"/>
       <c r="J75" s="55" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -10407,7 +10423,7 @@
         <v>358</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D76" s="55" t="s">
         <v>306</v>
@@ -10419,7 +10435,7 @@
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
       <c r="J76" s="55" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="15">
@@ -10441,15 +10457,15 @@
         <v>254</v>
       </c>
       <c r="J77" s="55" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="55" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D78" s="55" t="s">
         <v>336</v>
@@ -10463,7 +10479,7 @@
         <v>233</v>
       </c>
       <c r="J78" s="55" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -10485,7 +10501,7 @@
         <v>349</v>
       </c>
       <c r="J79" s="51" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="80" spans="2:10">
@@ -10493,7 +10509,7 @@
         <v>355</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D80" s="55" t="s">
         <v>311</v>
@@ -10512,7 +10528,7 @@
     </row>
     <row r="81" spans="2:20">
       <c r="B81" s="51" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>220</v>
@@ -10529,7 +10545,7 @@
         <v>308</v>
       </c>
       <c r="J81" s="51" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="K81" s="64"/>
       <c r="L81" s="64"/>
@@ -10547,7 +10563,7 @@
         <v>309</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="D82" s="60" t="s">
         <v>301</v>
@@ -10558,10 +10574,10 @@
       <c r="F82" s="55"/>
       <c r="G82" s="55"/>
       <c r="H82" s="55" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="J82" s="51" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" spans="2:20" ht="43.2">
@@ -10569,7 +10585,7 @@
         <v>318</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D83" s="55" t="s">
         <v>301</v>
@@ -10583,7 +10599,7 @@
         <v>319</v>
       </c>
       <c r="J83" s="51" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="2:20">
@@ -10605,7 +10621,7 @@
         <v>315</v>
       </c>
       <c r="J84" s="51" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="2:20">
@@ -10627,7 +10643,7 @@
         <v>313</v>
       </c>
       <c r="J85" s="51" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="86" spans="2:20">
@@ -10649,15 +10665,15 @@
         <v>317</v>
       </c>
       <c r="J86" s="51" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="2:20">
       <c r="B87" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="D87" s="55" t="s">
         <v>301</v>
@@ -10668,18 +10684,18 @@
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
       <c r="H87" s="55" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J87" s="55" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="88" spans="2:20">
       <c r="B88" s="55" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D88" s="55" t="s">
         <v>301</v>
@@ -10690,15 +10706,15 @@
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="55" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J88" s="55" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="89" spans="2:20">
       <c r="B89" s="55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>215</v>
@@ -10713,15 +10729,15 @@
       <c r="G89" s="38"/>
       <c r="H89" s="38"/>
       <c r="J89" s="55" t="s">
-        <v>522</v>
+        <v>638</v>
       </c>
     </row>
     <row r="90" spans="2:20">
       <c r="B90" s="55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C90" s="51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D90" s="55" t="s">
         <v>306</v>
@@ -10733,15 +10749,15 @@
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
       <c r="J90" s="55" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91" spans="2:20">
       <c r="B91" s="55" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C91" s="51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D91" s="55" t="s">
         <v>306</v>
@@ -10753,15 +10769,15 @@
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
       <c r="J91" s="55" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="92" spans="2:20">
       <c r="B92" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D92" s="55" t="s">
         <v>306</v>
@@ -10773,15 +10789,15 @@
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
       <c r="J92" s="55" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="93" spans="2:20">
       <c r="B93" s="55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C93" s="51" t="s">
-        <v>382</v>
+        <v>643</v>
       </c>
       <c r="D93" s="55" t="s">
         <v>306</v>
@@ -10793,15 +10809,15 @@
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
       <c r="J93" s="55" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="94" spans="2:20">
       <c r="B94" s="55" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>53</v>
+        <v>642</v>
       </c>
       <c r="D94" s="55" t="s">
         <v>306</v>
@@ -10813,15 +10829,15 @@
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
       <c r="J94" s="55" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="2:20">
       <c r="B95" s="55" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>54</v>
+        <v>641</v>
       </c>
       <c r="D95" s="55" t="s">
         <v>306</v>
@@ -10833,15 +10849,15 @@
       <c r="G95" s="38"/>
       <c r="H95" s="38"/>
       <c r="J95" s="55" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="96" spans="2:20">
       <c r="B96" s="55" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C96" s="55" t="s">
-        <v>383</v>
+        <v>640</v>
       </c>
       <c r="D96" s="55" t="s">
         <v>306</v>
@@ -10853,15 +10869,15 @@
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
       <c r="J96" s="55" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="97" spans="2:18">
       <c r="B97" s="55" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C97" s="55" t="s">
-        <v>226</v>
+        <v>639</v>
       </c>
       <c r="D97" s="55" t="s">
         <v>306</v>
@@ -10873,12 +10889,12 @@
       <c r="G97" s="38"/>
       <c r="H97" s="38"/>
       <c r="J97" s="55" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="2:18">
       <c r="B98" s="55" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C98" s="38" t="s">
         <v>227</v>
@@ -10893,15 +10909,15 @@
       <c r="G98" s="38"/>
       <c r="H98" s="38"/>
       <c r="J98" s="55" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="99" spans="2:18" ht="46.8" customHeight="1">
       <c r="B99" s="55" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D99" s="55" t="s">
         <v>301</v>
@@ -10912,15 +10928,15 @@
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
       <c r="H99" s="56" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="J99" s="55" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="100" spans="2:18">
       <c r="B100" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C100" s="39" t="s">
         <v>266</v>
@@ -10935,15 +10951,15 @@
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
       <c r="J100" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="101" spans="2:18">
       <c r="B101" s="51" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D101" s="55" t="s">
         <v>301</v>
@@ -10955,7 +10971,7 @@
       <c r="G101" s="38"/>
       <c r="H101" s="38"/>
       <c r="J101" s="51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="102" spans="2:18">
@@ -10975,7 +10991,7 @@
       <c r="G102" s="55"/>
       <c r="H102" s="55"/>
       <c r="J102" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="103" spans="2:18">
@@ -10997,7 +11013,7 @@
         <v>324</v>
       </c>
       <c r="J103" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="104" spans="2:18">
@@ -11070,7 +11086,7 @@
     </row>
     <row r="109" spans="2:18">
       <c r="B109" s="62" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
@@ -11078,12 +11094,12 @@
       <c r="G109" s="43"/>
       <c r="H109" s="44"/>
       <c r="J109" s="62" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="110" spans="2:18">
       <c r="B110" s="62" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
@@ -11091,7 +11107,7 @@
       <c r="G110" s="43"/>
       <c r="H110" s="44"/>
       <c r="J110" s="62" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="111" spans="2:18">
@@ -11111,7 +11127,7 @@
         <v>326</v>
       </c>
       <c r="G111" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H111" s="38" t="s">
         <v>13</v>
@@ -11148,7 +11164,7 @@
     </row>
     <row r="113" spans="2:18" ht="15">
       <c r="B113" s="55" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>39</v>
@@ -11163,7 +11179,7 @@
       <c r="G113" s="38"/>
       <c r="H113" s="38"/>
       <c r="J113" s="55" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="114" spans="2:18" ht="28.8">
@@ -11182,7 +11198,7 @@
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="56" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J114" s="55" t="s">
         <v>347</v>
@@ -11190,7 +11206,7 @@
     </row>
     <row r="115" spans="2:18">
       <c r="B115" s="55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C115" s="39" t="s">
         <v>206</v>
@@ -11205,12 +11221,12 @@
       <c r="G115" s="38"/>
       <c r="H115" s="40"/>
       <c r="J115" s="55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="2:18">
       <c r="B116" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C116" s="39" t="s">
         <v>266</v>
@@ -11225,15 +11241,15 @@
       <c r="G116" s="38"/>
       <c r="H116" s="38"/>
       <c r="J116" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="2:18">
       <c r="B117" s="51" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D117" s="55" t="s">
         <v>301</v>
@@ -11245,7 +11261,7 @@
       <c r="G117" s="38"/>
       <c r="H117" s="38"/>
       <c r="J117" s="51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="118" spans="2:18">
@@ -11265,7 +11281,7 @@
       <c r="G118" s="55"/>
       <c r="H118" s="55"/>
       <c r="J118" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="119" spans="2:18">
@@ -11287,7 +11303,7 @@
         <v>324</v>
       </c>
       <c r="J119" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="120" spans="2:18">
@@ -11340,19 +11356,19 @@
     </row>
     <row r="125" spans="2:18">
       <c r="B125" s="48" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C125" s="48"/>
       <c r="J125" s="48" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="126" spans="2:18">
       <c r="B126" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J126" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="127" spans="2:18">
@@ -11372,7 +11388,7 @@
         <v>326</v>
       </c>
       <c r="G127" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H127" s="38" t="s">
         <v>13</v>
@@ -11409,10 +11425,10 @@
     </row>
     <row r="129" spans="2:21" ht="15">
       <c r="B129" s="55" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C129" s="55" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D129" s="61" t="s">
         <v>301</v>
@@ -11424,7 +11440,7 @@
       <c r="G129" s="38"/>
       <c r="H129" s="38"/>
       <c r="J129" s="55" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="2:21" ht="15">
@@ -11444,12 +11460,12 @@
       <c r="G130" s="38"/>
       <c r="H130" s="38"/>
       <c r="J130" s="55" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="2:21" ht="15">
       <c r="B131" s="55" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C131" s="39" t="s">
         <v>21</v>
@@ -11464,7 +11480,7 @@
       <c r="G131" s="38"/>
       <c r="H131" s="40"/>
       <c r="J131" s="55" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K131" s="65"/>
       <c r="L131" s="65"/>
@@ -11478,7 +11494,7 @@
     </row>
     <row r="132" spans="2:21" ht="15">
       <c r="B132" s="55" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C132" s="39" t="s">
         <v>28</v>
@@ -11493,7 +11509,7 @@
       <c r="G132" s="38"/>
       <c r="H132" s="38"/>
       <c r="J132" s="55" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K132" s="65"/>
       <c r="L132" s="65"/>
@@ -11522,7 +11538,7 @@
       <c r="G133" s="38"/>
       <c r="H133" s="40"/>
       <c r="J133" s="51" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="2:21" ht="15">
@@ -11544,7 +11560,7 @@
         <v>63</v>
       </c>
       <c r="J134" s="51" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="135" spans="2:21">
@@ -11583,7 +11599,7 @@
         <v>352</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D136" s="55" t="s">
         <v>351</v>
@@ -11595,7 +11611,7 @@
       <c r="G136" s="38"/>
       <c r="H136" s="38"/>
       <c r="J136" s="51" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="137" spans="2:21">
@@ -11603,7 +11619,7 @@
         <v>353</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D137" s="55" t="s">
         <v>351</v>
@@ -11615,12 +11631,12 @@
       <c r="G137" s="38"/>
       <c r="H137" s="38"/>
       <c r="J137" s="51" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="138" spans="2:21" ht="15">
       <c r="B138" s="51" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C138" s="39" t="s">
         <v>276</v>
@@ -11635,7 +11651,7 @@
       <c r="G138" s="38"/>
       <c r="H138" s="38"/>
       <c r="J138" s="51" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K138" s="49"/>
       <c r="L138" s="49"/>
@@ -11651,7 +11667,7 @@
     </row>
     <row r="139" spans="2:21">
       <c r="B139" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C139" s="39" t="s">
         <v>288</v>
@@ -11666,7 +11682,7 @@
       <c r="G139" s="38"/>
       <c r="H139" s="38"/>
       <c r="J139" s="55" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K139" s="49"/>
       <c r="L139" s="49"/>
@@ -11682,7 +11698,7 @@
     </row>
     <row r="140" spans="2:21">
       <c r="B140" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C140" s="39" t="s">
         <v>255</v>
@@ -11699,7 +11715,7 @@
         <v>236</v>
       </c>
       <c r="J140" s="55" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K140" s="49"/>
       <c r="L140" s="49"/>
@@ -11715,7 +11731,7 @@
     </row>
     <row r="141" spans="2:21" ht="15">
       <c r="B141" s="55" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C141" s="39" t="s">
         <v>242</v>
@@ -11732,7 +11748,7 @@
         <v>256</v>
       </c>
       <c r="J141" s="55" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K141" s="49"/>
       <c r="L141" s="49"/>
@@ -11748,7 +11764,7 @@
     </row>
     <row r="142" spans="2:21">
       <c r="B142" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C142" s="39" t="s">
         <v>66</v>
@@ -11763,12 +11779,12 @@
       <c r="G142" s="38"/>
       <c r="H142" s="38"/>
       <c r="J142" s="55" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" spans="2:21">
       <c r="B143" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C143" s="39" t="s">
         <v>67</v>
@@ -11783,12 +11799,12 @@
       <c r="G143" s="38"/>
       <c r="H143" s="38"/>
       <c r="J143" s="55" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="2:21">
       <c r="B144" s="55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C144" s="39" t="s">
         <v>68</v>
@@ -11803,12 +11819,12 @@
       <c r="G144" s="38"/>
       <c r="H144" s="38"/>
       <c r="J144" s="55" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="145" spans="2:18">
       <c r="B145" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C145" s="39" t="s">
         <v>69</v>
@@ -11823,12 +11839,12 @@
       <c r="G145" s="38"/>
       <c r="H145" s="38"/>
       <c r="J145" s="55" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="146" spans="2:18">
       <c r="B146" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C146" s="39" t="s">
         <v>70</v>
@@ -11843,12 +11859,12 @@
       <c r="G146" s="38"/>
       <c r="H146" s="38"/>
       <c r="J146" s="55" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="147" spans="2:18">
       <c r="B147" s="55" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C147" s="39" t="s">
         <v>71</v>
@@ -11863,12 +11879,12 @@
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
       <c r="J147" s="55" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="148" spans="2:18">
       <c r="B148" s="55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C148" s="39" t="s">
         <v>72</v>
@@ -11883,12 +11899,12 @@
       <c r="G148" s="38"/>
       <c r="H148" s="38"/>
       <c r="J148" s="55" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="2:18">
       <c r="B149" s="55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C149" s="39" t="s">
         <v>73</v>
@@ -11903,12 +11919,12 @@
       <c r="G149" s="38"/>
       <c r="H149" s="38"/>
       <c r="J149" s="55" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="150" spans="2:18">
       <c r="B150" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C150" s="39" t="s">
         <v>225</v>
@@ -11923,7 +11939,7 @@
       <c r="G150" s="38"/>
       <c r="H150" s="38"/>
       <c r="J150" s="55" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="2:18" ht="28.8">
@@ -11931,7 +11947,7 @@
         <v>344</v>
       </c>
       <c r="C151" s="39" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D151" s="55" t="s">
         <v>301</v>
@@ -11942,7 +11958,7 @@
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
       <c r="H151" s="56" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J151" s="55" t="s">
         <v>344</v>
@@ -11950,7 +11966,7 @@
     </row>
     <row r="152" spans="2:18">
       <c r="B152" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C152" s="39" t="s">
         <v>266</v>
@@ -11965,15 +11981,15 @@
       <c r="G152" s="38"/>
       <c r="H152" s="38"/>
       <c r="J152" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="153" spans="2:18">
       <c r="B153" s="51" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C153" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D153" s="55" t="s">
         <v>301</v>
@@ -11985,7 +12001,7 @@
       <c r="G153" s="38"/>
       <c r="H153" s="38"/>
       <c r="J153" s="51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="154" spans="2:18">
@@ -12005,7 +12021,7 @@
       <c r="G154" s="55"/>
       <c r="H154" s="55"/>
       <c r="J154" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="155" spans="2:18">
@@ -12027,7 +12043,7 @@
         <v>324</v>
       </c>
       <c r="J155" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="156" spans="2:18">
@@ -12068,10 +12084,10 @@
     </row>
     <row r="161" spans="2:18">
       <c r="B161" s="48" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J161" s="48" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="162" spans="2:18">
@@ -12091,7 +12107,7 @@
         <v>326</v>
       </c>
       <c r="G162" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H162" s="38" t="s">
         <v>13</v>
@@ -12128,7 +12144,7 @@
     </row>
     <row r="164" spans="2:18" ht="15">
       <c r="B164" s="55" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C164" s="38" t="s">
         <v>275</v>
@@ -12143,7 +12159,7 @@
       <c r="G164" s="38"/>
       <c r="H164" s="38"/>
       <c r="J164" s="55" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="165" spans="2:18" ht="15">
@@ -12163,12 +12179,12 @@
       <c r="G165" s="38"/>
       <c r="H165" s="38"/>
       <c r="J165" s="55" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="166" spans="2:18" ht="28.8">
       <c r="B166" s="51" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C166" s="39" t="s">
         <v>248</v>
@@ -12182,10 +12198,10 @@
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
       <c r="H166" s="56" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J166" s="51" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K166" s="59"/>
       <c r="L166" s="59"/>
@@ -12198,7 +12214,7 @@
     </row>
     <row r="167" spans="2:18" ht="28.8">
       <c r="B167" s="52" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C167" s="54" t="s">
         <v>191</v>
@@ -12212,10 +12228,10 @@
       <c r="F167" s="53"/>
       <c r="G167" s="53"/>
       <c r="H167" s="58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J167" s="52" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="168" spans="2:18" ht="69.599999999999994" customHeight="1">
@@ -12223,7 +12239,7 @@
         <v>347</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D168" s="61" t="s">
         <v>301</v>
@@ -12234,7 +12250,7 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
       <c r="H168" s="56" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="J168" s="55" t="s">
         <v>347</v>
@@ -12242,10 +12258,10 @@
     </row>
     <row r="169" spans="2:18" ht="28.8">
       <c r="B169" s="55" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D169" s="61" t="s">
         <v>301</v>
@@ -12256,10 +12272,10 @@
       <c r="F169" s="38"/>
       <c r="G169" s="38"/>
       <c r="H169" s="56" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J169" s="55" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="170" spans="2:18">
@@ -12279,7 +12295,7 @@
       <c r="G170" s="38"/>
       <c r="H170" s="40"/>
       <c r="J170" s="51" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K170" s="59"/>
       <c r="L170" s="59"/>
@@ -12292,7 +12308,7 @@
     </row>
     <row r="171" spans="2:18">
       <c r="B171" s="51" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C171" s="39" t="s">
         <v>250</v>
@@ -12307,7 +12323,7 @@
       <c r="G171" s="38"/>
       <c r="H171" s="38"/>
       <c r="J171" s="51" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K171" s="49"/>
       <c r="L171" s="49"/>
@@ -12316,13 +12332,13 @@
     </row>
     <row r="172" spans="2:18" ht="28.8">
       <c r="B172" s="51" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C172" s="51" t="s">
         <v>190</v>
       </c>
       <c r="D172" s="55" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E172" s="55" t="s">
         <v>303</v>
@@ -12333,13 +12349,13 @@
         <v>249</v>
       </c>
       <c r="J172" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K172" s="48"/>
     </row>
     <row r="173" spans="2:18" ht="15">
       <c r="B173" s="51" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C173" s="51" t="s">
         <v>259</v>
@@ -12353,16 +12369,16 @@
       <c r="F173" s="38"/>
       <c r="G173" s="38"/>
       <c r="H173" s="56" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J173" s="51" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K173" s="48"/>
     </row>
     <row r="174" spans="2:18">
       <c r="B174" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C174" s="39" t="s">
         <v>266</v>
@@ -12377,15 +12393,15 @@
       <c r="G174" s="38"/>
       <c r="H174" s="38"/>
       <c r="J174" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="175" spans="2:18">
       <c r="B175" s="51" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C175" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D175" s="55" t="s">
         <v>301</v>
@@ -12397,7 +12413,7 @@
       <c r="G175" s="38"/>
       <c r="H175" s="38"/>
       <c r="J175" s="51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="176" spans="2:18">
@@ -12417,7 +12433,7 @@
       <c r="G176" s="55"/>
       <c r="H176" s="55"/>
       <c r="J176" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="2:18">
@@ -12439,7 +12455,7 @@
         <v>324</v>
       </c>
       <c r="J177" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="2:18">
@@ -12472,18 +12488,18 @@
     </row>
     <row r="181" spans="2:18">
       <c r="B181" s="48" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J181" s="48" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="48" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J182" s="48" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="183" spans="2:18">
@@ -12503,7 +12519,7 @@
         <v>326</v>
       </c>
       <c r="G183" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H183" s="38" t="s">
         <v>13</v>
@@ -12518,7 +12534,7 @@
         <v>346</v>
       </c>
       <c r="C184" s="55" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D184" s="61" t="s">
         <v>301</v>
@@ -12530,10 +12546,10 @@
         <v>312</v>
       </c>
       <c r="G184" s="55" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H184" s="56" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J184" s="55" t="s">
         <v>346</v>
@@ -12541,7 +12557,7 @@
     </row>
     <row r="185" spans="2:18" ht="43.2">
       <c r="B185" s="55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C185" s="38" t="s">
         <v>239</v>
@@ -12555,19 +12571,19 @@
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
       <c r="H185" s="56" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="J185" s="55" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K185" s="48"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="55" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D186" s="55" t="s">
         <v>336</v>
@@ -12585,7 +12601,7 @@
     </row>
     <row r="187" spans="2:18">
       <c r="B187" s="55" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C187" s="51" t="s">
         <v>257</v>
@@ -12602,12 +12618,12 @@
         <v>308</v>
       </c>
       <c r="J187" s="55" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="188" spans="2:18">
       <c r="B188" s="55" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C188" s="51" t="s">
         <v>258</v>
@@ -12624,15 +12640,15 @@
         <v>308</v>
       </c>
       <c r="J188" s="55" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="28.8">
       <c r="B189" s="55" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C189" s="51" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D189" s="61" t="s">
         <v>301</v>
@@ -12643,15 +12659,15 @@
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
       <c r="H189" s="56" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J189" s="55" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="190" spans="2:18" ht="15">
       <c r="B190" s="55" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C190" s="51" t="s">
         <v>260</v>
@@ -12665,18 +12681,18 @@
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
       <c r="H190" s="56" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J190" s="55" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="191" spans="2:18" ht="15">
       <c r="B191" s="55" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C191" s="51" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D191" s="61" t="s">
         <v>301</v>
@@ -12687,15 +12703,15 @@
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
       <c r="H191" s="56" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J191" s="55" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="192" spans="2:18">
       <c r="B192" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C192" s="39" t="s">
         <v>266</v>
@@ -12710,15 +12726,15 @@
       <c r="G192" s="38"/>
       <c r="H192" s="38"/>
       <c r="J192" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="193" spans="2:18">
       <c r="B193" s="51" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C193" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D193" s="55" t="s">
         <v>301</v>
@@ -12730,7 +12746,7 @@
       <c r="G193" s="38"/>
       <c r="H193" s="38"/>
       <c r="J193" s="51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="194" spans="2:18">
@@ -12750,7 +12766,7 @@
       <c r="G194" s="55"/>
       <c r="H194" s="55"/>
       <c r="J194" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="195" spans="2:18">
@@ -12772,7 +12788,7 @@
         <v>324</v>
       </c>
       <c r="J195" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="196" spans="2:18">
@@ -12780,7 +12796,7 @@
         <v>328</v>
       </c>
       <c r="C196" s="38" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D196" s="55" t="s">
         <v>329</v>
@@ -12792,7 +12808,7 @@
       <c r="G196" s="38"/>
       <c r="H196" s="38"/>
       <c r="J196" s="55" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K196" s="49"/>
       <c r="L196" s="50"/>
@@ -12835,18 +12851,18 @@
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="48" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J202" s="48" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203" spans="2:18">
       <c r="B203" s="48" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="J203" s="48" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="204" spans="2:18">
@@ -12866,7 +12882,7 @@
         <v>326</v>
       </c>
       <c r="G204" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H204" s="38" t="s">
         <v>13</v>
@@ -12918,15 +12934,15 @@
       <c r="G206" s="38"/>
       <c r="H206" s="38"/>
       <c r="J206" s="55" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="207" spans="2:18" ht="15">
       <c r="B207" s="55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C207" s="55" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D207" s="61" t="s">
         <v>301</v>
@@ -12940,12 +12956,12 @@
         <v>277</v>
       </c>
       <c r="J207" s="55" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="208" spans="2:18" ht="15">
       <c r="B208" s="62" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C208" s="55" t="s">
         <v>242</v>
@@ -12962,15 +12978,15 @@
         <v>265</v>
       </c>
       <c r="J208" s="62" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="209" spans="2:22">
       <c r="B209" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C209" s="51" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D209" s="55" t="s">
         <v>336</v>
@@ -12984,7 +13000,7 @@
         <v>278</v>
       </c>
       <c r="J209" s="55" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="210" spans="2:22">
@@ -13024,7 +13040,7 @@
       <c r="G211" s="38"/>
       <c r="H211" s="40"/>
       <c r="J211" s="51" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="2:22">
@@ -13044,7 +13060,7 @@
       <c r="G212" s="38"/>
       <c r="H212" s="38"/>
       <c r="J212" s="51" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="2:22">
@@ -13066,7 +13082,7 @@
         <v>263</v>
       </c>
       <c r="J213" s="51" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="214" spans="2:22">
@@ -13106,15 +13122,15 @@
       <c r="G215" s="38"/>
       <c r="H215" s="38"/>
       <c r="J215" s="51" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="2:22">
       <c r="B216" s="51" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C216" s="51" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D216" s="55" t="s">
         <v>301</v>
@@ -13125,10 +13141,10 @@
       <c r="F216" s="55"/>
       <c r="G216" s="55"/>
       <c r="H216" s="56" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J216" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K216" s="49"/>
       <c r="L216" s="49"/>
@@ -13145,7 +13161,7 @@
     </row>
     <row r="217" spans="2:22" ht="28.8">
       <c r="B217" s="51" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C217" s="39" t="s">
         <v>261</v>
@@ -13159,15 +13175,15 @@
       <c r="F217" s="38"/>
       <c r="G217" s="38"/>
       <c r="H217" s="56" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="J217" s="51" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="218" spans="2:22">
       <c r="B218" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C218" s="39" t="s">
         <v>270</v>
@@ -13181,18 +13197,18 @@
       <c r="F218" s="38"/>
       <c r="G218" s="38"/>
       <c r="H218" s="55" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J218" s="55" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="219" spans="2:22">
       <c r="B219" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C219" s="51" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D219" s="55" t="s">
         <v>301</v>
@@ -13204,12 +13220,12 @@
       <c r="G219" s="38"/>
       <c r="H219" s="38"/>
       <c r="J219" s="55" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="220" spans="2:22">
       <c r="B220" s="55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C220" s="39" t="s">
         <v>269</v>
@@ -13224,12 +13240,12 @@
       <c r="G220" s="38"/>
       <c r="H220" s="38"/>
       <c r="J220" s="55" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="221" spans="2:22">
       <c r="B221" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C221" s="39" t="s">
         <v>281</v>
@@ -13244,12 +13260,12 @@
       <c r="G221" s="38"/>
       <c r="H221" s="40"/>
       <c r="J221" s="55" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="222" spans="2:22">
       <c r="B222" s="55" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C222" s="39" t="s">
         <v>282</v>
@@ -13264,12 +13280,12 @@
       <c r="G222" s="38"/>
       <c r="H222" s="38"/>
       <c r="J222" s="55" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="223" spans="2:22">
       <c r="B223" s="55" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C223" s="39" t="s">
         <v>264</v>
@@ -13284,12 +13300,12 @@
       <c r="G223" s="38"/>
       <c r="H223" s="38"/>
       <c r="J223" s="55" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="224" spans="2:22" ht="28.8">
       <c r="B224" s="55" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C224" s="39" t="s">
         <v>283</v>
@@ -13306,12 +13322,12 @@
         <v>287</v>
       </c>
       <c r="J224" s="55" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="225" spans="2:19">
       <c r="B225" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C225" s="39" t="s">
         <v>266</v>
@@ -13326,15 +13342,15 @@
       <c r="G225" s="38"/>
       <c r="H225" s="38"/>
       <c r="J225" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="226" spans="2:19">
       <c r="B226" s="51" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C226" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D226" s="55" t="s">
         <v>301</v>
@@ -13346,7 +13362,7 @@
       <c r="G226" s="38"/>
       <c r="H226" s="38"/>
       <c r="J226" s="51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="227" spans="2:19">
@@ -13366,7 +13382,7 @@
       <c r="G227" s="55"/>
       <c r="H227" s="55"/>
       <c r="J227" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="228" spans="2:19">
@@ -13388,7 +13404,7 @@
         <v>324</v>
       </c>
       <c r="J228" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="229" spans="2:19">
@@ -13451,18 +13467,18 @@
     </row>
     <row r="234" spans="2:19">
       <c r="B234" s="48" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J234" s="48" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="235" spans="2:19">
       <c r="B235" s="48" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="J235" s="48" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="236" spans="2:19">
@@ -13482,7 +13498,7 @@
         <v>326</v>
       </c>
       <c r="G236" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H236" s="38" t="s">
         <v>13</v>
@@ -13519,7 +13535,7 @@
     </row>
     <row r="238" spans="2:19" ht="15">
       <c r="B238" s="55" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C238" s="55" t="s">
         <v>247</v>
@@ -13534,7 +13550,7 @@
       <c r="G238" s="38"/>
       <c r="H238" s="38"/>
       <c r="J238" s="55" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="239" spans="2:19" ht="15">
@@ -13554,15 +13570,15 @@
       <c r="G239" s="38"/>
       <c r="H239" s="38"/>
       <c r="J239" s="55" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="240" spans="2:19" ht="15">
       <c r="B240" s="55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C240" s="51" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D240" s="61" t="s">
         <v>301</v>
@@ -13574,7 +13590,7 @@
       <c r="G240" s="38"/>
       <c r="H240" s="38"/>
       <c r="J240" s="55" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K240" s="65"/>
       <c r="L240" s="65"/>
@@ -13605,12 +13621,12 @@
         <v>63</v>
       </c>
       <c r="J241" s="51" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="242" spans="2:21">
       <c r="B242" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C242" s="39" t="s">
         <v>291</v>
@@ -13625,7 +13641,7 @@
       <c r="G242" s="38"/>
       <c r="H242" s="38"/>
       <c r="J242" s="55" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K242" s="49"/>
       <c r="L242" s="49"/>
@@ -13675,7 +13691,7 @@
         <v>352</v>
       </c>
       <c r="C244" s="51" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D244" s="55" t="s">
         <v>351</v>
@@ -13687,7 +13703,7 @@
       <c r="G244" s="38"/>
       <c r="H244" s="38"/>
       <c r="J244" s="51" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="245" spans="2:21">
@@ -13695,7 +13711,7 @@
         <v>353</v>
       </c>
       <c r="C245" s="51" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D245" s="55" t="s">
         <v>351</v>
@@ -13707,12 +13723,12 @@
       <c r="G245" s="38"/>
       <c r="H245" s="38"/>
       <c r="J245" s="51" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="246" spans="2:21" ht="15">
       <c r="B246" s="51" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C246" s="39" t="s">
         <v>276</v>
@@ -13727,7 +13743,7 @@
       <c r="G246" s="38"/>
       <c r="H246" s="38"/>
       <c r="J246" s="51" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K246" s="49"/>
       <c r="L246" s="49"/>
@@ -13743,7 +13759,7 @@
     </row>
     <row r="247" spans="2:21">
       <c r="B247" s="51" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C247" s="51" t="s">
         <v>289</v>
@@ -13758,7 +13774,7 @@
       <c r="G247" s="38"/>
       <c r="H247" s="38"/>
       <c r="J247" s="51" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K247" s="49"/>
       <c r="L247" s="49"/>
@@ -13774,7 +13790,7 @@
     </row>
     <row r="248" spans="2:21">
       <c r="B248" s="51" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C248" s="39" t="s">
         <v>290</v>
@@ -13789,12 +13805,12 @@
       <c r="G248" s="38"/>
       <c r="H248" s="38"/>
       <c r="J248" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="249" spans="2:21">
       <c r="B249" s="51" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C249" s="39" t="s">
         <v>292</v>
@@ -13809,7 +13825,7 @@
       <c r="G249" s="38"/>
       <c r="H249" s="38"/>
       <c r="J249" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="250" spans="2:21" ht="15">
@@ -13828,7 +13844,7 @@
       <c r="F250" s="38"/>
       <c r="G250" s="38"/>
       <c r="H250" s="56" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="J250" s="55" t="s">
         <v>344</v>
@@ -13836,7 +13852,7 @@
     </row>
     <row r="251" spans="2:21">
       <c r="B251" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C251" s="39" t="s">
         <v>266</v>
@@ -13851,15 +13867,15 @@
       <c r="G251" s="38"/>
       <c r="H251" s="38"/>
       <c r="J251" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="252" spans="2:21">
       <c r="B252" s="51" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D252" s="55" t="s">
         <v>301</v>
@@ -13871,7 +13887,7 @@
       <c r="G252" s="38"/>
       <c r="H252" s="38"/>
       <c r="J252" s="51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="253" spans="2:21">
@@ -13891,7 +13907,7 @@
       <c r="G253" s="55"/>
       <c r="H253" s="55"/>
       <c r="J253" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="254" spans="2:21">
@@ -13913,7 +13929,7 @@
         <v>324</v>
       </c>
       <c r="J254" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="255" spans="2:21">
@@ -13984,10 +14000,10 @@
     </row>
     <row r="261" spans="2:11">
       <c r="B261" s="48" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J261" s="48" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="262" spans="2:11">
@@ -14007,7 +14023,7 @@
         <v>326</v>
       </c>
       <c r="G262" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H262" s="38" t="s">
         <v>13</v>
@@ -14044,7 +14060,7 @@
     </row>
     <row r="264" spans="2:11" ht="15">
       <c r="B264" s="55" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C264" s="55" t="s">
         <v>191</v>
@@ -14058,18 +14074,18 @@
       <c r="F264" s="38"/>
       <c r="G264" s="38"/>
       <c r="H264" s="55" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J264" s="55" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="265" spans="2:11">
       <c r="B265" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C265" s="51" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D265" s="55" t="s">
         <v>336</v>
@@ -14080,15 +14096,15 @@
       <c r="F265" s="38"/>
       <c r="G265" s="38"/>
       <c r="H265" s="55" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J265" s="55" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="266" spans="2:11">
       <c r="B266" s="51" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C266" s="39" t="s">
         <v>273</v>
@@ -14103,7 +14119,7 @@
       <c r="G266" s="38"/>
       <c r="H266" s="40"/>
       <c r="J266" s="51" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="267" spans="2:11" ht="43.2">
@@ -14122,7 +14138,7 @@
       <c r="F267" s="38"/>
       <c r="G267" s="38"/>
       <c r="H267" s="56" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J267" s="51" t="s">
         <v>347</v>
@@ -14130,7 +14146,7 @@
     </row>
     <row r="268" spans="2:11" ht="15">
       <c r="B268" s="51" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C268" s="51" t="s">
         <v>261</v>
@@ -14144,16 +14160,16 @@
       <c r="F268" s="38"/>
       <c r="G268" s="38"/>
       <c r="H268" s="56" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J268" s="51" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K268" s="48"/>
     </row>
     <row r="269" spans="2:11">
       <c r="B269" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C269" s="39" t="s">
         <v>266</v>
@@ -14168,15 +14184,15 @@
       <c r="G269" s="38"/>
       <c r="H269" s="38"/>
       <c r="J269" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="270" spans="2:11">
       <c r="B270" s="51" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C270" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D270" s="55" t="s">
         <v>301</v>
@@ -14188,7 +14204,7 @@
       <c r="G270" s="38"/>
       <c r="H270" s="38"/>
       <c r="J270" s="51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="271" spans="2:11">
@@ -14208,7 +14224,7 @@
       <c r="G271" s="55"/>
       <c r="H271" s="55"/>
       <c r="J271" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="272" spans="2:11">
@@ -14230,7 +14246,7 @@
         <v>324</v>
       </c>
       <c r="J272" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="273" spans="2:18">
@@ -14281,10 +14297,10 @@
     </row>
     <row r="279" spans="2:18">
       <c r="B279" s="48" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="J279" s="48" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="280" spans="2:18">
@@ -14304,7 +14320,7 @@
         <v>326</v>
       </c>
       <c r="G280" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H280" s="38" t="s">
         <v>13</v>
@@ -14318,7 +14334,7 @@
         <v>346</v>
       </c>
       <c r="C281" s="55" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D281" s="61" t="s">
         <v>301</v>
@@ -14341,7 +14357,7 @@
     </row>
     <row r="282" spans="2:18" ht="15">
       <c r="B282" s="62" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C282" s="55" t="s">
         <v>242</v>
@@ -14356,15 +14372,15 @@
       <c r="G282" s="38"/>
       <c r="H282" s="38"/>
       <c r="J282" s="62" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="283" spans="2:18" ht="15">
       <c r="B283" s="55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C283" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D283" s="61" t="s">
         <v>301</v>
@@ -14376,12 +14392,12 @@
       <c r="G283" s="38"/>
       <c r="H283" s="38"/>
       <c r="J283" s="55" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="284" spans="2:18">
       <c r="B284" s="51" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C284" s="39" t="s">
         <v>273</v>
@@ -14396,12 +14412,12 @@
       <c r="G284" s="38"/>
       <c r="H284" s="40"/>
       <c r="J284" s="51" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="285" spans="2:18" ht="28.8">
       <c r="B285" s="51" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C285" s="39" t="s">
         <v>274</v>
@@ -14415,15 +14431,15 @@
       <c r="F285" s="38"/>
       <c r="G285" s="38"/>
       <c r="H285" s="56" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="J285" s="51" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="286" spans="2:18" ht="15">
       <c r="B286" s="51" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C286" s="51" t="s">
         <v>261</v>
@@ -14437,16 +14453,16 @@
       <c r="F286" s="38"/>
       <c r="G286" s="38"/>
       <c r="H286" s="56" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J286" s="51" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K286" s="48"/>
     </row>
     <row r="287" spans="2:18">
       <c r="B287" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C287" s="39" t="s">
         <v>266</v>
@@ -14461,15 +14477,15 @@
       <c r="G287" s="38"/>
       <c r="H287" s="38"/>
       <c r="J287" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="288" spans="2:18">
       <c r="B288" s="51" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C288" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D288" s="55" t="s">
         <v>301</v>
@@ -14481,7 +14497,7 @@
       <c r="G288" s="38"/>
       <c r="H288" s="38"/>
       <c r="J288" s="51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="289" spans="2:18">
@@ -14501,7 +14517,7 @@
       <c r="G289" s="55"/>
       <c r="H289" s="55"/>
       <c r="J289" s="51" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="290" spans="2:18">
@@ -14523,7 +14539,7 @@
         <v>324</v>
       </c>
       <c r="J290" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="291" spans="2:18">
@@ -14597,12 +14613,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="48" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="48" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -14622,7 +14638,7 @@
         <v>326</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>13</v>
@@ -14656,7 +14672,7 @@
         <v>239</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>301</v>
@@ -14667,7 +14683,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="56" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -14675,7 +14691,7 @@
         <v>257</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>306</v>
@@ -14694,7 +14710,7 @@
         <v>258</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>306</v>
@@ -14710,10 +14726,10 @@
     </row>
     <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="51" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C8" s="61" t="s">
         <v>301</v>
@@ -14724,7 +14740,7 @@
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="56" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -14732,7 +14748,7 @@
         <v>260</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>301</v>
@@ -14741,7 +14757,7 @@
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="56" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/doc/需求讨论_表定义.xlsx
+++ b/doc/需求讨论_表定义.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="648">
   <si>
     <t>1 我的想法是抛开你这个表的情况，先以你为维度登记处理下整个的贷款周期内的各种事情，比如合同登记、放款、还款、逾期、提前还款等等</t>
   </si>
@@ -3202,9 +3202,6 @@
     <t>isPen</t>
   </si>
   <si>
-    <t>schdPrin</t>
-  </si>
-  <si>
     <t>schdPen</t>
   </si>
   <si>
@@ -3239,9 +3236,6 @@
   </si>
   <si>
     <t>serviceFeeScale</t>
-  </si>
-  <si>
-    <t>schdServFee</t>
   </si>
   <si>
     <t>totPaidServFee</t>
@@ -3579,10 +3573,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>1:放款,2:还款,3:服务费收取,4:服务费补偿,5:支出,6:融资,7:撤资,8:收入,9:资金登记,10:转账,11:提现,12:结转,13:代偿,14:提前还款</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>处理中:0,成功:1,失败:2</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3685,10 +3675,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>contrNo</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3770,10 +3756,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>loanType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>repayType</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3786,10 +3768,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>penNumber</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>利率</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3803,14 +3781,6 @@
   </si>
   <si>
     <t>termNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceFeeType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务费收取方式</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -3857,15 +3827,7 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>schdInterest</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>productNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>custNo</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -3952,6 +3914,67 @@
   </si>
   <si>
     <t>serviceFeeScale</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schdPrin</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schdInterest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>schdServFee</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceFeeType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>penNumber</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费收取方式</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:放款,2:还款,3:服务费收取,4:服务费补偿,5:支出,6:融资,7:撤资,8:收入,9:资金登记,10:转账,11:提现,12:结转,13:代偿,14:提前还款,15:借据登记,16:融资登记</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>egin_date</t>
+    </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -4553,74 +4576,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4723,6 +4680,72 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6988,29 +7011,29 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="M1" s="68" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="M1" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
       <c r="W1" s="19" t="s">
         <v>97</v>
       </c>
@@ -7019,18 +7042,18 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="L2" s="76" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="L2" s="67" t="s">
         <v>98</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -7071,18 +7094,18 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="L3" s="76"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="L3" s="67"/>
       <c r="M3" s="6">
         <v>1</v>
       </c>
@@ -7119,21 +7142,21 @@
       <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
-      <c r="L4" s="76"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="6">
         <v>2</v>
       </c>
@@ -7170,17 +7193,17 @@
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="86"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
-      <c r="L5" s="76"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="74"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="6">
         <v>3</v>
       </c>
@@ -7216,17 +7239,17 @@
       <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="87"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
-      <c r="L6" s="76"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
+      <c r="L6" s="67"/>
       <c r="M6" s="6">
         <v>4</v>
       </c>
@@ -7260,21 +7283,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
-      <c r="L7" s="76"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="6">
         <v>5</v>
       </c>
@@ -7308,17 +7331,17 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="86"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-      <c r="L8" s="76"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="6">
         <v>6</v>
       </c>
@@ -7354,17 +7377,17 @@
       <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="86"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-      <c r="L9" s="76"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="6">
         <v>7</v>
       </c>
@@ -7400,17 +7423,17 @@
       <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="86"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="105"/>
-      <c r="L10" s="76"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="6">
         <v>8</v>
       </c>
@@ -7446,17 +7469,17 @@
       <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="87"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="108"/>
-      <c r="L11" s="76"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="6">
         <v>9</v>
       </c>
@@ -7490,21 +7513,21 @@
       <c r="W11" s="11"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
-      <c r="L12" s="76"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="89"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="6">
         <v>10</v>
       </c>
@@ -7540,17 +7563,17 @@
       <c r="W12" s="11"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="86"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
-      <c r="L13" s="76"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
+      <c r="L13" s="67"/>
       <c r="M13" s="6">
         <v>11</v>
       </c>
@@ -7586,17 +7609,17 @@
       <c r="W13" s="11"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="86"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
-      <c r="L14" s="76"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="92"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="6">
         <v>12</v>
       </c>
@@ -7632,17 +7655,17 @@
       <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="86"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
-      <c r="L15" s="76"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="92"/>
+      <c r="L15" s="67"/>
       <c r="M15" s="6">
         <v>13</v>
       </c>
@@ -7676,17 +7699,17 @@
       <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="86"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="114"/>
-      <c r="L16" s="76"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92"/>
+      <c r="L16" s="67"/>
       <c r="M16" s="6">
         <v>14</v>
       </c>
@@ -7720,17 +7743,17 @@
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="87"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="117"/>
-      <c r="L17" s="76"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
+      <c r="L17" s="67"/>
       <c r="M17" s="6">
         <v>15</v>
       </c>
@@ -7756,21 +7779,21 @@
       <c r="W17" s="11"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="120"/>
-      <c r="L18" s="76"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="L18" s="67"/>
       <c r="M18" s="6">
         <v>16</v>
       </c>
@@ -7796,17 +7819,17 @@
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="89"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="123"/>
-      <c r="L19" s="76"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="101"/>
+      <c r="L19" s="67"/>
       <c r="M19" s="6">
         <v>17</v>
       </c>
@@ -7833,16 +7856,16 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="L20" s="76"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="6"/>
       <c r="N20" s="11"/>
       <c r="O20" s="12"/>
@@ -7865,16 +7888,16 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="1"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="L21" s="76"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="L21" s="67"/>
       <c r="M21" s="6"/>
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
@@ -7897,16 +7920,16 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="L22" s="76"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="L22" s="67"/>
       <c r="M22" s="6"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
@@ -7929,16 +7952,16 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="1"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="L23" s="76"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="L23" s="67"/>
       <c r="M23" s="6"/>
       <c r="N23" s="11"/>
       <c r="O23" s="12"/>
@@ -7961,16 +7984,16 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="1"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="L24" s="76"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="6"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
@@ -7993,16 +8016,16 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="L25" s="76"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="L25" s="67"/>
       <c r="M25" s="6"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
@@ -8025,16 +8048,16 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="1"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="L26" s="76"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="6" t="s">
         <v>143</v>
       </c>
@@ -8069,115 +8092,115 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="1"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="1"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="1"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="1"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="1"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="N33" s="71" t="s">
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="N33" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
       <c r="X33" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="1"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="M34" s="76" t="s">
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="M34" s="67" t="s">
         <v>119</v>
       </c>
       <c r="N34" s="6" t="s">
@@ -8186,10 +8209,10 @@
       <c r="O34" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="P34" s="72" t="s">
+      <c r="P34" s="119" t="s">
         <v>146</v>
       </c>
-      <c r="Q34" s="73"/>
+      <c r="Q34" s="120"/>
       <c r="R34" s="27" t="s">
         <v>147</v>
       </c>
@@ -8199,10 +8222,10 @@
       <c r="T34" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="U34" s="74" t="s">
+      <c r="U34" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="V34" s="75"/>
+      <c r="V34" s="117"/>
       <c r="W34" s="12" t="s">
         <v>151</v>
       </c>
@@ -8212,16 +8235,16 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="1"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="M35" s="76"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="M35" s="67"/>
       <c r="N35" s="6">
         <v>1</v>
       </c>
@@ -8244,11 +8267,11 @@
       <c r="T35" s="27">
         <v>0</v>
       </c>
-      <c r="U35" s="74">
+      <c r="U35" s="116">
         <f>SUM(U36:U44)</f>
         <v>-162944</v>
       </c>
-      <c r="V35" s="75"/>
+      <c r="V35" s="117"/>
       <c r="W35" s="12">
         <f>O35+Q35+R35+S35-T35+U35</f>
         <v>-662731.32999999996</v>
@@ -8257,16 +8280,16 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="1"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="M36" s="76"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="M36" s="67"/>
       <c r="N36" s="6">
         <v>2</v>
       </c>
@@ -8291,16 +8314,16 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="1"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="M37" s="76"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="M37" s="67"/>
       <c r="N37" s="6">
         <v>3</v>
       </c>
@@ -8325,16 +8348,16 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="1"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="M38" s="76"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="M38" s="67"/>
       <c r="N38" s="6">
         <v>4</v>
       </c>
@@ -8354,7 +8377,7 @@
       <c r="X38" s="12"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="M39" s="76"/>
+      <c r="M39" s="67"/>
       <c r="N39" s="6">
         <v>5</v>
       </c>
@@ -8384,7 +8407,7 @@
       <c r="G40" s="49"/>
       <c r="H40" s="49"/>
       <c r="I40" s="49"/>
-      <c r="M40" s="76"/>
+      <c r="M40" s="67"/>
       <c r="N40" s="6">
         <v>6</v>
       </c>
@@ -8405,7 +8428,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="B41" s="48"/>
-      <c r="M41" s="76"/>
+      <c r="M41" s="67"/>
       <c r="N41" s="6">
         <v>7</v>
       </c>
@@ -8425,7 +8448,7 @@
       <c r="X41" s="12"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="M42" s="76"/>
+      <c r="M42" s="67"/>
       <c r="N42" s="6">
         <v>8</v>
       </c>
@@ -8458,7 +8481,7 @@
       <c r="J43" s="49"/>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
-      <c r="M43" s="76"/>
+      <c r="M43" s="67"/>
       <c r="N43" s="6">
         <v>9</v>
       </c>
@@ -8496,7 +8519,7 @@
       <c r="J44" s="49"/>
       <c r="K44" s="49"/>
       <c r="L44" s="49"/>
-      <c r="M44" s="76"/>
+      <c r="M44" s="67"/>
       <c r="N44" s="6">
         <v>10</v>
       </c>
@@ -8517,22 +8540,22 @@
       </c>
     </row>
     <row r="49" spans="13:24">
-      <c r="N49" s="77" t="s">
+      <c r="N49" s="114" t="s">
         <v>297</v>
       </c>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
-      <c r="V49" s="78"/>
-      <c r="W49" s="78"/>
-      <c r="X49" s="78"/>
+      <c r="O49" s="115"/>
+      <c r="P49" s="115"/>
+      <c r="Q49" s="115"/>
+      <c r="R49" s="115"/>
+      <c r="S49" s="115"/>
+      <c r="T49" s="115"/>
+      <c r="U49" s="115"/>
+      <c r="V49" s="115"/>
+      <c r="W49" s="115"/>
+      <c r="X49" s="115"/>
     </row>
     <row r="50" spans="13:24">
-      <c r="M50" s="76" t="s">
+      <c r="M50" s="67" t="s">
         <v>296</v>
       </c>
       <c r="N50" s="15"/>
@@ -8550,13 +8573,13 @@
         <v>167</v>
       </c>
       <c r="V50" s="17"/>
-      <c r="W50" s="79" t="s">
+      <c r="W50" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="X50" s="80"/>
+      <c r="X50" s="113"/>
     </row>
     <row r="51" spans="13:24">
-      <c r="M51" s="90"/>
+      <c r="M51" s="68"/>
       <c r="N51" s="17">
         <v>7</v>
       </c>
@@ -8574,13 +8597,13 @@
       <c r="V51" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="W51" s="79">
+      <c r="W51" s="112">
         <v>22000</v>
       </c>
-      <c r="X51" s="80"/>
+      <c r="X51" s="113"/>
     </row>
     <row r="52" spans="13:24">
-      <c r="M52" s="90"/>
+      <c r="M52" s="68"/>
       <c r="N52" s="17">
         <v>8</v>
       </c>
@@ -8598,13 +8621,13 @@
       <c r="V52" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="W52" s="79">
+      <c r="W52" s="112">
         <v>18000</v>
       </c>
-      <c r="X52" s="80"/>
+      <c r="X52" s="113"/>
     </row>
     <row r="53" spans="13:24">
-      <c r="M53" s="90"/>
+      <c r="M53" s="68"/>
       <c r="N53" s="17">
         <v>9</v>
       </c>
@@ -8622,13 +8645,13 @@
       <c r="V53" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="W53" s="79">
+      <c r="W53" s="112">
         <v>18000</v>
       </c>
-      <c r="X53" s="80"/>
+      <c r="X53" s="113"/>
     </row>
     <row r="54" spans="13:24">
-      <c r="M54" s="90"/>
+      <c r="M54" s="68"/>
       <c r="N54" s="17">
         <v>10</v>
       </c>
@@ -8646,13 +8669,13 @@
       <c r="V54" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="W54" s="79">
+      <c r="W54" s="112">
         <v>18000</v>
       </c>
-      <c r="X54" s="80"/>
+      <c r="X54" s="113"/>
     </row>
     <row r="55" spans="13:24">
-      <c r="M55" s="90"/>
+      <c r="M55" s="68"/>
       <c r="N55" s="17">
         <v>11</v>
       </c>
@@ -8670,13 +8693,13 @@
       <c r="V55" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="W55" s="79">
+      <c r="W55" s="112">
         <v>18000</v>
       </c>
-      <c r="X55" s="80"/>
+      <c r="X55" s="113"/>
     </row>
     <row r="56" spans="13:24">
-      <c r="M56" s="90"/>
+      <c r="M56" s="68"/>
       <c r="N56" s="17">
         <v>12</v>
       </c>
@@ -8694,13 +8717,13 @@
       <c r="V56" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="112">
         <v>162944</v>
       </c>
-      <c r="X56" s="80"/>
+      <c r="X56" s="113"/>
     </row>
     <row r="57" spans="13:24">
-      <c r="M57" s="90"/>
+      <c r="M57" s="68"/>
       <c r="N57" s="17">
         <v>13</v>
       </c>
@@ -8716,11 +8739,11 @@
       <c r="V57" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="W57" s="79"/>
-      <c r="X57" s="80"/>
+      <c r="W57" s="112"/>
+      <c r="X57" s="113"/>
     </row>
     <row r="58" spans="13:24">
-      <c r="M58" s="90"/>
+      <c r="M58" s="68"/>
       <c r="N58" s="17">
         <v>14</v>
       </c>
@@ -8741,59 +8764,59 @@
       <c r="V58" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="W58" s="79"/>
-      <c r="X58" s="80"/>
+      <c r="W58" s="112"/>
+      <c r="X58" s="113"/>
     </row>
     <row r="59" spans="13:24">
-      <c r="M59" s="90"/>
+      <c r="M59" s="68"/>
       <c r="N59" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="O59" s="81"/>
-      <c r="P59" s="82"/>
-      <c r="Q59" s="83"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="109"/>
+      <c r="Q59" s="110"/>
       <c r="R59" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="S59" s="81">
+      <c r="S59" s="108">
         <f>S58+T58</f>
         <v>8533000</v>
       </c>
-      <c r="T59" s="83"/>
+      <c r="T59" s="110"/>
       <c r="U59" s="18">
         <f>U51+U52+U53+U54+U55+U56+U57+U58+W58</f>
         <v>582156</v>
       </c>
       <c r="V59" s="18"/>
-      <c r="W59" s="81">
+      <c r="W59" s="108">
         <f>SUM(W51:W58)</f>
         <v>256944</v>
       </c>
-      <c r="X59" s="83"/>
+      <c r="X59" s="110"/>
     </row>
     <row r="60" spans="13:24">
-      <c r="M60" s="90"/>
+      <c r="M60" s="68"/>
       <c r="N60" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="O60" s="84" t="s">
+      <c r="O60" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="P60" s="82"/>
-      <c r="Q60" s="82"/>
-      <c r="R60" s="83"/>
-      <c r="S60" s="81">
+      <c r="P60" s="109"/>
+      <c r="Q60" s="109"/>
+      <c r="R60" s="110"/>
+      <c r="S60" s="108">
         <f>S59-U59</f>
         <v>7950844</v>
       </c>
-      <c r="T60" s="82"/>
-      <c r="U60" s="83"/>
+      <c r="T60" s="109"/>
+      <c r="U60" s="110"/>
       <c r="V60" s="18"/>
       <c r="W60" s="18"/>
       <c r="X60" s="18"/>
     </row>
     <row r="61" spans="13:24">
-      <c r="M61" s="90"/>
+      <c r="M61" s="68"/>
       <c r="N61" s="17">
         <v>17</v>
       </c>
@@ -8809,7 +8832,7 @@
       <c r="X61" s="18"/>
     </row>
     <row r="62" spans="13:24">
-      <c r="M62" s="90"/>
+      <c r="M62" s="68"/>
       <c r="N62" s="17">
         <v>18</v>
       </c>
@@ -8825,7 +8848,7 @@
       <c r="X62" s="18"/>
     </row>
     <row r="63" spans="13:24">
-      <c r="M63" s="90"/>
+      <c r="M63" s="68"/>
       <c r="N63" s="17">
         <v>19</v>
       </c>
@@ -8841,7 +8864,7 @@
       <c r="X63" s="18"/>
     </row>
     <row r="64" spans="13:24">
-      <c r="M64" s="90"/>
+      <c r="M64" s="68"/>
       <c r="N64" s="17">
         <v>20</v>
       </c>
@@ -8858,15 +8881,40 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="M50:M64"/>
-    <mergeCell ref="B4:J6"/>
-    <mergeCell ref="B7:J11"/>
-    <mergeCell ref="B12:J17"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="N33:W33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="M34:M44"/>
+    <mergeCell ref="N49:X49"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="S60:U60"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -8877,40 +8925,15 @@
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B24:J24"/>
     <mergeCell ref="B25:J25"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="N49:X49"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="M34:M44"/>
-    <mergeCell ref="N33:W33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="M50:M64"/>
+    <mergeCell ref="B4:J6"/>
+    <mergeCell ref="B7:J11"/>
+    <mergeCell ref="B12:J17"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8923,8 +8946,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:V292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD81"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:XFD137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9182,7 +9205,7 @@
         <v>447</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -9338,7 +9361,7 @@
         <v>308</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
@@ -9370,7 +9393,7 @@
         <v>455</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -9402,7 +9425,7 @@
         <v>313</v>
       </c>
       <c r="J28" s="51" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -9498,7 +9521,7 @@
         <v>319</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
@@ -9532,7 +9555,7 @@
         <v>348</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
@@ -9726,7 +9749,7 @@
         <v>448</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -9772,10 +9795,10 @@
         <v>312</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J44" s="55" t="s">
         <v>346</v>
@@ -9798,7 +9821,7 @@
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
       <c r="J45" s="55" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
@@ -9813,7 +9836,7 @@
     </row>
     <row r="46" spans="2:22" ht="28.8">
       <c r="B46" s="51" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C46" s="39" t="s">
         <v>467</v>
@@ -9830,7 +9853,7 @@
         <v>335</v>
       </c>
       <c r="J46" s="51" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="15.6">
@@ -9850,7 +9873,7 @@
       <c r="G47" s="38"/>
       <c r="H47" s="40"/>
       <c r="J47" s="51" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K47" s="49"/>
       <c r="L47" s="49"/>
@@ -9869,7 +9892,7 @@
         <v>469</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D48" s="55" t="s">
         <v>301</v>
@@ -9899,7 +9922,7 @@
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="51" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C49" s="39" t="s">
         <v>470</v>
@@ -9941,7 +9964,7 @@
         <v>339</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D51" s="55" t="s">
         <v>343</v>
@@ -9956,7 +9979,7 @@
     </row>
     <row r="52" spans="2:18" ht="15.6">
       <c r="B52" s="51" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>460</v>
@@ -9970,7 +9993,7 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J52" s="51" t="s">
         <v>407</v>
@@ -9978,7 +10001,7 @@
     </row>
     <row r="53" spans="2:18" ht="15.6">
       <c r="B53" s="51" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>212</v>
@@ -9995,7 +10018,7 @@
         <v>472</v>
       </c>
       <c r="J53" s="51" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54" spans="2:18">
@@ -10082,10 +10105,10 @@
     </row>
     <row r="58" spans="2:18">
       <c r="B58" s="55" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D58" s="55" t="s">
         <v>329</v>
@@ -10121,7 +10144,7 @@
         <v>449</v>
       </c>
       <c r="J61" s="48" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="62" spans="2:18">
@@ -10155,7 +10178,7 @@
         <v>346</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D63" s="61" t="s">
         <v>301</v>
@@ -10193,12 +10216,12 @@
       <c r="G64" s="55"/>
       <c r="H64" s="38"/>
       <c r="J64" s="55" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="15">
       <c r="B65" s="55" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C65" s="38" t="s">
         <v>221</v>
@@ -10213,7 +10236,7 @@
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
       <c r="J65" s="55" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="15">
@@ -10221,7 +10244,7 @@
         <v>441</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>596</v>
+        <v>458</v>
       </c>
       <c r="D66" s="61" t="s">
         <v>301</v>
@@ -10233,15 +10256,15 @@
       <c r="G66" s="55"/>
       <c r="H66" s="55"/>
       <c r="J66" s="55" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="51" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D67" s="55" t="s">
         <v>336</v>
@@ -10253,7 +10276,7 @@
       <c r="G67" s="38"/>
       <c r="H67" s="40"/>
       <c r="J67" s="51" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" spans="2:10">
@@ -10273,7 +10296,7 @@
       <c r="G68" s="38"/>
       <c r="H68" s="40"/>
       <c r="J68" s="51" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" spans="2:10">
@@ -10281,7 +10304,7 @@
         <v>352</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D69" s="55" t="s">
         <v>351</v>
@@ -10293,7 +10316,7 @@
       <c r="G69" s="38"/>
       <c r="H69" s="38"/>
       <c r="J69" s="51" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="70" spans="2:10">
@@ -10301,7 +10324,7 @@
         <v>353</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D70" s="55" t="s">
         <v>351</v>
@@ -10313,7 +10336,7 @@
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="J70" s="51" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -10321,7 +10344,7 @@
         <v>350</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D71" s="55" t="s">
         <v>306</v>
@@ -10338,7 +10361,7 @@
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="55" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C72" s="39" t="s">
         <v>50</v>
@@ -10355,15 +10378,15 @@
         <v>361</v>
       </c>
       <c r="J72" s="55" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="51" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D73" s="55" t="s">
         <v>306</v>
@@ -10375,7 +10398,7 @@
       <c r="G73" s="55"/>
       <c r="H73" s="38"/>
       <c r="J73" s="51" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="74" spans="2:10">
@@ -10383,7 +10406,7 @@
         <v>356</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D74" s="55" t="s">
         <v>301</v>
@@ -10395,7 +10418,7 @@
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
       <c r="J74" s="51" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="75" spans="2:10">
@@ -10403,7 +10426,7 @@
         <v>357</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D75" s="55" t="s">
         <v>351</v>
@@ -10415,7 +10438,7 @@
       <c r="G75" s="38"/>
       <c r="H75" s="38"/>
       <c r="J75" s="55" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -10423,7 +10446,7 @@
         <v>358</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D76" s="55" t="s">
         <v>306</v>
@@ -10435,7 +10458,7 @@
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
       <c r="J76" s="55" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="15">
@@ -10457,7 +10480,7 @@
         <v>254</v>
       </c>
       <c r="J77" s="55" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" spans="2:10">
@@ -10479,7 +10502,7 @@
         <v>233</v>
       </c>
       <c r="J78" s="55" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -10501,7 +10524,7 @@
         <v>349</v>
       </c>
       <c r="J79" s="51" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
     </row>
     <row r="80" spans="2:10">
@@ -10509,7 +10532,7 @@
         <v>355</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D80" s="55" t="s">
         <v>311</v>
@@ -10528,7 +10551,7 @@
     </row>
     <row r="81" spans="2:20">
       <c r="B81" s="51" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>220</v>
@@ -10545,7 +10568,7 @@
         <v>308</v>
       </c>
       <c r="J81" s="51" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="K81" s="64"/>
       <c r="L81" s="64"/>
@@ -10563,7 +10586,7 @@
         <v>309</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
       <c r="D82" s="60" t="s">
         <v>301</v>
@@ -10574,10 +10597,10 @@
       <c r="F82" s="55"/>
       <c r="G82" s="55"/>
       <c r="H82" s="55" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="J82" s="51" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
     </row>
     <row r="83" spans="2:20" ht="43.2">
@@ -10585,7 +10608,7 @@
         <v>318</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D83" s="55" t="s">
         <v>301</v>
@@ -10599,7 +10622,7 @@
         <v>319</v>
       </c>
       <c r="J83" s="51" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="84" spans="2:20">
@@ -10621,7 +10644,7 @@
         <v>315</v>
       </c>
       <c r="J84" s="51" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="85" spans="2:20">
@@ -10643,7 +10666,7 @@
         <v>313</v>
       </c>
       <c r="J85" s="51" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="86" spans="2:20">
@@ -10665,7 +10688,7 @@
         <v>317</v>
       </c>
       <c r="J86" s="51" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
     </row>
     <row r="87" spans="2:20">
@@ -10673,7 +10696,7 @@
         <v>362</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D87" s="55" t="s">
         <v>301</v>
@@ -10687,12 +10710,12 @@
         <v>400</v>
       </c>
       <c r="J87" s="55" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="88" spans="2:20">
       <c r="B88" s="55" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C88" s="55" t="s">
         <v>425</v>
@@ -10709,7 +10732,7 @@
         <v>424</v>
       </c>
       <c r="J88" s="55" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="89" spans="2:20">
@@ -10729,7 +10752,7 @@
       <c r="G89" s="38"/>
       <c r="H89" s="38"/>
       <c r="J89" s="55" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="90" spans="2:20">
@@ -10749,12 +10772,12 @@
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
       <c r="J90" s="55" t="s">
-        <v>508</v>
+        <v>636</v>
       </c>
     </row>
     <row r="91" spans="2:20">
       <c r="B91" s="55" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C91" s="51" t="s">
         <v>364</v>
@@ -10769,7 +10792,7 @@
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
       <c r="J91" s="55" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="92" spans="2:20">
@@ -10789,7 +10812,7 @@
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
       <c r="J92" s="55" t="s">
-        <v>521</v>
+        <v>640</v>
       </c>
     </row>
     <row r="93" spans="2:20">
@@ -10797,7 +10820,7 @@
         <v>370</v>
       </c>
       <c r="C93" s="51" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D93" s="55" t="s">
         <v>306</v>
@@ -10809,7 +10832,7 @@
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
       <c r="J93" s="55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="2:20">
@@ -10817,7 +10840,7 @@
         <v>381</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="D94" s="55" t="s">
         <v>306</v>
@@ -10829,15 +10852,15 @@
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
       <c r="J94" s="55" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="95" spans="2:20">
       <c r="B95" s="55" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D95" s="55" t="s">
         <v>306</v>
@@ -10849,7 +10872,7 @@
       <c r="G95" s="38"/>
       <c r="H95" s="38"/>
       <c r="J95" s="55" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96" spans="2:20">
@@ -10857,7 +10880,7 @@
         <v>382</v>
       </c>
       <c r="C96" s="55" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D96" s="55" t="s">
         <v>306</v>
@@ -10869,7 +10892,7 @@
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
       <c r="J96" s="55" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="97" spans="2:18">
@@ -10877,7 +10900,7 @@
         <v>383</v>
       </c>
       <c r="C97" s="55" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="D97" s="55" t="s">
         <v>306</v>
@@ -10889,7 +10912,7 @@
       <c r="G97" s="38"/>
       <c r="H97" s="38"/>
       <c r="J97" s="55" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="98" spans="2:18">
@@ -10909,15 +10932,15 @@
       <c r="G98" s="38"/>
       <c r="H98" s="38"/>
       <c r="J98" s="55" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="99" spans="2:18" ht="46.8" customHeight="1">
       <c r="B99" s="55" t="s">
-        <v>390</v>
+        <v>639</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D99" s="55" t="s">
         <v>301</v>
@@ -10928,10 +10951,10 @@
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
       <c r="H99" s="56" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J99" s="55" t="s">
-        <v>390</v>
+        <v>638</v>
       </c>
     </row>
     <row r="100" spans="2:18">
@@ -11107,7 +11130,7 @@
       <c r="G110" s="43"/>
       <c r="H110" s="44"/>
       <c r="J110" s="62" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="111" spans="2:18">
@@ -11198,7 +11221,7 @@
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="56" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J114" s="55" t="s">
         <v>347</v>
@@ -11368,7 +11391,7 @@
         <v>451</v>
       </c>
       <c r="J126" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="127" spans="2:18">
@@ -11594,9 +11617,9 @@
       <c r="T135" s="49"/>
       <c r="U135" s="49"/>
     </row>
-    <row r="136" spans="2:21">
+    <row r="136" spans="2:21" ht="13.8" customHeight="1">
       <c r="B136" s="51" t="s">
-        <v>352</v>
+        <v>647</v>
       </c>
       <c r="C136" s="51" t="s">
         <v>422</v>
@@ -11779,7 +11802,7 @@
       <c r="G142" s="38"/>
       <c r="H142" s="38"/>
       <c r="J142" s="55" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="143" spans="2:21">
@@ -11819,7 +11842,7 @@
       <c r="G144" s="38"/>
       <c r="H144" s="38"/>
       <c r="J144" s="55" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="145" spans="2:18">
@@ -11839,7 +11862,7 @@
       <c r="G145" s="38"/>
       <c r="H145" s="38"/>
       <c r="J145" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="146" spans="2:18">
@@ -11859,7 +11882,7 @@
       <c r="G146" s="38"/>
       <c r="H146" s="38"/>
       <c r="J146" s="55" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="147" spans="2:18">
@@ -11899,7 +11922,7 @@
       <c r="G148" s="38"/>
       <c r="H148" s="38"/>
       <c r="J148" s="55" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="149" spans="2:18">
@@ -11919,7 +11942,7 @@
       <c r="G149" s="38"/>
       <c r="H149" s="38"/>
       <c r="J149" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="150" spans="2:18">
@@ -11947,7 +11970,7 @@
         <v>344</v>
       </c>
       <c r="C151" s="39" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D151" s="55" t="s">
         <v>301</v>
@@ -11958,7 +11981,7 @@
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
       <c r="H151" s="56" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J151" s="55" t="s">
         <v>344</v>
@@ -12087,7 +12110,7 @@
         <v>452</v>
       </c>
       <c r="J161" s="48" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="162" spans="2:18">
@@ -12239,7 +12262,7 @@
         <v>347</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D168" s="61" t="s">
         <v>301</v>
@@ -12250,7 +12273,7 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
       <c r="H168" s="56" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="J168" s="55" t="s">
         <v>347</v>
@@ -12258,10 +12281,10 @@
     </row>
     <row r="169" spans="2:18" ht="28.8">
       <c r="B169" s="55" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D169" s="61" t="s">
         <v>301</v>
@@ -12272,10 +12295,10 @@
       <c r="F169" s="38"/>
       <c r="G169" s="38"/>
       <c r="H169" s="56" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J169" s="55" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="170" spans="2:18">
@@ -12369,7 +12392,7 @@
       <c r="F173" s="38"/>
       <c r="G173" s="38"/>
       <c r="H173" s="56" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J173" s="51" t="s">
         <v>390</v>
@@ -12499,7 +12522,7 @@
         <v>453</v>
       </c>
       <c r="J182" s="48" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="183" spans="2:18">
@@ -12534,7 +12557,7 @@
         <v>346</v>
       </c>
       <c r="C184" s="55" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D184" s="61" t="s">
         <v>301</v>
@@ -12546,10 +12569,10 @@
         <v>312</v>
       </c>
       <c r="G184" s="55" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H184" s="56" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J184" s="55" t="s">
         <v>346</v>
@@ -12571,19 +12594,19 @@
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
       <c r="H185" s="56" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J185" s="55" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K185" s="48"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="55" t="s">
+        <v>559</v>
+      </c>
+      <c r="C186" s="38" t="s">
         <v>561</v>
-      </c>
-      <c r="C186" s="38" t="s">
-        <v>563</v>
       </c>
       <c r="D186" s="55" t="s">
         <v>336</v>
@@ -12618,7 +12641,7 @@
         <v>308</v>
       </c>
       <c r="J187" s="55" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="188" spans="2:18">
@@ -12640,12 +12663,12 @@
         <v>308</v>
       </c>
       <c r="J188" s="55" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="28.8">
       <c r="B189" s="55" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C189" s="51" t="s">
         <v>392</v>
@@ -12659,10 +12682,10 @@
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
       <c r="H189" s="56" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J189" s="55" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="190" spans="2:18" ht="15">
@@ -12681,15 +12704,15 @@
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
       <c r="H190" s="56" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J190" s="55" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="191" spans="2:18" ht="15">
       <c r="B191" s="55" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C191" s="51" t="s">
         <v>461</v>
@@ -12706,7 +12729,7 @@
         <v>462</v>
       </c>
       <c r="J191" s="55" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="192" spans="2:18">
@@ -12796,7 +12819,7 @@
         <v>328</v>
       </c>
       <c r="C196" s="38" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D196" s="55" t="s">
         <v>329</v>
@@ -12808,7 +12831,7 @@
       <c r="G196" s="38"/>
       <c r="H196" s="38"/>
       <c r="J196" s="55" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K196" s="49"/>
       <c r="L196" s="50"/>
@@ -12859,10 +12882,10 @@
     </row>
     <row r="203" spans="2:18">
       <c r="B203" s="48" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J203" s="48" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="204" spans="2:18">
@@ -13175,7 +13198,7 @@
       <c r="F217" s="38"/>
       <c r="G217" s="38"/>
       <c r="H217" s="56" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J217" s="51" t="s">
         <v>390</v>
@@ -13240,7 +13263,7 @@
       <c r="G220" s="38"/>
       <c r="H220" s="38"/>
       <c r="J220" s="55" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="221" spans="2:22">
@@ -13260,7 +13283,7 @@
       <c r="G221" s="38"/>
       <c r="H221" s="40"/>
       <c r="J221" s="55" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="222" spans="2:22">
@@ -13280,7 +13303,7 @@
       <c r="G222" s="38"/>
       <c r="H222" s="38"/>
       <c r="J222" s="55" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="223" spans="2:22">
@@ -13300,7 +13323,7 @@
       <c r="G223" s="38"/>
       <c r="H223" s="38"/>
       <c r="J223" s="55" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="224" spans="2:22" ht="28.8">
@@ -13322,7 +13345,7 @@
         <v>287</v>
       </c>
       <c r="J224" s="55" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="225" spans="2:19">
@@ -13475,10 +13498,10 @@
     </row>
     <row r="235" spans="2:19">
       <c r="B235" s="48" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="J235" s="48" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="236" spans="2:19">
@@ -13774,7 +13797,7 @@
       <c r="G247" s="38"/>
       <c r="H247" s="38"/>
       <c r="J247" s="51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K247" s="49"/>
       <c r="L247" s="49"/>
@@ -13844,7 +13867,7 @@
       <c r="F250" s="38"/>
       <c r="G250" s="38"/>
       <c r="H250" s="56" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J250" s="55" t="s">
         <v>344</v>
@@ -14003,7 +14026,7 @@
         <v>454</v>
       </c>
       <c r="J261" s="48" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="2:11">
@@ -14138,7 +14161,7 @@
       <c r="F267" s="38"/>
       <c r="G267" s="38"/>
       <c r="H267" s="56" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="J267" s="51" t="s">
         <v>347</v>
@@ -14160,7 +14183,7 @@
       <c r="F268" s="38"/>
       <c r="G268" s="38"/>
       <c r="H268" s="56" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J268" s="51" t="s">
         <v>390</v>
@@ -14297,10 +14320,10 @@
     </row>
     <row r="279" spans="2:18">
       <c r="B279" s="48" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="J279" s="48" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="280" spans="2:18">
@@ -14431,7 +14454,7 @@
       <c r="F285" s="38"/>
       <c r="G285" s="38"/>
       <c r="H285" s="56" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J285" s="51" t="s">
         <v>407</v>
@@ -14453,7 +14476,7 @@
       <c r="F286" s="38"/>
       <c r="G286" s="38"/>
       <c r="H286" s="56" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J286" s="51" t="s">
         <v>390</v>

--- a/doc/需求讨论_表定义.xlsx
+++ b/doc/需求讨论_表定义.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="657">
   <si>
     <t>1 我的想法是抛开你这个表的情况，先以你为维度登记处理下整个的贷款周期内的各种事情，比如合同登记、放款、还款、逾期、提前还款等等</t>
   </si>
@@ -2311,10 +2311,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>lending_date</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>lending_amt</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -2761,9 +2757,6 @@
     <t>tot_paid_bigint</t>
   </si>
   <si>
-    <t>ctd_bigint</t>
-  </si>
-  <si>
     <t>paid_bigint</t>
   </si>
   <si>
@@ -2933,10 +2926,6 @@
   </si>
   <si>
     <t>external_acct</t>
-  </si>
-  <si>
-    <t>external_acct</t>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>一个用户可以指定多个公司</t>
@@ -3124,9 +3113,6 @@
     <t>modifiedBy</t>
   </si>
   <si>
-    <t>ctdBigint</t>
-  </si>
-  <si>
     <t>paidBigint</t>
   </si>
   <si>
@@ -3683,10 +3669,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>acctDate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>beginDate</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3748,10 +3730,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>extensionNo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>还款方式</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3765,10 +3743,6 @@
   </si>
   <si>
     <t>penRate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -3851,10 +3825,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>extensionRate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>已还罚息累计</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3957,10 +3927,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>1:放款,2:还款,3:服务费收取,4:服务费补偿,5:支出,6:融资,7:撤资,8:收入,9:资金登记,10:转账,11:提现,12:结转,13:代偿,14:提前还款,15:借据登记,16:融资登记</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>b</t>
     </r>
@@ -3975,6 +3941,78 @@
       </rPr>
       <t>egin_date</t>
     </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>external_acct</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>paid_interest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>external_acct</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_acct_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>inAcctNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctd_interest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctdInterest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>paidInterest</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddDate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>lending_date</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd_date</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctDate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>展期利率</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>extensionNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>extensionRate</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:放款,2:还款,3:服务费收取,4:服务费补偿,5:支出,6:融资,7:撤资,8:收入,9:资金登记,10:转账,11:提现,12:结转,13:代偿,14:提前还款,15:借据登记,16:融资登记,17:展期</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -8946,8 +8984,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:V292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:XFD137"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8962,12 +9000,12 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="48" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="48" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -8987,7 +9025,7 @@
         <v>326</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>13</v>
@@ -9032,7 +9070,7 @@
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -9068,7 +9106,7 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="56" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -9202,10 +9240,10 @@
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="48" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -9225,7 +9263,7 @@
         <v>326</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>13</v>
@@ -9277,7 +9315,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="38"/>
       <c r="J23" s="38" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="2:22">
@@ -9297,7 +9335,7 @@
       <c r="G24" s="55"/>
       <c r="H24" s="38"/>
       <c r="J24" s="55" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K24" s="65"/>
       <c r="L24" s="65"/>
@@ -9361,7 +9399,7 @@
         <v>308</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
@@ -9390,10 +9428,10 @@
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
       <c r="H27" s="55" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -9425,7 +9463,7 @@
         <v>313</v>
       </c>
       <c r="J28" s="51" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -9454,10 +9492,10 @@
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J29" s="51" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
@@ -9489,7 +9527,7 @@
         <v>317</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
@@ -9521,7 +9559,7 @@
         <v>319</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
@@ -9555,7 +9593,7 @@
         <v>348</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
@@ -9572,10 +9610,10 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="51" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>301</v>
@@ -9586,10 +9624,10 @@
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
       <c r="H33" s="56" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J33" s="51" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
@@ -9606,7 +9644,7 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="51" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>266</v>
@@ -9621,15 +9659,15 @@
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="J34" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D35" s="55" t="s">
         <v>301</v>
@@ -9641,7 +9679,7 @@
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="J35" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -9661,7 +9699,7 @@
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
       <c r="J36" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -9683,7 +9721,7 @@
         <v>324</v>
       </c>
       <c r="J37" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -9738,18 +9776,18 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="48" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J41" s="48" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="48" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -9769,7 +9807,7 @@
         <v>326</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>13</v>
@@ -9783,7 +9821,7 @@
         <v>346</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D44" s="60" t="s">
         <v>301</v>
@@ -9795,10 +9833,10 @@
         <v>312</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="J44" s="55" t="s">
         <v>346</v>
@@ -9806,10 +9844,10 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="55" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D45" s="55" t="s">
         <v>334</v>
@@ -9821,7 +9859,7 @@
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
       <c r="J45" s="55" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
@@ -9836,10 +9874,10 @@
     </row>
     <row r="46" spans="2:22" ht="28.8">
       <c r="B46" s="51" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D46" s="55" t="s">
         <v>301</v>
@@ -9853,7 +9891,7 @@
         <v>335</v>
       </c>
       <c r="J46" s="51" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="15.6">
@@ -9861,7 +9899,7 @@
         <v>345</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D47" s="55" t="s">
         <v>336</v>
@@ -9873,7 +9911,7 @@
       <c r="G47" s="38"/>
       <c r="H47" s="40"/>
       <c r="J47" s="51" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K47" s="49"/>
       <c r="L47" s="49"/>
@@ -9889,10 +9927,10 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="51" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D48" s="55" t="s">
         <v>301</v>
@@ -9906,7 +9944,7 @@
         <v>340</v>
       </c>
       <c r="J48" s="51" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
@@ -9922,16 +9960,16 @@
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="51" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D49" s="55" t="s">
         <v>341</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -9945,7 +9983,7 @@
         <v>338</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D50" s="55" t="s">
         <v>342</v>
@@ -9964,7 +10002,7 @@
         <v>339</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D51" s="55" t="s">
         <v>343</v>
@@ -9979,10 +10017,10 @@
     </row>
     <row r="52" spans="2:18" ht="15.6">
       <c r="B52" s="51" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D52" s="55" t="s">
         <v>301</v>
@@ -9993,15 +10031,15 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J52" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="15.6">
       <c r="B53" s="51" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>212</v>
@@ -10010,20 +10048,20 @@
         <v>301</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="55" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J53" s="51" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="2:18">
       <c r="B54" s="51" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>266</v>
@@ -10038,15 +10076,15 @@
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
       <c r="J54" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="2:18">
       <c r="B55" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D55" s="55" t="s">
         <v>301</v>
@@ -10058,7 +10096,7 @@
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
       <c r="J55" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="2:18">
@@ -10078,7 +10116,7 @@
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
       <c r="J56" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="2:18">
@@ -10100,15 +10138,15 @@
         <v>324</v>
       </c>
       <c r="J57" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="58" spans="2:18">
       <c r="B58" s="55" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D58" s="55" t="s">
         <v>329</v>
@@ -10133,18 +10171,18 @@
     </row>
     <row r="60" spans="2:18">
       <c r="B60" s="48" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J60" s="48" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="2:18">
       <c r="B61" s="48" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J61" s="48" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" spans="2:18">
@@ -10164,7 +10202,7 @@
         <v>326</v>
       </c>
       <c r="G62" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>13</v>
@@ -10178,7 +10216,7 @@
         <v>346</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D63" s="61" t="s">
         <v>301</v>
@@ -10216,12 +10254,12 @@
       <c r="G64" s="55"/>
       <c r="H64" s="38"/>
       <c r="J64" s="55" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="15">
       <c r="B65" s="55" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C65" s="38" t="s">
         <v>221</v>
@@ -10236,15 +10274,15 @@
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
       <c r="J65" s="55" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="15">
       <c r="B66" s="55" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D66" s="61" t="s">
         <v>301</v>
@@ -10256,15 +10294,15 @@
       <c r="G66" s="55"/>
       <c r="H66" s="55"/>
       <c r="J66" s="55" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="51" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D67" s="55" t="s">
         <v>336</v>
@@ -10276,12 +10314,12 @@
       <c r="G67" s="38"/>
       <c r="H67" s="40"/>
       <c r="J67" s="51" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C68" s="39" t="s">
         <v>284</v>
@@ -10296,7 +10334,7 @@
       <c r="G68" s="38"/>
       <c r="H68" s="40"/>
       <c r="J68" s="51" t="s">
-        <v>595</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69" spans="2:10">
@@ -10304,7 +10342,7 @@
         <v>352</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D69" s="55" t="s">
         <v>351</v>
@@ -10316,7 +10354,7 @@
       <c r="G69" s="38"/>
       <c r="H69" s="38"/>
       <c r="J69" s="51" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="70" spans="2:10">
@@ -10324,7 +10362,7 @@
         <v>353</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D70" s="55" t="s">
         <v>351</v>
@@ -10336,7 +10374,7 @@
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="J70" s="51" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -10344,7 +10382,7 @@
         <v>350</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D71" s="55" t="s">
         <v>306</v>
@@ -10361,7 +10399,7 @@
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="55" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C72" s="39" t="s">
         <v>50</v>
@@ -10375,18 +10413,18 @@
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
       <c r="H72" s="55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J72" s="55" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="51" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D73" s="55" t="s">
         <v>306</v>
@@ -10398,7 +10436,7 @@
       <c r="G73" s="55"/>
       <c r="H73" s="38"/>
       <c r="J73" s="51" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" spans="2:10">
@@ -10406,7 +10444,7 @@
         <v>356</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D74" s="55" t="s">
         <v>301</v>
@@ -10418,15 +10456,15 @@
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
       <c r="J74" s="51" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="55" t="s">
-        <v>357</v>
+        <v>648</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D75" s="55" t="s">
         <v>351</v>
@@ -10438,15 +10476,15 @@
       <c r="G75" s="38"/>
       <c r="H75" s="38"/>
       <c r="J75" s="55" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D76" s="55" t="s">
         <v>306</v>
@@ -10458,12 +10496,12 @@
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
       <c r="J76" s="55" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="15">
       <c r="B77" s="55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C77" s="39" t="s">
         <v>253</v>
@@ -10480,15 +10518,15 @@
         <v>254</v>
       </c>
       <c r="J77" s="55" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="55" t="s">
-        <v>443</v>
+        <v>639</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D78" s="55" t="s">
         <v>336</v>
@@ -10502,7 +10540,7 @@
         <v>233</v>
       </c>
       <c r="J78" s="55" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -10524,7 +10562,7 @@
         <v>349</v>
       </c>
       <c r="J79" s="51" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="80" spans="2:10">
@@ -10532,7 +10570,7 @@
         <v>355</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="D80" s="55" t="s">
         <v>311</v>
@@ -10551,7 +10589,7 @@
     </row>
     <row r="81" spans="2:20">
       <c r="B81" s="51" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>220</v>
@@ -10568,7 +10606,7 @@
         <v>308</v>
       </c>
       <c r="J81" s="51" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="K81" s="64"/>
       <c r="L81" s="64"/>
@@ -10586,7 +10624,7 @@
         <v>309</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D82" s="60" t="s">
         <v>301</v>
@@ -10597,10 +10635,10 @@
       <c r="F82" s="55"/>
       <c r="G82" s="55"/>
       <c r="H82" s="55" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="J82" s="51" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="83" spans="2:20" ht="43.2">
@@ -10608,7 +10646,7 @@
         <v>318</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D83" s="55" t="s">
         <v>301</v>
@@ -10622,7 +10660,7 @@
         <v>319</v>
       </c>
       <c r="J83" s="51" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="84" spans="2:20">
@@ -10644,7 +10682,7 @@
         <v>315</v>
       </c>
       <c r="J84" s="51" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="85" spans="2:20">
@@ -10666,7 +10704,7 @@
         <v>313</v>
       </c>
       <c r="J85" s="51" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="86" spans="2:20">
@@ -10688,15 +10726,15 @@
         <v>317</v>
       </c>
       <c r="J86" s="51" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="2:20">
       <c r="B87" s="55" t="s">
-        <v>362</v>
+        <v>649</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D87" s="55" t="s">
         <v>301</v>
@@ -10707,18 +10745,18 @@
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
       <c r="H87" s="55" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J87" s="55" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="88" spans="2:20">
       <c r="B88" s="55" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D88" s="55" t="s">
         <v>301</v>
@@ -10729,18 +10767,18 @@
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="55" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J88" s="55" t="s">
-        <v>608</v>
+        <v>654</v>
       </c>
     </row>
     <row r="89" spans="2:20">
       <c r="B89" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="D89" s="55" t="s">
         <v>311</v>
@@ -10752,15 +10790,15 @@
       <c r="G89" s="38"/>
       <c r="H89" s="38"/>
       <c r="J89" s="55" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
     </row>
     <row r="90" spans="2:20">
       <c r="B90" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C90" s="51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D90" s="55" t="s">
         <v>306</v>
@@ -10772,15 +10810,15 @@
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
       <c r="J90" s="55" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" spans="2:20">
       <c r="B91" s="55" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C91" s="51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D91" s="55" t="s">
         <v>306</v>
@@ -10792,15 +10830,15 @@
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
       <c r="J91" s="55" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="92" spans="2:20">
       <c r="B92" s="55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D92" s="55" t="s">
         <v>306</v>
@@ -10812,15 +10850,15 @@
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
       <c r="J92" s="55" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93" spans="2:20">
       <c r="B93" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C93" s="51" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D93" s="55" t="s">
         <v>306</v>
@@ -10832,15 +10870,15 @@
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
       <c r="J93" s="55" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="2:20">
       <c r="B94" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D94" s="55" t="s">
         <v>306</v>
@@ -10852,15 +10890,15 @@
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
       <c r="J94" s="55" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="95" spans="2:20">
       <c r="B95" s="55" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D95" s="55" t="s">
         <v>306</v>
@@ -10872,15 +10910,15 @@
       <c r="G95" s="38"/>
       <c r="H95" s="38"/>
       <c r="J95" s="55" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="96" spans="2:20">
       <c r="B96" s="55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C96" s="55" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D96" s="55" t="s">
         <v>306</v>
@@ -10892,15 +10930,15 @@
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
       <c r="J96" s="55" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="2:18">
       <c r="B97" s="55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C97" s="55" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D97" s="55" t="s">
         <v>306</v>
@@ -10912,12 +10950,12 @@
       <c r="G97" s="38"/>
       <c r="H97" s="38"/>
       <c r="J97" s="55" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="98" spans="2:18">
       <c r="B98" s="55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C98" s="38" t="s">
         <v>227</v>
@@ -10932,15 +10970,15 @@
       <c r="G98" s="38"/>
       <c r="H98" s="38"/>
       <c r="J98" s="55" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="99" spans="2:18" ht="46.8" customHeight="1">
       <c r="B99" s="55" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D99" s="55" t="s">
         <v>301</v>
@@ -10951,15 +10989,15 @@
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
       <c r="H99" s="56" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J99" s="55" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="100" spans="2:18">
       <c r="B100" s="51" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C100" s="39" t="s">
         <v>266</v>
@@ -10974,15 +11012,15 @@
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
       <c r="J100" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" spans="2:18">
       <c r="B101" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D101" s="55" t="s">
         <v>301</v>
@@ -10994,7 +11032,7 @@
       <c r="G101" s="38"/>
       <c r="H101" s="38"/>
       <c r="J101" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="102" spans="2:18">
@@ -11014,7 +11052,7 @@
       <c r="G102" s="55"/>
       <c r="H102" s="55"/>
       <c r="J102" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="103" spans="2:18">
@@ -11036,12 +11074,12 @@
         <v>324</v>
       </c>
       <c r="J103" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="104" spans="2:18">
       <c r="B104" s="55" t="s">
-        <v>328</v>
+        <v>650</v>
       </c>
       <c r="C104" s="38" t="s">
         <v>13</v>
@@ -11109,7 +11147,7 @@
     </row>
     <row r="109" spans="2:18">
       <c r="B109" s="62" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
@@ -11117,12 +11155,12 @@
       <c r="G109" s="43"/>
       <c r="H109" s="44"/>
       <c r="J109" s="62" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="110" spans="2:18">
       <c r="B110" s="62" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
@@ -11130,7 +11168,7 @@
       <c r="G110" s="43"/>
       <c r="H110" s="44"/>
       <c r="J110" s="62" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="111" spans="2:18">
@@ -11150,7 +11188,7 @@
         <v>326</v>
       </c>
       <c r="G111" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H111" s="38" t="s">
         <v>13</v>
@@ -11187,7 +11225,7 @@
     </row>
     <row r="113" spans="2:18" ht="15">
       <c r="B113" s="55" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>39</v>
@@ -11202,7 +11240,7 @@
       <c r="G113" s="38"/>
       <c r="H113" s="38"/>
       <c r="J113" s="55" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="114" spans="2:18" ht="28.8">
@@ -11221,7 +11259,7 @@
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="56" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="J114" s="55" t="s">
         <v>347</v>
@@ -11229,7 +11267,7 @@
     </row>
     <row r="115" spans="2:18">
       <c r="B115" s="55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C115" s="39" t="s">
         <v>206</v>
@@ -11244,12 +11282,12 @@
       <c r="G115" s="38"/>
       <c r="H115" s="40"/>
       <c r="J115" s="55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="2:18">
       <c r="B116" s="51" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C116" s="39" t="s">
         <v>266</v>
@@ -11264,15 +11302,15 @@
       <c r="G116" s="38"/>
       <c r="H116" s="38"/>
       <c r="J116" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="2:18">
       <c r="B117" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D117" s="55" t="s">
         <v>301</v>
@@ -11284,7 +11322,7 @@
       <c r="G117" s="38"/>
       <c r="H117" s="38"/>
       <c r="J117" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="118" spans="2:18">
@@ -11304,7 +11342,7 @@
       <c r="G118" s="55"/>
       <c r="H118" s="55"/>
       <c r="J118" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="2:18">
@@ -11326,7 +11364,7 @@
         <v>324</v>
       </c>
       <c r="J119" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="2:18">
@@ -11379,19 +11417,19 @@
     </row>
     <row r="125" spans="2:18">
       <c r="B125" s="48" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C125" s="48"/>
       <c r="J125" s="48" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="126" spans="2:18">
       <c r="B126" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J126" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="127" spans="2:18">
@@ -11411,7 +11449,7 @@
         <v>326</v>
       </c>
       <c r="G127" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H127" s="38" t="s">
         <v>13</v>
@@ -11448,10 +11486,10 @@
     </row>
     <row r="129" spans="2:21" ht="15">
       <c r="B129" s="55" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C129" s="55" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D129" s="61" t="s">
         <v>301</v>
@@ -11463,7 +11501,7 @@
       <c r="G129" s="38"/>
       <c r="H129" s="38"/>
       <c r="J129" s="55" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="130" spans="2:21" ht="15">
@@ -11483,12 +11521,12 @@
       <c r="G130" s="38"/>
       <c r="H130" s="38"/>
       <c r="J130" s="55" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="131" spans="2:21" ht="15">
       <c r="B131" s="55" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C131" s="39" t="s">
         <v>21</v>
@@ -11503,7 +11541,7 @@
       <c r="G131" s="38"/>
       <c r="H131" s="40"/>
       <c r="J131" s="55" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K131" s="65"/>
       <c r="L131" s="65"/>
@@ -11517,7 +11555,7 @@
     </row>
     <row r="132" spans="2:21" ht="15">
       <c r="B132" s="55" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C132" s="39" t="s">
         <v>28</v>
@@ -11532,7 +11570,7 @@
       <c r="G132" s="38"/>
       <c r="H132" s="38"/>
       <c r="J132" s="55" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K132" s="65"/>
       <c r="L132" s="65"/>
@@ -11546,7 +11584,7 @@
     </row>
     <row r="133" spans="2:21">
       <c r="B133" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C133" s="39" t="s">
         <v>284</v>
@@ -11561,7 +11599,7 @@
       <c r="G133" s="38"/>
       <c r="H133" s="40"/>
       <c r="J133" s="51" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="134" spans="2:21" ht="15">
@@ -11583,7 +11621,7 @@
         <v>63</v>
       </c>
       <c r="J134" s="51" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="2:21">
@@ -11619,10 +11657,10 @@
     </row>
     <row r="136" spans="2:21" ht="13.8" customHeight="1">
       <c r="B136" s="51" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D136" s="55" t="s">
         <v>351</v>
@@ -11634,7 +11672,7 @@
       <c r="G136" s="38"/>
       <c r="H136" s="38"/>
       <c r="J136" s="51" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="2:21">
@@ -11642,7 +11680,7 @@
         <v>353</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D137" s="55" t="s">
         <v>351</v>
@@ -11654,12 +11692,12 @@
       <c r="G137" s="38"/>
       <c r="H137" s="38"/>
       <c r="J137" s="51" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="2:21" ht="15">
       <c r="B138" s="51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C138" s="39" t="s">
         <v>276</v>
@@ -11674,7 +11712,7 @@
       <c r="G138" s="38"/>
       <c r="H138" s="38"/>
       <c r="J138" s="51" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K138" s="49"/>
       <c r="L138" s="49"/>
@@ -11690,7 +11728,7 @@
     </row>
     <row r="139" spans="2:21">
       <c r="B139" s="55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C139" s="39" t="s">
         <v>288</v>
@@ -11705,7 +11743,7 @@
       <c r="G139" s="38"/>
       <c r="H139" s="38"/>
       <c r="J139" s="55" t="s">
-        <v>488</v>
+        <v>647</v>
       </c>
       <c r="K139" s="49"/>
       <c r="L139" s="49"/>
@@ -11721,7 +11759,7 @@
     </row>
     <row r="140" spans="2:21">
       <c r="B140" s="55" t="s">
-        <v>442</v>
+        <v>641</v>
       </c>
       <c r="C140" s="39" t="s">
         <v>255</v>
@@ -11738,7 +11776,7 @@
         <v>236</v>
       </c>
       <c r="J140" s="55" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K140" s="49"/>
       <c r="L140" s="49"/>
@@ -11754,7 +11792,7 @@
     </row>
     <row r="141" spans="2:21" ht="15">
       <c r="B141" s="55" t="s">
-        <v>399</v>
+        <v>642</v>
       </c>
       <c r="C141" s="39" t="s">
         <v>242</v>
@@ -11771,7 +11809,7 @@
         <v>256</v>
       </c>
       <c r="J141" s="55" t="s">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="K141" s="49"/>
       <c r="L141" s="49"/>
@@ -11787,7 +11825,7 @@
     </row>
     <row r="142" spans="2:21">
       <c r="B142" s="55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C142" s="39" t="s">
         <v>66</v>
@@ -11802,12 +11840,12 @@
       <c r="G142" s="38"/>
       <c r="H142" s="38"/>
       <c r="J142" s="55" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="143" spans="2:21">
       <c r="B143" s="55" t="s">
-        <v>410</v>
+        <v>644</v>
       </c>
       <c r="C143" s="39" t="s">
         <v>67</v>
@@ -11822,12 +11860,12 @@
       <c r="G143" s="38"/>
       <c r="H143" s="38"/>
       <c r="J143" s="55" t="s">
-        <v>482</v>
+        <v>645</v>
       </c>
     </row>
     <row r="144" spans="2:21">
       <c r="B144" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C144" s="39" t="s">
         <v>68</v>
@@ -11842,12 +11880,12 @@
       <c r="G144" s="38"/>
       <c r="H144" s="38"/>
       <c r="J144" s="55" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="2:18">
       <c r="B145" s="55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C145" s="39" t="s">
         <v>69</v>
@@ -11862,12 +11900,12 @@
       <c r="G145" s="38"/>
       <c r="H145" s="38"/>
       <c r="J145" s="55" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="146" spans="2:18">
       <c r="B146" s="55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C146" s="39" t="s">
         <v>70</v>
@@ -11882,12 +11920,12 @@
       <c r="G146" s="38"/>
       <c r="H146" s="38"/>
       <c r="J146" s="55" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="147" spans="2:18">
       <c r="B147" s="55" t="s">
-        <v>411</v>
+        <v>640</v>
       </c>
       <c r="C147" s="39" t="s">
         <v>71</v>
@@ -11902,12 +11940,12 @@
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
       <c r="J147" s="55" t="s">
-        <v>483</v>
+        <v>646</v>
       </c>
     </row>
     <row r="148" spans="2:18">
       <c r="B148" s="55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C148" s="39" t="s">
         <v>72</v>
@@ -11922,12 +11960,12 @@
       <c r="G148" s="38"/>
       <c r="H148" s="38"/>
       <c r="J148" s="55" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="149" spans="2:18">
       <c r="B149" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C149" s="39" t="s">
         <v>73</v>
@@ -11942,12 +11980,12 @@
       <c r="G149" s="38"/>
       <c r="H149" s="38"/>
       <c r="J149" s="55" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="150" spans="2:18">
       <c r="B150" s="55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C150" s="39" t="s">
         <v>225</v>
@@ -11962,7 +12000,7 @@
       <c r="G150" s="38"/>
       <c r="H150" s="38"/>
       <c r="J150" s="55" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="151" spans="2:18" ht="28.8">
@@ -11970,7 +12008,7 @@
         <v>344</v>
       </c>
       <c r="C151" s="39" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D151" s="55" t="s">
         <v>301</v>
@@ -11981,7 +12019,7 @@
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
       <c r="H151" s="56" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J151" s="55" t="s">
         <v>344</v>
@@ -11989,7 +12027,7 @@
     </row>
     <row r="152" spans="2:18">
       <c r="B152" s="51" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C152" s="39" t="s">
         <v>266</v>
@@ -12004,15 +12042,15 @@
       <c r="G152" s="38"/>
       <c r="H152" s="38"/>
       <c r="J152" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="153" spans="2:18">
       <c r="B153" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C153" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D153" s="55" t="s">
         <v>301</v>
@@ -12024,7 +12062,7 @@
       <c r="G153" s="38"/>
       <c r="H153" s="38"/>
       <c r="J153" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="154" spans="2:18">
@@ -12044,7 +12082,7 @@
       <c r="G154" s="55"/>
       <c r="H154" s="55"/>
       <c r="J154" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="155" spans="2:18">
@@ -12066,7 +12104,7 @@
         <v>324</v>
       </c>
       <c r="J155" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="156" spans="2:18">
@@ -12107,10 +12145,10 @@
     </row>
     <row r="161" spans="2:18">
       <c r="B161" s="48" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J161" s="48" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="162" spans="2:18">
@@ -12130,7 +12168,7 @@
         <v>326</v>
       </c>
       <c r="G162" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H162" s="38" t="s">
         <v>13</v>
@@ -12167,7 +12205,7 @@
     </row>
     <row r="164" spans="2:18" ht="15">
       <c r="B164" s="55" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C164" s="38" t="s">
         <v>275</v>
@@ -12182,7 +12220,7 @@
       <c r="G164" s="38"/>
       <c r="H164" s="38"/>
       <c r="J164" s="55" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="165" spans="2:18" ht="15">
@@ -12202,12 +12240,12 @@
       <c r="G165" s="38"/>
       <c r="H165" s="38"/>
       <c r="J165" s="55" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="166" spans="2:18" ht="28.8">
       <c r="B166" s="51" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C166" s="39" t="s">
         <v>248</v>
@@ -12221,10 +12259,10 @@
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
       <c r="H166" s="56" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J166" s="51" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K166" s="59"/>
       <c r="L166" s="59"/>
@@ -12237,7 +12275,7 @@
     </row>
     <row r="167" spans="2:18" ht="28.8">
       <c r="B167" s="52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C167" s="54" t="s">
         <v>191</v>
@@ -12251,10 +12289,10 @@
       <c r="F167" s="53"/>
       <c r="G167" s="53"/>
       <c r="H167" s="58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J167" s="52" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="168" spans="2:18" ht="69.599999999999994" customHeight="1">
@@ -12262,7 +12300,7 @@
         <v>347</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D168" s="61" t="s">
         <v>301</v>
@@ -12273,7 +12311,7 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
       <c r="H168" s="56" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="J168" s="55" t="s">
         <v>347</v>
@@ -12281,10 +12319,10 @@
     </row>
     <row r="169" spans="2:18" ht="28.8">
       <c r="B169" s="55" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D169" s="61" t="s">
         <v>301</v>
@@ -12295,15 +12333,15 @@
       <c r="F169" s="38"/>
       <c r="G169" s="38"/>
       <c r="H169" s="56" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="J169" s="55" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="170" spans="2:18">
       <c r="B170" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C170" s="39" t="s">
         <v>284</v>
@@ -12318,7 +12356,7 @@
       <c r="G170" s="38"/>
       <c r="H170" s="40"/>
       <c r="J170" s="51" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K170" s="59"/>
       <c r="L170" s="59"/>
@@ -12331,7 +12369,7 @@
     </row>
     <row r="171" spans="2:18">
       <c r="B171" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C171" s="39" t="s">
         <v>250</v>
@@ -12346,7 +12384,7 @@
       <c r="G171" s="38"/>
       <c r="H171" s="38"/>
       <c r="J171" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K171" s="49"/>
       <c r="L171" s="49"/>
@@ -12355,13 +12393,13 @@
     </row>
     <row r="172" spans="2:18" ht="28.8">
       <c r="B172" s="51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C172" s="51" t="s">
         <v>190</v>
       </c>
       <c r="D172" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E172" s="55" t="s">
         <v>303</v>
@@ -12372,13 +12410,13 @@
         <v>249</v>
       </c>
       <c r="J172" s="51" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K172" s="48"/>
     </row>
     <row r="173" spans="2:18" ht="15">
       <c r="B173" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C173" s="51" t="s">
         <v>259</v>
@@ -12392,16 +12430,16 @@
       <c r="F173" s="38"/>
       <c r="G173" s="38"/>
       <c r="H173" s="56" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J173" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K173" s="48"/>
     </row>
     <row r="174" spans="2:18">
       <c r="B174" s="51" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C174" s="39" t="s">
         <v>266</v>
@@ -12416,15 +12454,15 @@
       <c r="G174" s="38"/>
       <c r="H174" s="38"/>
       <c r="J174" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="2:18">
       <c r="B175" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C175" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D175" s="55" t="s">
         <v>301</v>
@@ -12436,7 +12474,7 @@
       <c r="G175" s="38"/>
       <c r="H175" s="38"/>
       <c r="J175" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="176" spans="2:18">
@@ -12456,7 +12494,7 @@
       <c r="G176" s="55"/>
       <c r="H176" s="55"/>
       <c r="J176" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="177" spans="2:18">
@@ -12478,7 +12516,7 @@
         <v>324</v>
       </c>
       <c r="J177" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="178" spans="2:18">
@@ -12511,18 +12549,18 @@
     </row>
     <row r="181" spans="2:18">
       <c r="B181" s="48" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J181" s="48" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="48" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J182" s="48" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="183" spans="2:18">
@@ -12542,7 +12580,7 @@
         <v>326</v>
       </c>
       <c r="G183" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H183" s="38" t="s">
         <v>13</v>
@@ -12557,7 +12595,7 @@
         <v>346</v>
       </c>
       <c r="C184" s="55" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D184" s="61" t="s">
         <v>301</v>
@@ -12569,10 +12607,10 @@
         <v>312</v>
       </c>
       <c r="G184" s="55" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H184" s="56" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="J184" s="55" t="s">
         <v>346</v>
@@ -12580,7 +12618,7 @@
     </row>
     <row r="185" spans="2:18" ht="43.2">
       <c r="B185" s="55" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C185" s="38" t="s">
         <v>239</v>
@@ -12594,19 +12632,19 @@
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
       <c r="H185" s="56" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J185" s="55" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K185" s="48"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="55" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D186" s="55" t="s">
         <v>336</v>
@@ -12624,7 +12662,7 @@
     </row>
     <row r="187" spans="2:18">
       <c r="B187" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C187" s="51" t="s">
         <v>257</v>
@@ -12641,12 +12679,12 @@
         <v>308</v>
       </c>
       <c r="J187" s="55" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="188" spans="2:18">
       <c r="B188" s="55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C188" s="51" t="s">
         <v>258</v>
@@ -12663,15 +12701,15 @@
         <v>308</v>
       </c>
       <c r="J188" s="55" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="28.8">
       <c r="B189" s="55" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C189" s="51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D189" s="61" t="s">
         <v>301</v>
@@ -12682,15 +12720,15 @@
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
       <c r="H189" s="56" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J189" s="55" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="190" spans="2:18" ht="15">
       <c r="B190" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C190" s="51" t="s">
         <v>260</v>
@@ -12704,18 +12742,18 @@
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
       <c r="H190" s="56" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J190" s="55" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="191" spans="2:18" ht="15">
       <c r="B191" s="55" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C191" s="51" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D191" s="61" t="s">
         <v>301</v>
@@ -12726,15 +12764,15 @@
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
       <c r="H191" s="56" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J191" s="55" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="192" spans="2:18">
       <c r="B192" s="51" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C192" s="39" t="s">
         <v>266</v>
@@ -12749,15 +12787,15 @@
       <c r="G192" s="38"/>
       <c r="H192" s="38"/>
       <c r="J192" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="193" spans="2:18">
       <c r="B193" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C193" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D193" s="55" t="s">
         <v>301</v>
@@ -12769,7 +12807,7 @@
       <c r="G193" s="38"/>
       <c r="H193" s="38"/>
       <c r="J193" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="194" spans="2:18">
@@ -12789,7 +12827,7 @@
       <c r="G194" s="55"/>
       <c r="H194" s="55"/>
       <c r="J194" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="195" spans="2:18">
@@ -12811,7 +12849,7 @@
         <v>324</v>
       </c>
       <c r="J195" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="196" spans="2:18">
@@ -12819,7 +12857,7 @@
         <v>328</v>
       </c>
       <c r="C196" s="38" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D196" s="55" t="s">
         <v>329</v>
@@ -12831,7 +12869,7 @@
       <c r="G196" s="38"/>
       <c r="H196" s="38"/>
       <c r="J196" s="55" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K196" s="49"/>
       <c r="L196" s="50"/>
@@ -12874,18 +12912,18 @@
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J202" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="2:18">
       <c r="B203" s="48" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="J203" s="48" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="204" spans="2:18">
@@ -12905,7 +12943,7 @@
         <v>326</v>
       </c>
       <c r="G204" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H204" s="38" t="s">
         <v>13</v>
@@ -12957,15 +12995,15 @@
       <c r="G206" s="38"/>
       <c r="H206" s="38"/>
       <c r="J206" s="55" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="207" spans="2:18" ht="15">
       <c r="B207" s="55" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C207" s="55" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D207" s="61" t="s">
         <v>301</v>
@@ -12979,12 +13017,12 @@
         <v>277</v>
       </c>
       <c r="J207" s="55" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="2:18" ht="15">
       <c r="B208" s="62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C208" s="55" t="s">
         <v>242</v>
@@ -13001,15 +13039,15 @@
         <v>265</v>
       </c>
       <c r="J208" s="62" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="209" spans="2:22">
       <c r="B209" s="55" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C209" s="51" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D209" s="55" t="s">
         <v>336</v>
@@ -13023,7 +13061,7 @@
         <v>278</v>
       </c>
       <c r="J209" s="55" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="210" spans="2:22">
@@ -13048,7 +13086,7 @@
     </row>
     <row r="211" spans="2:22">
       <c r="B211" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C211" s="39" t="s">
         <v>284</v>
@@ -13063,7 +13101,7 @@
       <c r="G211" s="38"/>
       <c r="H211" s="40"/>
       <c r="J211" s="51" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="212" spans="2:22">
@@ -13083,7 +13121,7 @@
       <c r="G212" s="38"/>
       <c r="H212" s="38"/>
       <c r="J212" s="51" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="213" spans="2:22">
@@ -13105,7 +13143,7 @@
         <v>263</v>
       </c>
       <c r="J213" s="51" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="214" spans="2:22">
@@ -13145,15 +13183,15 @@
       <c r="G215" s="38"/>
       <c r="H215" s="38"/>
       <c r="J215" s="51" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="2:22">
       <c r="B216" s="51" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C216" s="51" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D216" s="55" t="s">
         <v>301</v>
@@ -13164,10 +13202,10 @@
       <c r="F216" s="55"/>
       <c r="G216" s="55"/>
       <c r="H216" s="56" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J216" s="51" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K216" s="49"/>
       <c r="L216" s="49"/>
@@ -13184,7 +13222,7 @@
     </row>
     <row r="217" spans="2:22" ht="28.8">
       <c r="B217" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C217" s="39" t="s">
         <v>261</v>
@@ -13198,15 +13236,15 @@
       <c r="F217" s="38"/>
       <c r="G217" s="38"/>
       <c r="H217" s="56" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J217" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="218" spans="2:22">
       <c r="B218" s="55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C218" s="39" t="s">
         <v>270</v>
@@ -13220,18 +13258,18 @@
       <c r="F218" s="38"/>
       <c r="G218" s="38"/>
       <c r="H218" s="55" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J218" s="55" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="219" spans="2:22">
       <c r="B219" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C219" s="51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D219" s="55" t="s">
         <v>301</v>
@@ -13243,12 +13281,12 @@
       <c r="G219" s="38"/>
       <c r="H219" s="38"/>
       <c r="J219" s="55" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="220" spans="2:22">
       <c r="B220" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C220" s="39" t="s">
         <v>269</v>
@@ -13263,12 +13301,12 @@
       <c r="G220" s="38"/>
       <c r="H220" s="38"/>
       <c r="J220" s="55" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="221" spans="2:22">
       <c r="B221" s="55" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C221" s="39" t="s">
         <v>281</v>
@@ -13283,12 +13321,12 @@
       <c r="G221" s="38"/>
       <c r="H221" s="40"/>
       <c r="J221" s="55" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="222" spans="2:22">
       <c r="B222" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C222" s="39" t="s">
         <v>282</v>
@@ -13303,12 +13341,12 @@
       <c r="G222" s="38"/>
       <c r="H222" s="38"/>
       <c r="J222" s="55" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="223" spans="2:22">
       <c r="B223" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C223" s="39" t="s">
         <v>264</v>
@@ -13323,12 +13361,12 @@
       <c r="G223" s="38"/>
       <c r="H223" s="38"/>
       <c r="J223" s="55" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="224" spans="2:22" ht="28.8">
       <c r="B224" s="55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C224" s="39" t="s">
         <v>283</v>
@@ -13345,12 +13383,12 @@
         <v>287</v>
       </c>
       <c r="J224" s="55" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="225" spans="2:19">
       <c r="B225" s="51" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C225" s="39" t="s">
         <v>266</v>
@@ -13365,15 +13403,15 @@
       <c r="G225" s="38"/>
       <c r="H225" s="38"/>
       <c r="J225" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="226" spans="2:19">
       <c r="B226" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C226" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D226" s="55" t="s">
         <v>301</v>
@@ -13385,7 +13423,7 @@
       <c r="G226" s="38"/>
       <c r="H226" s="38"/>
       <c r="J226" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="227" spans="2:19">
@@ -13405,7 +13443,7 @@
       <c r="G227" s="55"/>
       <c r="H227" s="55"/>
       <c r="J227" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="228" spans="2:19">
@@ -13427,7 +13465,7 @@
         <v>324</v>
       </c>
       <c r="J228" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="229" spans="2:19">
@@ -13490,18 +13528,18 @@
     </row>
     <row r="234" spans="2:19">
       <c r="B234" s="48" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J234" s="48" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="235" spans="2:19">
       <c r="B235" s="48" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="J235" s="48" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="236" spans="2:19">
@@ -13521,7 +13559,7 @@
         <v>326</v>
       </c>
       <c r="G236" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H236" s="38" t="s">
         <v>13</v>
@@ -13558,7 +13596,7 @@
     </row>
     <row r="238" spans="2:19" ht="15">
       <c r="B238" s="55" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C238" s="55" t="s">
         <v>247</v>
@@ -13573,7 +13611,7 @@
       <c r="G238" s="38"/>
       <c r="H238" s="38"/>
       <c r="J238" s="55" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="239" spans="2:19" ht="15">
@@ -13593,15 +13631,15 @@
       <c r="G239" s="38"/>
       <c r="H239" s="38"/>
       <c r="J239" s="55" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="240" spans="2:19" ht="15">
       <c r="B240" s="55" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C240" s="51" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D240" s="61" t="s">
         <v>301</v>
@@ -13613,7 +13651,7 @@
       <c r="G240" s="38"/>
       <c r="H240" s="38"/>
       <c r="J240" s="55" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K240" s="65"/>
       <c r="L240" s="65"/>
@@ -13644,12 +13682,12 @@
         <v>63</v>
       </c>
       <c r="J241" s="51" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="242" spans="2:21">
       <c r="B242" s="55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C242" s="39" t="s">
         <v>291</v>
@@ -13664,7 +13702,7 @@
       <c r="G242" s="38"/>
       <c r="H242" s="38"/>
       <c r="J242" s="55" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K242" s="49"/>
       <c r="L242" s="49"/>
@@ -13714,7 +13752,7 @@
         <v>352</v>
       </c>
       <c r="C244" s="51" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D244" s="55" t="s">
         <v>351</v>
@@ -13726,7 +13764,7 @@
       <c r="G244" s="38"/>
       <c r="H244" s="38"/>
       <c r="J244" s="51" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="245" spans="2:21">
@@ -13734,7 +13772,7 @@
         <v>353</v>
       </c>
       <c r="C245" s="51" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D245" s="55" t="s">
         <v>351</v>
@@ -13746,12 +13784,12 @@
       <c r="G245" s="38"/>
       <c r="H245" s="38"/>
       <c r="J245" s="51" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="246" spans="2:21" ht="15">
       <c r="B246" s="51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C246" s="39" t="s">
         <v>276</v>
@@ -13766,7 +13804,7 @@
       <c r="G246" s="38"/>
       <c r="H246" s="38"/>
       <c r="J246" s="51" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K246" s="49"/>
       <c r="L246" s="49"/>
@@ -13782,7 +13820,7 @@
     </row>
     <row r="247" spans="2:21">
       <c r="B247" s="51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C247" s="51" t="s">
         <v>289</v>
@@ -13797,7 +13835,7 @@
       <c r="G247" s="38"/>
       <c r="H247" s="38"/>
       <c r="J247" s="51" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K247" s="49"/>
       <c r="L247" s="49"/>
@@ -13813,7 +13851,7 @@
     </row>
     <row r="248" spans="2:21">
       <c r="B248" s="51" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C248" s="39" t="s">
         <v>290</v>
@@ -13828,12 +13866,12 @@
       <c r="G248" s="38"/>
       <c r="H248" s="38"/>
       <c r="J248" s="51" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="249" spans="2:21">
       <c r="B249" s="51" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C249" s="39" t="s">
         <v>292</v>
@@ -13848,7 +13886,7 @@
       <c r="G249" s="38"/>
       <c r="H249" s="38"/>
       <c r="J249" s="51" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="250" spans="2:21" ht="15">
@@ -13867,7 +13905,7 @@
       <c r="F250" s="38"/>
       <c r="G250" s="38"/>
       <c r="H250" s="56" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J250" s="55" t="s">
         <v>344</v>
@@ -13875,7 +13913,7 @@
     </row>
     <row r="251" spans="2:21">
       <c r="B251" s="51" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C251" s="39" t="s">
         <v>266</v>
@@ -13890,15 +13928,15 @@
       <c r="G251" s="38"/>
       <c r="H251" s="38"/>
       <c r="J251" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="252" spans="2:21">
       <c r="B252" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D252" s="55" t="s">
         <v>301</v>
@@ -13910,7 +13948,7 @@
       <c r="G252" s="38"/>
       <c r="H252" s="38"/>
       <c r="J252" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="253" spans="2:21">
@@ -13930,7 +13968,7 @@
       <c r="G253" s="55"/>
       <c r="H253" s="55"/>
       <c r="J253" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="254" spans="2:21">
@@ -13952,7 +13990,7 @@
         <v>324</v>
       </c>
       <c r="J254" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="255" spans="2:21">
@@ -14023,10 +14061,10 @@
     </row>
     <row r="261" spans="2:11">
       <c r="B261" s="48" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J261" s="48" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="262" spans="2:11">
@@ -14046,7 +14084,7 @@
         <v>326</v>
       </c>
       <c r="G262" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H262" s="38" t="s">
         <v>13</v>
@@ -14083,7 +14121,7 @@
     </row>
     <row r="264" spans="2:11" ht="15">
       <c r="B264" s="55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C264" s="55" t="s">
         <v>191</v>
@@ -14097,18 +14135,18 @@
       <c r="F264" s="38"/>
       <c r="G264" s="38"/>
       <c r="H264" s="55" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J264" s="55" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="265" spans="2:11">
       <c r="B265" s="55" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C265" s="51" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D265" s="55" t="s">
         <v>336</v>
@@ -14119,15 +14157,15 @@
       <c r="F265" s="38"/>
       <c r="G265" s="38"/>
       <c r="H265" s="55" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J265" s="55" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="266" spans="2:11">
       <c r="B266" s="51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C266" s="39" t="s">
         <v>273</v>
@@ -14142,7 +14180,7 @@
       <c r="G266" s="38"/>
       <c r="H266" s="40"/>
       <c r="J266" s="51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="267" spans="2:11" ht="43.2">
@@ -14161,7 +14199,7 @@
       <c r="F267" s="38"/>
       <c r="G267" s="38"/>
       <c r="H267" s="56" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J267" s="51" t="s">
         <v>347</v>
@@ -14169,7 +14207,7 @@
     </row>
     <row r="268" spans="2:11" ht="15">
       <c r="B268" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C268" s="51" t="s">
         <v>261</v>
@@ -14183,16 +14221,16 @@
       <c r="F268" s="38"/>
       <c r="G268" s="38"/>
       <c r="H268" s="56" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J268" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K268" s="48"/>
     </row>
     <row r="269" spans="2:11">
       <c r="B269" s="51" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C269" s="39" t="s">
         <v>266</v>
@@ -14207,15 +14245,15 @@
       <c r="G269" s="38"/>
       <c r="H269" s="38"/>
       <c r="J269" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="270" spans="2:11">
       <c r="B270" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C270" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D270" s="55" t="s">
         <v>301</v>
@@ -14227,7 +14265,7 @@
       <c r="G270" s="38"/>
       <c r="H270" s="38"/>
       <c r="J270" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="271" spans="2:11">
@@ -14247,7 +14285,7 @@
       <c r="G271" s="55"/>
       <c r="H271" s="55"/>
       <c r="J271" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="272" spans="2:11">
@@ -14269,7 +14307,7 @@
         <v>324</v>
       </c>
       <c r="J272" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="273" spans="2:18">
@@ -14320,10 +14358,10 @@
     </row>
     <row r="279" spans="2:18">
       <c r="B279" s="48" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="J279" s="48" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="280" spans="2:18">
@@ -14343,7 +14381,7 @@
         <v>326</v>
       </c>
       <c r="G280" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H280" s="38" t="s">
         <v>13</v>
@@ -14357,7 +14395,7 @@
         <v>346</v>
       </c>
       <c r="C281" s="55" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D281" s="61" t="s">
         <v>301</v>
@@ -14380,7 +14418,7 @@
     </row>
     <row r="282" spans="2:18" ht="15">
       <c r="B282" s="62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C282" s="55" t="s">
         <v>242</v>
@@ -14395,15 +14433,15 @@
       <c r="G282" s="38"/>
       <c r="H282" s="38"/>
       <c r="J282" s="62" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="283" spans="2:18" ht="15">
       <c r="B283" s="55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C283" s="55" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D283" s="61" t="s">
         <v>301</v>
@@ -14415,12 +14453,12 @@
       <c r="G283" s="38"/>
       <c r="H283" s="38"/>
       <c r="J283" s="55" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="284" spans="2:18">
       <c r="B284" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C284" s="39" t="s">
         <v>273</v>
@@ -14435,12 +14473,12 @@
       <c r="G284" s="38"/>
       <c r="H284" s="40"/>
       <c r="J284" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="285" spans="2:18" ht="28.8">
       <c r="B285" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C285" s="39" t="s">
         <v>274</v>
@@ -14454,15 +14492,15 @@
       <c r="F285" s="38"/>
       <c r="G285" s="38"/>
       <c r="H285" s="56" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J285" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="286" spans="2:18" ht="15">
       <c r="B286" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C286" s="51" t="s">
         <v>261</v>
@@ -14476,16 +14514,16 @@
       <c r="F286" s="38"/>
       <c r="G286" s="38"/>
       <c r="H286" s="56" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J286" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K286" s="48"/>
     </row>
     <row r="287" spans="2:18">
       <c r="B287" s="51" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C287" s="39" t="s">
         <v>266</v>
@@ -14500,15 +14538,15 @@
       <c r="G287" s="38"/>
       <c r="H287" s="38"/>
       <c r="J287" s="51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="288" spans="2:18">
       <c r="B288" s="51" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C288" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D288" s="55" t="s">
         <v>301</v>
@@ -14520,7 +14558,7 @@
       <c r="G288" s="38"/>
       <c r="H288" s="38"/>
       <c r="J288" s="51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="289" spans="2:18">
@@ -14540,7 +14578,7 @@
       <c r="G289" s="55"/>
       <c r="H289" s="55"/>
       <c r="J289" s="51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="290" spans="2:18">
@@ -14562,7 +14600,7 @@
         <v>324</v>
       </c>
       <c r="J290" s="51" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="291" spans="2:18">
@@ -14636,12 +14674,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="48" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="48" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -14661,7 +14699,7 @@
         <v>326</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>13</v>
@@ -14695,7 +14733,7 @@
         <v>239</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>301</v>
@@ -14706,7 +14744,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="56" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -14714,7 +14752,7 @@
         <v>257</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>306</v>
@@ -14733,7 +14771,7 @@
         <v>258</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>306</v>
@@ -14749,10 +14787,10 @@
     </row>
     <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="51" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>392</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>393</v>
       </c>
       <c r="C8" s="61" t="s">
         <v>301</v>
@@ -14763,7 +14801,7 @@
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="56" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -14771,7 +14809,7 @@
         <v>260</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>301</v>
@@ -14780,7 +14818,7 @@
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="56" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:7">
